--- a/data/raw/02 Corpus_Paco_Yunque_esp_quechuachanca.xlsx
+++ b/data/raw/02 Corpus_Paco_Yunque_esp_quechuachanca.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DATA\FERNANDOHC\EDUCACION\MAESTRIA\UNI_MAI\SEMESTRE_4\MIA-403 Proyecto de investigación II\Repositorio\MIA403-TraductorQuechuaEspaniol\data\raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{151EC2FD-0B27-429F-99D1-C60A76E354D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE8FFD59-4D61-4751-9165-4DBF698B9D0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{C6AD08BC-866A-463D-9786-3E391AF0403F}"/>
   </bookViews>
@@ -37,13 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="782" uniqueCount="772">
-  <si>
-    <t>Español</t>
-  </si>
-  <si>
-    <t>Quechua Chanka</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="942" uniqueCount="910">
   <si>
     <t>La madre le dejó y se fue.</t>
   </si>
@@ -51,18 +45,6 @@
     <t>Maman saqiruspa pasakun.</t>
   </si>
   <si>
-    <t>Paco, paso a paso, fue adelantándose al centro del patio, con su libro primero, su cuaderno y su lápiz.</t>
-  </si>
-  <si>
-    <t>Pacoñataq pampapa chawpinman allillamanta yaykun, maytunta, qillqana maytunta, lápiznintapas apaspa.</t>
-  </si>
-  <si>
-    <t>Varios alumnos, pequeños como él, se le acercaron y Paco, cada vez más tímido, se pegó a la pared y se puso colorado.</t>
-  </si>
-  <si>
-    <t>Yachakuq achka warmakuna, payhina taksakamalla asuykurunku Pacoman, payñataq mancharisqa, pirqaman qimiykukun pukayaykuspa.</t>
-  </si>
-  <si>
     <t>¡Qué listos eran todos esos chicos!</t>
   </si>
   <si>
@@ -120,93 +102,33 @@
     <t>Paco estaba también atolondrado porque en el campo no oyó nunca sonar tantas voces de personas a la vez.</t>
   </si>
   <si>
-    <t>Pacoqa sunsuyarparin, campopiqa manam haykaqpas chayna achka runapa rimaynintaqa uyarirqanchu.</t>
-  </si>
-  <si>
-    <t>En el campo hablaba primero uno, después otro, después otro y después otro.</t>
-  </si>
-  <si>
     <t>Campopiqa chulla chullallamantam rimanku.</t>
   </si>
   <si>
-    <t>A veces, oyó hablar hasta cuatro o cinco personas juntas.</t>
-  </si>
-  <si>
     <t>Wakin punchawkunaqa uyarirqam tawa utaq pichqa runakuna rimaqta.</t>
   </si>
   <si>
-    <t>Era su padre, su madre, don José, el cojo Anselmo y la Tomasa.</t>
-  </si>
-  <si>
-    <t>Taytan, maman, tayta José, wistu Anselmo, Tomasapiwan karqanku.</t>
-  </si>
-  <si>
     <t>Con las gallinas eran más.</t>
   </si>
   <si>
     <t>Wallpakunawanqa aswanmi achka karqan.</t>
   </si>
   <si>
-    <t>Y más todavía con la acequia, cuando crecía…</t>
-  </si>
-  <si>
     <t>Aswanraq acequia yaku achkayaptin…</t>
   </si>
   <si>
     <t>Pero no.</t>
   </si>
   <si>
-    <t>Chayqa, manam.</t>
-  </si>
-  <si>
-    <t>Eso no era ya voz de personas, sino otro ruido, muy diferente.</t>
-  </si>
-  <si>
-    <t>Runakunapa rimayninñachu karqan, ichaqa hukman chaqwaymi karqan.</t>
-  </si>
-  <si>
-    <t>Y ahora sí que esto del colegio era una bulla fuerte, de muchos.</t>
-  </si>
-  <si>
-    <t>Kay yachaywasipiqa llumpay chaqwañam karqan, achka runakunapa.</t>
-  </si>
-  <si>
     <t>Paco estaba asordado.</t>
   </si>
   <si>
     <t>Pacoqa upa rinriñam karurqan.</t>
   </si>
   <si>
-    <t>Un niño rubio y gordo, vestido de blanco, le estaba hablando.</t>
-  </si>
-  <si>
-    <t>Huk paqu qari warma, wirasapa, yuraq pachayuq, rimapayarqan.</t>
-  </si>
-  <si>
-    <t>Otro niño, más chico, medio ronco y con blusa azul, también le hablaba.</t>
-  </si>
-  <si>
-    <t>Huk qari warmapas, taksaniraq, saka kunkayuq, anqas pachayuqpas rimapayarqam.</t>
-  </si>
-  <si>
-    <t>De diversos grupos se separaban los alumnos y venían a ver a Paco, haciéndole muchas preguntas.</t>
-  </si>
-  <si>
-    <t>Yachakuq warmakunam huntamunku Pacota qawaq, tapupayaspanku.</t>
-  </si>
-  <si>
-    <t>Pero Paco no podía oír nada, por la gritería de los demás.</t>
-  </si>
-  <si>
     <t>Pacoñataq mana imatapas uyarinchu wakiqninku chaqwaykuptinku.</t>
   </si>
   <si>
-    <t>Un niño trigueño, cara redonda y con una chaqueta verde muy ceñida en la cintura, agarró a Paco por un brazo y quiso arrastrarlo.</t>
-  </si>
-  <si>
-    <t>Huk warma, yananiraq uyayuq, ruyru uya, taksaniraq chumpayuq Pacota rikranmanta hapirquspa chutayta munarqan.</t>
-  </si>
-  <si>
     <t>Pero Paco no se dejó.</t>
   </si>
   <si>
@@ -225,18 +147,6 @@
     <t>Pacoqa aswanraq pirqaman qimirqukuspa aswan pukayarparin.</t>
   </si>
   <si>
-    <t>En ese momento sonó la campana, y todos entraron a los salones de clase.</t>
-  </si>
-  <si>
-    <t>Chaynachkaptinkum campana waqarparin, hinaptinmi lliw warmakuna yachananku ukuman yaykurparinku.</t>
-  </si>
-  <si>
-    <t>Paco no quiso seguirlos al principio, pero luego obedeció, porque vio que todos hacían lo mismo.</t>
-  </si>
-  <si>
-    <t>Pacoqa manam munarqachu, chaymantaqa qatirqun llapanku yaykuqta rikuspa.</t>
-  </si>
-  <si>
     <t>Al entrar al salón se puso pálido.</t>
   </si>
   <si>
@@ -246,33 +156,12 @@
     <t>Todo quedó repentinamente en silencio y este silencio le dio miedo a Paco.</t>
   </si>
   <si>
-    <t>Qunqaymanta llapallanku upallarparinku, chaywan, Paco mancharikun.</t>
-  </si>
-  <si>
-    <t>Los Zumiga le estaban jalando, el uno para un lado y el otro para el otro lado, cuando de pronto le soltaron y lo dejaron solo.</t>
-  </si>
-  <si>
-    <t>Zumigakunañataq chutachkanku sapa waqtanmanta, qunqaymanta kacharirqunku hinaspa sapallanta saqirqunku.</t>
-  </si>
-  <si>
     <t>El profesor entró.</t>
   </si>
   <si>
     <t>Yachachiq yaykurqamun.</t>
   </si>
   <si>
-    <t>Todos los niños estaban de pie, con la mano derecha levantada a la altura de la sien, saludando en silencio y muy erguidos.</t>
-  </si>
-  <si>
-    <t>Llapan warmakuna sayasqa kachkanku, piqankukama ichuq makinkuta uqarispanku, upallalla kaspanku hinaspa allinta sayaspanku.</t>
-  </si>
-  <si>
-    <t>Paco, sin soltar su libro, su cuaderno y su lápiz, se había quedado parado en medio del salón, entre las primeras carpetas de los alumnos y el pupitre del profesor.</t>
-  </si>
-  <si>
-    <t>Pacoqa maytunta, qillqana maytunta, lápiznintapas mana kacharispa, wasi ukupa chawpinpi sayarun, yachachiqpa pupitrenpa hichpachallanpi.</t>
-  </si>
-  <si>
     <t>Un remolino se le hacía en la cabeza.</t>
   </si>
   <si>
@@ -321,12 +210,6 @@
     <t>Yachachiq.</t>
   </si>
   <si>
-    <t>Ahí, solo, parado, en el colegio.</t>
-  </si>
-  <si>
-    <t>Chaypi, sapallan, sayaspa, yachaywasipi.</t>
-  </si>
-  <si>
     <t>Quería llorar.</t>
   </si>
   <si>
@@ -336,27 +219,12 @@
     <t>El profesor le tomó de la mano y lo llevó a instalar en una de las carpetas delanteras junto a un niño de su mismo tamaño.</t>
   </si>
   <si>
-    <t>Yachachiq, makinmanta hapirquspa aparqun ñawpaqpi kaq tiyanaman, sayaymasin warmapa kuskanman.</t>
-  </si>
-  <si>
     <t>El profesor le preguntó:</t>
   </si>
   <si>
     <t>Yachachiq tapun:</t>
   </si>
   <si>
-    <t>Con voz temblorosa, Paco respondió muy bajito:</t>
-  </si>
-  <si>
-    <t>Katkataqhina rimaspa, Paco tumpachallata rimaspa kutichin:</t>
-  </si>
-  <si>
-    <t>El profesor volvió a su pupitre y, después de echar una mirada muy seria sobre todos los alumnos, dijo con voz de militar:</t>
-  </si>
-  <si>
-    <t>Yachachiq kutirqun pupitrenman hinaspa, yachakuqkunata qaqa uyanwan qawaykuspa, hatun siminwan nin:</t>
-  </si>
-  <si>
     <t>Un traqueteo de carpetas y todos los alumnos ya estaban sentados.</t>
   </si>
   <si>
@@ -369,12 +237,6 @@
     <t>Yachachiqpas tiyarqun hinaspa qillqaykun maytukunapi.</t>
   </si>
   <si>
-    <t>Paco Yunque tenía aún en la mano su libro, su cuaderno y su lápiz.</t>
-  </si>
-  <si>
-    <t>Paco Yunqueqa maytunta, qillqanan maytunta, lápiznintapas hapirayan.</t>
-  </si>
-  <si>
     <t>Su compañero de carpeta le dijo:</t>
   </si>
   <si>
@@ -384,36 +246,15 @@
     <t>Paco Yunque seguía muy aturdido y no le hizo caso.</t>
   </si>
   <si>
-    <t>Paco Yunqueqa hinaraq uman muyusqa kaspa, mana casokunchu.</t>
-  </si>
-  <si>
     <t>Su compañero le quitó entonces sus libros y los puso en la carpeta.</t>
   </si>
   <si>
     <t>Yachaqmasinñataq maytunkunata qichurquspa carpetaman churarparin.</t>
   </si>
   <si>
-    <t>Después, le dijo alegremente:</t>
-  </si>
-  <si>
-    <t>Chaymanta, kusisqa kaynata nin:</t>
-  </si>
-  <si>
-    <t>Vamos a jugar con mi tablero. Tiene torres negras.</t>
-  </si>
-  <si>
-    <t>Tableroywan pukllakusun. Yana torreyuqkunam.</t>
-  </si>
-  <si>
     <t>Me lo ha comprado mi tía Susana.</t>
   </si>
   <si>
-    <t>Tiyay, Susanam rantirqapuwan.</t>
-  </si>
-  <si>
-    <t>¿Dónde está tu familia, la tuya?</t>
-  </si>
-  <si>
     <t>¿Qampa aylluykiri maypim kachkan?</t>
   </si>
   <si>
@@ -429,45 +270,18 @@
     <t>Kay huknin Pacoñataq rimapayan.</t>
   </si>
   <si>
-    <t>Como éste eran seguramente todos los demás niños: habladores, contentos y no les daba miedo el colegio.</t>
-  </si>
-  <si>
-    <t>Payhinachiki wakin warmakunapas: rimaysapakuna, kusisqallaña hinaspa yachaywasitaqa mana manchakunkuchu.</t>
-  </si>
-  <si>
     <t>¿Por qué eran así?</t>
   </si>
   <si>
     <t>¿Imaynanpitaq kaynari kanku?</t>
   </si>
   <si>
-    <t>Y él, Paco Yunque, ¿por qué tenía tanto miedo?</t>
-  </si>
-  <si>
-    <t>Paco Yunqueñataq, ¿imaynanpitaq anchata manchakun?</t>
-  </si>
-  <si>
-    <t>Miraba a hurtadillas al profesor, al pupitre, al muro que había detrás del profesor y al techo.</t>
-  </si>
-  <si>
-    <t>Mana musyachikuqhinalla yachachiqta qawan, pupitretapas, yachachiqpa qipanpi kaq pirqatapas chaynallataq yachaywasipa qatantapas.</t>
-  </si>
-  <si>
-    <t>También miró de reojo, a través de la ventana, al patio, que estaba ahora abandonado y en silencio.</t>
-  </si>
-  <si>
-    <t>Wiksullamanta qawaykum, ventanantakama pukllananku pampata, kunanqa manam pipas pukllanchu.</t>
-  </si>
-  <si>
     <t>El sol brillaba afuera.</t>
   </si>
   <si>
     <t>Hawapiqa inti kanchiykun.</t>
   </si>
   <si>
-    <t>De cuando en cuando, llegaban voces de otros salones de clase y ruidos de carretas que pasaban por la calle.</t>
-  </si>
-  <si>
     <t>Wakin yachana ukukunamanta warmakunapa rimasqanku uyarikun chaynallataq callentakama carretakuna riqtapas uyarin.</t>
   </si>
   <si>
@@ -495,54 +309,9 @@
     <t>Paco Fariñata tapukun:</t>
   </si>
   <si>
-    <t>Paco Yunque no sabía en qué calle estaba su casa, porque acababan de traerlo, hacía pocos días, del campo y no conocía la ciudad.</t>
-  </si>
-  <si>
-    <t>Paco Yunqueqa mana yacharqanchu ima callepi wasin kasqanta, paytaqa chayllaraqmi aparqamurqaku, kay hichpa punchawkunallaraq, chaymi mana riqsirqaraqchu llaqtataqa.</t>
-  </si>
-  <si>
-    <t>Sonaron unos pasos de carrera en el patio, apareció en la puerta del salón Humberto, el hijo del señor Dorian Grieve, un inglés, patrón de los Yunque, gerente de los ferrocarriles de la «Peruvian Corporation» y alcalde del pueblo.</t>
-  </si>
-  <si>
-    <t>Pukllananku pampapi uyarikun raskimusqan, rikurirqamun yachay ukupa punkunpi, Humberto, tayta Dorian Grievepa churin, huk suyumanta hamuq, Yunquekunapa patronninku, Peruvian Corporation nisqa ferrocarrilkunapa umalliqninmi, paytaqmi kay llaqtapa alcaldenpas.</t>
-  </si>
-  <si>
-    <t>Precisamente a Paco le habían hecho venir del campo para que acompañe al colegio a Humberto y para que juegue con él, pues ambos tenían la misma edad.</t>
-  </si>
-  <si>
-    <t>Pacotaqa aparqachimusqa Humbertota yachaywasiman rinaysinanpaq chaynallataq payta pukllaysinanpaq, watapuralla kasqankurayku.</t>
-  </si>
-  <si>
-    <t>Sólo que Humberto acostumbraba venir tarde al colegio y esta vez, por ser la primera, la señora Grieve le había dicho a la madre de Paco:</t>
-  </si>
-  <si>
-    <t>Humbertoqa yachaywasiman qipa qipata chayarqan, kunanñataq qallariy punchaw kaptin mama Grieve mañarurqan Pacopa mamanta:</t>
-  </si>
-  <si>
-    <t>El profesor, al ver a Humberto Grieve, le dijo:</t>
-  </si>
-  <si>
-    <t>Yachachiq, Humberto Grieveta qawaspa, nin:</t>
-  </si>
-  <si>
-    <t>Humberto, con gran desenfado, respondió:</t>
-  </si>
-  <si>
-    <t>Humberto mana manchakuspa, kutichin:</t>
-  </si>
-  <si>
-    <t>Humberto Grieve buscó con la mirada donde estaba Paco Yunque. Al dar con él, se le acercó y le dijo imperiosamente:</t>
-  </si>
-  <si>
-    <t>Humberto Grieve ñawillanwan maskan Paco Yunqueta. Rikurquspan, asuykurqun hinaspa kamachiqhina nin:</t>
-  </si>
-  <si>
     <t>Paco Fariña le dijo a Humberto Grieve:</t>
   </si>
   <si>
-    <t>Paco Fariña, Humberto Grieveta nin:</t>
-  </si>
-  <si>
     <t>El profesor cesó de escribir y preguntó con voz enérgica:</t>
   </si>
   <si>
@@ -555,60 +324,15 @@
     <t>Fariña huktawan nin:</t>
   </si>
   <si>
-    <t>Humberto Grieve instalado ya en su carpeta con Paco Yunque, le dijo al profesor:</t>
-  </si>
-  <si>
-    <t>Humberto Grieve, Paco Yunquewan carpetanpiña tiyaspan, yachachiqta nin:</t>
-  </si>
-  <si>
     <t>El profesor sabía esto perfectamente y le dijo a Humberto Grieve:</t>
   </si>
   <si>
-    <t>Yachachiqqa allintam yacharqan, chaymi Humberto Grieveta nin:</t>
-  </si>
-  <si>
-    <t>Todos los alumnos miraban en silencio al profesor, a Humberto Grieve y a Paco Yunque.</t>
-  </si>
-  <si>
-    <t>Lliw yachakuqkuna upallalla yachachiqta qawanku, Humberto Grievetapas chaynallataq Paco Yunquetapas.</t>
-  </si>
-  <si>
-    <t>Fariña fue y tomó a Paco Yunque por la mano y quiso volverlo a traer a su carpeta, pero Grieve tomó a Paco Yunque por el otro brazo y no lo dejó moverse.</t>
-  </si>
-  <si>
-    <t>Fariña, Paco Yunqueta makinmanta hapispa carpetanman kutichiyta munan, Grieveñataq huknin rikranmanta hapirqun hinaspa mana kuyurinanta munanchu.</t>
-  </si>
-  <si>
     <t>El profesor le dijo otra vez a Grieve:</t>
   </si>
   <si>
     <t>Yachachiq kutimanta Grieveta nin:</t>
   </si>
   <si>
-    <t>Humberto Grieve, colorado de cólera, dijo:</t>
-  </si>
-  <si>
-    <t>Humberto Grieve, piñakuywan pukayarquspa, nin:</t>
-  </si>
-  <si>
-    <t>El profesor estaba indignado y repetía, amenazador:</t>
-  </si>
-  <si>
-    <t>Yachachiq piñarqukuspa kuti kutimanta, hatun siminwan:</t>
-  </si>
-  <si>
-    <t>Humberto Grieve tenía bajos los ojos y sujetaba fuertemente por el brazo a Paco Yunque, el cual estaba aturdido y se dejaba jalar como un trapo por Fariña y por Grieve.</t>
-  </si>
-  <si>
-    <t>Humberto Grieve, Paco Yunqueta hatun ñawinwan qawaspa qaqay qaqata rikranmanta hapirqun, payñataq uman muyusqahina kaspa trapotahina chutaykachachikun Fariñawan chaynallataq Grievewan.</t>
-  </si>
-  <si>
-    <t>Paco Yunque tenía ahora más miedo a Humberto Grieve que al profesor, que a todos los demás niños y que al colegio entero.</t>
-  </si>
-  <si>
-    <t>Paco Yunque kunanqa aswan manchaparqukun Humberto Grieveta, yachachiqmantaqa aswanraq, lliw yachaywasipi kaq warmakunamantapas.</t>
-  </si>
-  <si>
     <t>¿Por qué Paco Yunque le tenía tanto miedo a Humberto Grieve?</t>
   </si>
   <si>
@@ -618,33 +342,12 @@
     <t>Porque este Humberto Grieve solía pegarle a Paco Yunque.</t>
   </si>
   <si>
-    <t>Humberto Grieve, Paco Yunqueta maqapayasqanraykum.</t>
-  </si>
-  <si>
-    <t>El profesor se acercó a Paco Yunque, le tomó por el brazo y le condujo a la carpeta de Fariña.</t>
-  </si>
-  <si>
-    <t>Yachachiq asuykurqun Paco Yunqueman, rikranmanta hapirquspan Fariñapa carpetanman aparqun.</t>
-  </si>
-  <si>
-    <t>Grieve se puso a llorar, pataleando furiosamente en su banco.</t>
-  </si>
-  <si>
-    <t>Grieve waqarqun, tiyananpi haytaqyaspa piñasqallaña.</t>
-  </si>
-  <si>
     <t>El profesor le dijo:</t>
   </si>
   <si>
     <t>Yachachiq nin:</t>
   </si>
   <si>
-    <t>Le señaló un rincón, cerca de la pizarra de ejercicios.</t>
-  </si>
-  <si>
-    <t>Kuchuta qawachin, pizarrapa lawninman.</t>
-  </si>
-  <si>
     <t>Paco Fariña se levantó entonces y dijo:</t>
   </si>
   <si>
@@ -675,60 +378,9 @@
     <t>Yunque kutichin:</t>
   </si>
   <si>
-    <t>Humberto Grieve, desde su banco del otro lado del salón, miraba con cólera a Paco Yunque y le enseñaba los puños, porque se dejó llevar a la carpeta de Paco Fariña.</t>
-  </si>
-  <si>
-    <t>Humberto Grieve, tiyasqanmanta piñasqa qawan Paco Yunqueta hinaspa qawachin takata, Paco Fariñapa carpetanman apachikusqanrayku.</t>
-  </si>
-  <si>
-    <t>Paco Yunque no sabía qué hacer. Le pegaría otra vez el niño Humberto, porque no se quedó con él, en su carpeta.</t>
-  </si>
-  <si>
-    <t>Paco Yunque mana imatapas rurayta atinchu. Warma Humberto huktawan maqarqunman, paypa carpetanpi mana tiyasqanmanta.</t>
-  </si>
-  <si>
-    <t>Cuando saldrían del colegio, el niño Humberto le daría un empujón en el pecho y una patada en la pierna.</t>
-  </si>
-  <si>
     <t>Warma Humbertom yachaywasimanta lluqsiptin tanqarqunman hinaspa haytarqunman chankanpi.</t>
   </si>
   <si>
-    <t>El niño Humberto era malo y pegaba pronto, a cada rato. En la calle. En el corredor también. Y en la escalera. Y también en la cocina, delante su mamá y delante la patrona.</t>
-  </si>
-  <si>
-    <t>Warma Humbertoqa mana allin warmam, maqaytam yachan, kuti kutilla. Ñanpi. Lluqsina lawpipas. Siqana lawpipas. Chaynallataq yanuna ukupipas, mamanpa qayllanpi chaynallataq patronanpa qayllanpipas.</t>
-  </si>
-  <si>
-    <t>Ahora le va a pegar, porque le estaba enseñando los puñetes y le miraba con ojos blancos.</t>
-  </si>
-  <si>
-    <t>Kunanqa maqarqunqam, takatam qawachichkan hinaspa ñawintapas yuraqyachisparaq qawan.</t>
-  </si>
-  <si>
-    <t>Fariña volteó a ver a Grieve y este Grieve le enseñó también a él los puños, refunfuñando no sé qué cosas, a escondidas del profesor.</t>
-  </si>
-  <si>
-    <t>Fariña kutirispa qawan Grieveta, kay Grieveqa paymanpas qawachin takata, imatachá rimapakuspan, yachachiqpa mana uyarisqallan.</t>
-  </si>
-  <si>
-    <t>Quiero ver quién hace el mejor ejercicio, para que su nombre sea inscrito en el Cuaderno de Honor del Colegio, como el mejor alumno del primer año.</t>
-  </si>
-  <si>
-    <t>Kay ruranaykichikpaq saqisqayta, pim allinta ruranqa, chaytam qawasaq, yachaywasipa Cuaderno de Honor nisqapi sutin qillqasqa kananpaq, chaypim, primer año nisqapi allin yachaq kasqanta riqsichisun.</t>
-  </si>
-  <si>
-    <t>¿Me han oído bien? Vamos a hacer lo mismo que hicimos la semana pasada. Exactamente lo mismo. Hay que atender bien a la clase. Hay que copiar bien el ejercicio que voy a escribir después en la pizarra. ¿Me han entendido bien?</t>
-  </si>
-  <si>
-    <t>¿Allintachu uyariwankichik? Ñawpaq semanapihinam rurasun. Chaynatapuni. Rimasqayta allinta uyarinkichik. Ruranaykichikpaqmi qillqasaq pizarrapi, chaytam allinta qillqaspa apankichik. ¿Allintachu uyariwankichik?</t>
-  </si>
-  <si>
-    <t>Varios niños quisieron hablar. El profesor le dijo a uno de los Zumiga que hablase.</t>
-  </si>
-  <si>
-    <t>Achka warmakunam rimayta munanku. Yachachiqmi huknin Zumigata, qam rimay, nin.</t>
-  </si>
-  <si>
     <t>Humberto Grieve dijo:</t>
   </si>
   <si>
@@ -744,42 +396,9 @@
     <t>Lliw warmakuna asiykunku.</t>
   </si>
   <si>
-    <t>Un chico, flacucho y pálido, dijo:</t>
-  </si>
-  <si>
-    <t>Huk, tullu warma, qillu uyayuq, nin:</t>
-  </si>
-  <si>
-    <t>Paco Fariña se moría de risa. Los Zumiga también. El chico rubio y gordo, de chaqueta blanca y el otro, cara redonda y chaqueta verde, se reían ruidosamente. ¡Qué Grieve tan divertido! ¡Los peces en su salón! ¡Entre los muebles! ¡Como si fuesen pájaros! Era una gran mentira lo que contaba Grieve.</t>
-  </si>
-  <si>
-    <t>Paco Fariña wañuykuqhinaraq asiykun. Zumigakuna chaynallataq wirasapa paqu qari warmapas, yuraq chaquetayuq, hukninñataq ruyru uya, verde chaquetayuqpas qapariqhinaraq asiykunku. ¡Grieveqa asichikunmi! ¡Wasin ukupi challwakuna! ¡Pisqukunahina! Grievepa willakusqan hatun llulla karqan.</t>
-  </si>
-  <si>
-    <t>Todos los chicos exclamaban a la vez, reventando de risa:</t>
-  </si>
-  <si>
     <t>Lliw warmakuna asiykunku wañuykuqhinaraq:</t>
   </si>
   <si>
-    <t>Humberto Grieve se enojó porque no le creían lo que contaba. Todos se burlaban de lo que había dicho.</t>
-  </si>
-  <si>
-    <t>Humberto Grieve piñarqukun, willakuyninta taripasqankumanta. Llapankum willakusqanmanta asipayaykunku.</t>
-  </si>
-  <si>
-    <t>Pero Grieve recordaba que trajo dos peces pequeños a su casa y los soltó en su salón y ahí estuvieron muchos días. Los movió y se movían. No estaba seguro si vivieron muchos días o murieron pronto.</t>
-  </si>
-  <si>
-    <t>Ichaqa yuyanmi Grieve iskay challwachakunata apaspan wasin ukupi kachaykusqanta, chaypi achka punchaw kasqantapas. Taspiptin mana kuyurisqanta. Manam allintaqa yuyanchu achka punchaw kawsasqanta utaq utqaylla wañusqanta.</t>
-  </si>
-  <si>
-    <t>Grieve, de todos modos, quería que le creyeran lo que decía. En medio de las risas de todos, le dijo a uno de los Zumiga:</t>
-  </si>
-  <si>
-    <t>Grieveqa munarqam willakuyninta arí chaynam ninankuta. Llapanku asiykuchkaptinkum, huknin kaq Zumigata nin:</t>
-  </si>
-  <si>
     <t>El profesor dijo en alta voz:</t>
   </si>
   <si>
@@ -795,21 +414,12 @@
     <t>El niño flacucho y pálido dijo:</t>
   </si>
   <si>
-    <t>Tullu, qari warma, qillu uyayuq kaynata nin:</t>
-  </si>
-  <si>
     <t>El chico vestido de verde dijo:</t>
   </si>
   <si>
     <t>Verde pachayuq warma nin:</t>
   </si>
   <si>
-    <t>Todos los niños dijeron que sus padres tenían mucho dinero. Paco Yunque no decía nada y estaba pensando en los peces que morían fuera del agua.</t>
-  </si>
-  <si>
-    <t>Lliw warmakunam ninku, taytanku qullqisapa kasqankuta. Paco Yunqueñataq mana imatapas nispa yuyachkarqan, challwakuna yakumanta lluqsispaqa wañusqanta.</t>
-  </si>
-  <si>
     <t>Fariña le dijo a Paco Yunque:</t>
   </si>
   <si>
@@ -819,51 +429,21 @@
     <t>Paco Yunque reflexionó y se acordó haberle visto una vez a su mamá con unas pesetas en la mano. Yunque dijo a Fariña:</t>
   </si>
   <si>
-    <t>Paco Yunque yuyarirqun, huk punchaw maman pesetakunata makinpi hapisqanta. Yunquem Fariñaman nin:</t>
-  </si>
-  <si>
     <t>Paco Fariña dijo al profesor en voz alta:</t>
   </si>
   <si>
-    <t>Paco Fariña, yachachiqman hatun siminwan nin:</t>
-  </si>
-  <si>
-    <t>El profesor tomó la tiza y escribió en la pizarra, dando la espalda a los niños.</t>
-  </si>
-  <si>
     <t>Yachachiq tizata hapirquspam pizarrapi qillqan warmakunamanta kutirispan.</t>
   </si>
   <si>
-    <t>Humberto Grieve, aprovechando de que no le veía el profesor, dio un salto y le jaló de los pelos a Yunque, volviéndose a la carrera a su carpeta. Yunque se puso a llorar.</t>
-  </si>
-  <si>
-    <t>Humberto Grievem, yachachiq kutirisqa kachkaptin, pawaykuspa Yunqueta chukchanmanta chutarparin, chaynaruspan utqayllaman carpetanman kutirparin. Yunqueqa waqaykun.</t>
-  </si>
-  <si>
     <t>Paco Fariña dijo:</t>
   </si>
   <si>
-    <t>Paco Fariña, nin:</t>
-  </si>
-  <si>
     <t>Siguió escribiendo en la pizarra; y después preguntó a Grieve:</t>
   </si>
   <si>
     <t>Pizarrapi qillqanpunitaq; chaymanta Grieveta tapun:</t>
   </si>
   <si>
-    <t>Otra vez se reían de Grieve los niños. Este Grieve no sabía nada. No pensaba más que en su casa y en su salón y en su papá y en su plata. Siempre estaba diciendo tonterías.</t>
-  </si>
-  <si>
-    <t>Grievepa nisqanwan warmakuna kutimanta asiykunku. Grieveqa manam yachanchu imatapas. Wasinpi, wasinpa hatun ukunpi, taytanpi, chaynallataq qullqinpipas yuyarayan. Upahinam imatapas riman.</t>
-  </si>
-  <si>
-    <t>Paco Yunque, medio llorando todavía por el jalón de pelos que le dio Grieve, repitió de una tirada lo que dijo el profesor:</t>
-  </si>
-  <si>
-    <t>Paco Yunquem, Grievepa chukchan chutasqanwan waqapakustinraq, chaylla kutirqachin yachachiqpa tapukusqanta:</t>
-  </si>
-  <si>
     <t>Volvió a escribir en la pizarra.</t>
   </si>
   <si>
@@ -873,57 +453,18 @@
     <t>Humberto Grieve aprovechó otra vez de que no podía verle el profesor y fue a darle un puñetazo a Paco Fariña en la boca y regresó de un salto a su carpeta.</t>
   </si>
   <si>
-    <t>Humberto Grievem, yachachiq kutirinankama Paco Fariñata siminpi takarparin hinaspa carpetanman utqayllaman kutirqun.</t>
-  </si>
-  <si>
-    <t>Fariña, en vez de llorar como Paco Yunque, dijo a grandes voces al profesor:</t>
-  </si>
-  <si>
-    <t>Fariñaqa, manam Paco Yunquehinachu waqan, aswanmi yachachiqman qapariqhina nin:</t>
-  </si>
-  <si>
     <t>Una bulla tremenda había en el salón.</t>
   </si>
   <si>
-    <t>Yachana ukupi, chaqway karparin.</t>
-  </si>
-  <si>
     <t>El profesor dio un puñetazo en su pupitre y dijo:</t>
   </si>
   <si>
-    <t>Yachachiq pupitrenta takarparin, hinaspa nin:</t>
-  </si>
-  <si>
-    <t>El salón se sumió en un silencio completo y cada alumno estaba en su carpeta, serio y derecho, mirando ansiosamente al profesor.</t>
-  </si>
-  <si>
-    <t>Manam pipas chay ukupi rimanchu hinaspa yachakuqkuna carpetanpi sapakama tiyarqunku, mana asispanku, allinta tiyaspanku, yachachiqta manchakuywan qawanku.</t>
-  </si>
-  <si>
-    <t>¡Las cosas de este Humberto Grieve! ¡Ya ven lo que estaba pasando por su cuenta! ¡Ahora habrá que ver lo que iba a hacer el profesor, que estaba colorado de cólera! ¡Y todo por culpa de Humberto Grieve!</t>
-  </si>
-  <si>
-    <t>¡Kay Humberto Grievepa rurasqankuna! ¡Qawachkankichikmi kikinmanta imapas rurasqanta! ¡Kunanmi qawasun yachachiqpa ima rurasqanta, piñakuywan uyanpas pukayasqaraq! ¡Humberto Grievepa huchanpi!</t>
-  </si>
-  <si>
-    <t>Paco Fariña, con los ojos brillantes de rabia, decía:</t>
-  </si>
-  <si>
-    <t>Paco Fariña, piñallaña qawaspan, nin:</t>
-  </si>
-  <si>
     <t>El profesor miró a todos los alumnos sin saber a qué atenerse. ¿Quién de los dos decía la verdad? ¿Fariña o Grieve?</t>
   </si>
   <si>
     <t>Yachachiq qawarparin llapan yachaqkunata mana imatapas rurayta atispa. ¿Iskayninmanta mayqintaq kaqllata riman? ¿Fariñachu utaq Grievechu?</t>
   </si>
   <si>
-    <t>Paco Yunque miró a Humberto Grieve y no se atrevió a responder, porque si decía que sí, el niño Humberto le pegaría a la salida. Yunque no dijo nada y bajó cabeza.</t>
-  </si>
-  <si>
-    <t>Paco Yunque, Humberto Grieveta qawaspan kutichiyta mana atinchu, arí chaynam niptinqa, Humbertom lluqsiptinku maqarqunman. Yunqueqa kumuykun mana imatapas nispa.</t>
-  </si>
-  <si>
     <t>Fariña dijo:</t>
   </si>
   <si>
@@ -942,30 +483,12 @@
     <t>Yachachiq Grieveta kutimanta tapun:</t>
   </si>
   <si>
-    <t>El profesor se puso a pasear, pensativo, y todos los alumnos seguían circunspectos y derechos en sus bancos.</t>
-  </si>
-  <si>
-    <t>Yachachiq puriykachan, yuyaykachaqhina, yachakuqkunañataq, imayná niqhina kanku, allinta tiyarquspanku.</t>
-  </si>
-  <si>
     <t>Paco Fariña gruñía a media voz y como queriendo llorar:</t>
   </si>
   <si>
-    <t>Paco Fariña, piñasqa upallaqhinalla rimapakun hinaspa waqaqhina nin:</t>
-  </si>
-  <si>
     <t>El profesor le oyó y se plantó enojado delante de Fariña y le dijo en alta voz:</t>
   </si>
   <si>
-    <t>Yachachiq, uyarirquspan piñakuywan sayarparin Fariñapa ñawpaqninpi hinaspa hatun siminwan nin:</t>
-  </si>
-  <si>
-    <t>Paco Fariña estaba agachado. Paco Yunque también. Los dos sabían que era Humberto Grieve quien les había pegado y que era un gran mentiroso.</t>
-  </si>
-  <si>
-    <t>Paco Fariñaqa kumurayan. Paco Yunquepas chaynallataq. Iskayninkum yachanku Humberto Grieve maqarqusqanta hinaspa ancha llulla kasqantapas.</t>
-  </si>
-  <si>
     <t>El profesor fue a la pizarra y siguió escribiendo.</t>
   </si>
   <si>
@@ -978,78 +501,15 @@
     <t>Paco Fariña tapun Paco Yunqueta:</t>
   </si>
   <si>
-    <t>Mientras el profesor escribía en la pizarra, Humberto Grieve se puso a llenar de dibujos su cuaderno.</t>
-  </si>
-  <si>
-    <t>Yachachiq pizarrapi qillqanankama, Humberto Grieve qillqana maytun huntata qillqaparqun.</t>
-  </si>
-  <si>
-    <t>Paco Yunque estaba pensando en su mamá. Después se acordó de la patrona y del niño Humberto. ¿Le pegaría al volver a la casa?</t>
-  </si>
-  <si>
-    <t>Paco Yunque mamanta yuyachkarqan. Chaymanta yuyarirqun patronanta chaynallataq Humberto warmatapas. ¿Wasiman kutiptin maqarqunmankuchu?</t>
-  </si>
-  <si>
-    <t>Yunque miraba a los otros niños y éstos no le pegaban a Yunque ni a Fariña, ni a nadie.</t>
-  </si>
-  <si>
-    <t>Yunque qawan wakin warmakunata, paykunaqa manam maqankuchu Yunqueta, nitaq Fariñata, manataqmi pitapas.</t>
-  </si>
-  <si>
-    <t>Tampoco le querían agarrar a Yunque en las otras carpetas, como quiso hacerlo el niño Humberto.</t>
-  </si>
-  <si>
-    <t>Yunquetapas manam hapiytaqa munankuchu huk carpetakunapi, Humberto warmahinaqa.</t>
-  </si>
-  <si>
     <t>¿Por qué el niño Humberto era así con él?</t>
   </si>
   <si>
-    <t>¿Humberto warma, imaynanpitaq chayna paywanri?</t>
-  </si>
-  <si>
-    <t>Yunque se lo diría ahora a su mamá y si el niño Humberto le pegaba, se lo diría al profesor.</t>
-  </si>
-  <si>
-    <t>Yunque kunanqa mamanman willarqunqa, warma Humberto maqaptinñataq yachachiqman willaykunqa.</t>
-  </si>
-  <si>
     <t>Pero el profesor no le hacía nada al niño Humberto.</t>
   </si>
   <si>
-    <t>Ichaqa yachachiq, Humberto warmata mana imananchu.</t>
-  </si>
-  <si>
-    <t>Entonces, se lo diría a Paco Fariña. Le preguntó a Paco Fariña:</t>
-  </si>
-  <si>
-    <t>Chaynaqa, willarqunman Paco Fariñaman. Paco Fariñata tapurqun:</t>
-  </si>
-  <si>
     <t>Paco Yunque le oía asustado a Paco Fariña lo que decía.</t>
   </si>
   <si>
-    <t>Paco Yunquem, mancharisqa uyarin Paco Fariñapa nisqanta.</t>
-  </si>
-  <si>
-    <t>¿Cierto sería que le pegaría al niño Humberto? ¿Y que su papá vendría a pegarle al señor Grieve?</t>
-  </si>
-  <si>
-    <t>¿Ichachu Humberto warmata maqarqunman? ¿Taytanñataq hamurqunman tayta Grieveta maqaqnin?</t>
-  </si>
-  <si>
-    <t>Paco Yunque no quería creerlo, porque al niño Humberto no le pegaba nadie.</t>
-  </si>
-  <si>
-    <t>Paco Yunqueqa, manam chaynaqa kanmanchu nin, Humberto warmataqa manam pipas maqarqanchu.</t>
-  </si>
-  <si>
-    <t>Si Fariña le pegaba, vendría el patrón y le pegaría a Fariña y también al papá de Fariña.</t>
-  </si>
-  <si>
-    <t>Fariña maqaptinqa, patronmi hamurquspan Fariñata maqarqunman chaynallataq Fariñapa taytantapas.</t>
-  </si>
-  <si>
     <t>Le pegaría el patrón a todos.</t>
   </si>
   <si>
@@ -1071,27 +531,9 @@
     <t>Y venían a su casa señores y señoras que le tenían miedo y obedecían siempre al patrón y a la patrona.</t>
   </si>
   <si>
-    <t>Wasinman hamuq runakuna manchakunku hinaspa patronta, patronatapas kasunkupuni.</t>
-  </si>
-  <si>
-    <t>En buena cuenta, el señor Grieve podía más que el profesor y más que todos.</t>
-  </si>
-  <si>
-    <t>Yachasqam, tayta Grieve yachachiqmantaqa, lliw runakunapaq atiqniyuq kasqan.</t>
-  </si>
-  <si>
     <t>Paco Yunque miró al profesor que escribía en la pizarra.</t>
   </si>
   <si>
-    <t>Paco Yunquem, yachachiq pizarrapi qillqaqta qawan.</t>
-  </si>
-  <si>
-    <t>¿Quién era el profesor? ¿Por qué era tan serio y daba miedo?</t>
-  </si>
-  <si>
-    <t>¿Pitaq kay yachachiqri? ¿Imaynanpitaq piña uyayuqri hinaspa manchakuypaq?</t>
-  </si>
-  <si>
     <t>Yunque seguía mirándolo.</t>
   </si>
   <si>
@@ -1107,21 +549,9 @@
     <t>Más bien se parecía a otros señores que venían a la casa y hablaban con el patrón.</t>
   </si>
   <si>
-    <t>Aswanqa, patronpa wasinman rimaq hamuq taytakunahinam.</t>
-  </si>
-  <si>
     <t>Tenía un pescuezo colorado y su nariz parecía moco de pavo.</t>
   </si>
   <si>
-    <t>Puka kunkayuq, sinqanpas pavopa ñutiyuqhina.</t>
-  </si>
-  <si>
-    <t>Sus zapatos hacían risss - risss - rissss - risssss, cuando caminaba mucho.</t>
-  </si>
-  <si>
-    <t>Zapatonkunañataq, anchata puriptin risss – risss – rissss – risssss ninraq.</t>
-  </si>
-  <si>
     <t>Yunque empezó a fastidiarse. ¿A qué hora se iría a su casa?</t>
   </si>
   <si>
@@ -1134,42 +564,6 @@
     <t>Yachaywasimanta lluqsiptin Humberto warma maqarqunman.</t>
   </si>
   <si>
-    <t>Y la mamá de Paco Yunque le diría al niño Humberto: “No, niño. No le pegue usted a Paquito. No sea tan malo”.</t>
-  </si>
-  <si>
-    <t>Paco Yunquepa mamanñataq Humberto warmata ninman: “Ama, warma. Pacochataqa amayá maqallaychu. Amayá chaynaqa kaychu”.</t>
-  </si>
-  <si>
-    <t>Y nada más le diría. Pero Paco tendría colorada la pierna de la patada del niño Humberto.</t>
-  </si>
-  <si>
-    <t>Chaynallatam ninman. Ichaqa Pacopa chankan pukallaña kanman Humberto warmapa haytasqanwan.</t>
-  </si>
-  <si>
-    <t>Y Paco se pondría a llorar. Porque al niño Humberto nadie le hacía nada.</t>
-  </si>
-  <si>
-    <t>Pacoñataq waqarqunman. Humberto warmataqa pipas manam imananchu.</t>
-  </si>
-  <si>
-    <t>Y porque el patrón y la patrona le querían mucho al niño Humberto, y Paco Yunque tenía pena porque el niño Humberto le pegaba mucho.</t>
-  </si>
-  <si>
-    <t>Patronqa patronapas anchatam kuyanku Humberto warmataqa, Paco Yunqueñataq manchakurqan Humberto warmata ancha maqasqanrayku.</t>
-  </si>
-  <si>
-    <t>Todos, todos, todos le tenían miedo al niño Humberto y a sus papás. Todos. Todos. Todos.</t>
-  </si>
-  <si>
-    <t>Humberto warmata, taytamamantapas llapachallankum manchakurqanku. Llapanku. Llapanku. Llapanku.</t>
-  </si>
-  <si>
-    <t>El profesor también. La cocinera. Su hija. La mamá de Paco. El Venancio con su mandil. La María que lava las bacinicas.</t>
-  </si>
-  <si>
-    <t>Yachachiqpas. Yanupuqpas. Warmi wawanpas. Pacopa mamanpas. Mandilniyuq Venaciopas. Bacinicakuna mayllaq Mariapas.</t>
-  </si>
-  <si>
     <t>Quebró ayer una bacinica en tres pedazos grandes.</t>
   </si>
   <si>
@@ -1185,117 +579,24 @@
     <t>¡Qué cosa fea era esto del patrón y del niño Humberto!</t>
   </si>
   <si>
-    <t>¡Kaykunaqa millaymi, patronpa, Humberto warmapapas!</t>
-  </si>
-  <si>
     <t>Paco Yunque quería llorar. ¿A qué hora acabaría de escribir el profesor en la pizarra?</t>
   </si>
   <si>
-    <t>Paco Yunque waqayta munan. ¿Yachachiq, imay horataq pizarrapi qillqayta tukunqa?</t>
-  </si>
-  <si>
     <t>Los niños sacaron sus cuadernos y se pusieron a copiar el ejercicio que el profesor había escrito en la pizarra.</t>
   </si>
   <si>
-    <t>Warmakuna qillqana maytunkuta hurquspanku qillqayta qallarin ku, yachachiq pizarrapi ruranankupaq qillqasqanta.</t>
-  </si>
-  <si>
     <t>Humberto Grieve preguntó:</t>
   </si>
   <si>
     <t>Humberto Grieve tapurqun:</t>
   </si>
   <si>
-    <t>El salón se sumió en el silencio. No se oía sino el ruido de los lápices. El profesor se sentó a su pupitre y también se puso a escribir en unos libros.</t>
-  </si>
-  <si>
-    <t>Chay ukupi, llapanku upallarparinku. Lápizwan qillqasqankum uyarikun. Yachachiq tiyarqun pupitrenpi hinaspa maytukunapi qillqaykun.</t>
-  </si>
-  <si>
-    <t>Humberto Grieve, en vez de copiar su ejercicio, se puso otra vez a hacer dibujos en su cuaderno. Lo llenó completamente de dibujos de peces, de muñecos y de cuadritos. En la última página dibujó estas figuras.</t>
-  </si>
-  <si>
-    <t>Humberto Grieve, mana qillqanchu rurananpaq kaqta, aswanqa maytunpi qillqan imakunatapas. Huntarparichin challwakunata qillqaspan, muñecokunata chaynallataq tawa kuchuchayuqkunatapas. Maytupa qipa kaq rapinpim, kaykunata qillqarqusqa.</t>
-  </si>
-  <si>
-    <t>Al cabo de un rato, el profesor se paró y preguntó:</t>
-  </si>
-  <si>
-    <t>Unayniraqchamanta, yachachiq sayarirquspa tapun:</t>
-  </si>
-  <si>
     <t>En ese momento sonó la campana del recreo.</t>
   </si>
   <si>
-    <t>Chayta nichkaptin, campana waqarparin warmakuna pukllanankupaq.</t>
-  </si>
-  <si>
     <t>Una gran algazara volvieron a hacer los niños y salieron corriendo al patio.</t>
   </si>
   <si>
-    <t>Warmakuna kusikuykuspanku, pukllananku hawaman pawayllaña lluqsirparinku.</t>
-  </si>
-  <si>
-    <t>Paco Yunque había copiado su ejercicio muy bien y salió al recreo con su libro, su cuaderno y su lápiz.</t>
-  </si>
-  <si>
-    <t>Paco Yunqueqa rurananpaq qusqanta, allintam qillqarqusqa hinaspa maytunta, qillqana maytunta, chaynallataq lápiznintapas aparikuspa lluqsirqun pukllayman.</t>
-  </si>
-  <si>
-    <t>Ya en el patio, vino Humberto Grieve y agarró a Paco Yunque por un brazo, diciéndole con cólera:</t>
-  </si>
-  <si>
-    <t>Pukllana pampapi kachkaptin, Humberto Grieve hamurqun hinaspa Paco Yunqueta huknin rikranmanta hapirqun, piñallaña kaynata nispa:</t>
-  </si>
-  <si>
-    <t>Lo echó de un empellón al medio y le hizo derribar su libro, su cuaderno y su lápiz.</t>
-  </si>
-  <si>
-    <t>Huk tanqayllawan chawpiman chanqaykun chaynaspa wikapachin maytunta, qillqana maytunta, lápiznintapas.</t>
-  </si>
-  <si>
-    <t>Yunque hacía lo que le ordenaba Grieve, pero estaba colorado y avergonzado de que los otros niños viesen cómo lo zarandeaba el niño Humberto. Yunque quería llorar.</t>
-  </si>
-  <si>
-    <t>Yunqueqa Grievepa nisqanta ruran, ichaqa pukayarqun hinaspa pinqasqallaña Humberto warma chaspisqanta wakin warmakuna qawaptin. Yunque waqanayaq kachkan.</t>
-  </si>
-  <si>
-    <t>Paco Fariña, los dos Zumiga y otros niños rodeaban a Humberto Grieve y a Paco Yunque. El niño flacucho y pálido recogió el libro, el cuaderno y el lápiz de Yunque, pero Humberto Grieve se los quitó a la fuerza, diciéndole:</t>
-  </si>
-  <si>
-    <t>Paco Fariña, iskaynin Zumigakuna, huk warmakunapiwan asuykurqunku Humberto Grieveman Paco Yunquemanwan. Tullu warma, qillu uyayuq uqarirqun Yunquepa maytunta, qillqana maytuntapas chaynallataq lápizninta, ichaqa Humberto Grieve qichurparin kallpawan, kaynata nispan:</t>
-  </si>
-  <si>
-    <t>Humberto Grieve llevó al salón de clases las cosas de Paco Yunque y se las guardó en su carpeta. Después, volvió al patio a jugar con Paco Yunque. Le cogió del pescuezo y le hizo doblar la cintura y ponerse en cuatro manos.</t>
-  </si>
-  <si>
-    <t>Humberto Grievem, Paco Yunquepa kaqninkunata yachananku ukuman aparqun hinaspa carpetanpi waqaycharqapun. Chaymanta, pukllanan pampaman Paco Yunquewan pukllaq kutirqun. Kunkanmanta hapirquspan kumurparichin, makinwan pampapi hapipakunankama.</t>
-  </si>
-  <si>
-    <t>Humberto Grieve se retiró a cierta distancia y desde allí vino corriendo y dio un salto sobre Paco Yunque, apoyando las manos sobre sus espaldas y dándole una patada feroz en las posaderas. Volvió a retirarse y volvió a saltar sobre Paco Yunque, dándole otra patada.</t>
-  </si>
-  <si>
-    <t>Humberto Grieve, karuniqchaman kutirirqun chaymanta kallparqamuspan pawaykun Paco Yunqueman, wasanman hapipakuspan sikinpi haytaparparin. Kutimanta kutirirquspam hukmantapunitaq Paco Yunqueman pawaykun, huktawanmi haytarparin.</t>
-  </si>
-  <si>
-    <t>Mucho rato estuvo así jugando Humberto Grieve con Paco Yunque. Le dio como veinte saltos y veinte patadas.</t>
-  </si>
-  <si>
-    <t>Humberto Grievem chaynaspan unaysu pukllakun Paco Yunquewan. Yaqa iskay chunka kutita pawaykuspam, iskay chunka kutitahina haytaparqun.</t>
-  </si>
-  <si>
-    <t>De repente se oyó un llanto. Era Yunque que estaba llorando de las fuertes patadas del niño Humberto.</t>
-  </si>
-  <si>
-    <t>Qunqayllamanta uyarirqukun waqay. Yunquem waqachkasqa Humberto warma kallpawan haytaparusqanwan.</t>
-  </si>
-  <si>
-    <t>Entonces salió Paco Fariña del ruedo formado por los otros niños y se plantó ante Grieve, diciéndole:</t>
-  </si>
-  <si>
-    <t>Paco Fariña, warmakunapa chawpinmanta lluqsirqamun hinaspa Grievepa ñawpaqninpi sayarparin, kaynata nispa:</t>
-  </si>
-  <si>
     <t>Humberto Grieve le respondió amenazándole:</t>
   </si>
   <si>
@@ -1305,51 +606,18 @@
     <t>Pero Fariña no se movía y estaba tieso delante de Grieve y le decía:</t>
   </si>
   <si>
-    <t>Ichaqa Fariña mana kuyurinchu hinaspa Grievepa ñawpaqninpi kallpachakuspa sayarqun, kaynata nispa:</t>
-  </si>
-  <si>
-    <t>Los dos hermanos Zumiga abrazaban a Paco Yunque y le decían que ya no llorase y le consolaban, diciéndole:</t>
-  </si>
-  <si>
     <t>Paco Yunquetam iskaynin Zumigakuna marqarukuspanku amaña waqaychu ninku hinaspa upallananpaq kaynata ninku:</t>
   </si>
   <si>
     <t>Paco Yunque estaba siempre llorando y sus lágrimas parecían ahogarle.</t>
   </si>
   <si>
-    <t>Paco Yunqueqa hinam waqaykun, wiqinwanpas hiqipaqhinaraq.</t>
-  </si>
-  <si>
     <t>Se formó un tumulto de niños en torno a Paco Yunque y otro tumulto en torno a Humberto Grieve y a Paco Fariña.</t>
   </si>
   <si>
-    <t>Warmakunam asuykurqun Paco Yunqueman chaynallataq huk warmakunapas Humberto Grieveman, Paco Fariñamanpas.</t>
-  </si>
-  <si>
     <t>Grieve le dio un empellón brutal a Fariña y lo derribó al suelo.</t>
   </si>
   <si>
-    <t>Grievem kallpawan tanqarparin Fariñata, pampaman wischukunankama.</t>
-  </si>
-  <si>
-    <t>Vino un alumno más grande, del segundo año, y defendió a Fariña, dándole a Grieve un puntapié.</t>
-  </si>
-  <si>
-    <t>Iskay wataña, yachaywasipi kaq hatun warmam hamurqun hinaspa Fariñaman sayapakun, Grieveta hukta haytarquspa.</t>
-  </si>
-  <si>
-    <t>Y otro niño del tercer año, más grande que todos, defendió a Grieve, dándole una furiosa trompada al alumno de segundo año.</t>
-  </si>
-  <si>
-    <t>Kimsa wataña, yachaywasipi kaq warma, llapallanmanta aswan hatun, Grieveman sayapakuspa iskay wataña yachaywasipi kaq warmata, uyanpi kallpawan takarparin.</t>
-  </si>
-  <si>
-    <t>Un buen rato llovieron bofetadas y patadas entre varios niños. Eso era un enredo.</t>
-  </si>
-  <si>
-    <t>Achka warmakunam unay takapaykanakunku uyankupi chaynallataq haytapaykunakunku. Chayqa chaqwallañam kaykun.</t>
-  </si>
-  <si>
     <t>Sonó la campana y todos los niños volvieron a sus salones de clase.</t>
   </si>
   <si>
@@ -1362,18 +630,9 @@
     <t>Paco Yunquetaqa iskaynin Zumiga wayqikunam rikranmanta aysarparinku.</t>
   </si>
   <si>
-    <t>Una gran gritería había en el salón del primer año, cuando entró el profesor. Todos se callaron.</t>
-  </si>
-  <si>
-    <t>Huk wata warmakunapa yachananku ukupi qapariykuchkaptinkum, yachachiq yaykurqun. Lliwmi upallarqunku.</t>
-  </si>
-  <si>
     <t>El profesor miró a todos muy serio y dijo como un militar:</t>
   </si>
   <si>
-    <t>Yachachiq qawarqun, llapan warmakunata qaqa uyanwan, hinaspa soldadohina nin:</t>
-  </si>
-  <si>
     <t>Un traqueteo de carpetas y todos los alumnos estaban ya sentados.</t>
   </si>
   <si>
@@ -1383,57 +642,12 @@
     <t>Entonces el profesor se sentó en su pupitre y llamó por lista a los niños para que le entregasen en sus cuartillas con los ejercicios escritos sobre el tema de los peces.</t>
   </si>
   <si>
-    <t>Yachachiqñataq pupitrenpi tiyarqun hinaspa warmakunata sutinkumanta qayan, challwakunamanta qillqay rurasqankuta qawachinankupaq.</t>
-  </si>
-  <si>
-    <t>A medida que el profesor recibía las hojas de los cuadernos, las iba leyendo y escribía las notas en unos libros.</t>
-  </si>
-  <si>
-    <t>Yachachiq, qillqana maytupa rapinta chaskisqanmanhina qawaspa, yachakuqkunapa notankuta maytukunapi qillqan.</t>
-  </si>
-  <si>
-    <t>Humberto Grieve se acercó a la carpeta de Paco Yunque y le entregó su libro, su cuaderno y su lápiz.</t>
-  </si>
-  <si>
-    <t>Humberto Grievem asuykurqun Paco Yunquepa carpetanman hinaspa maytunta, qillqana maytunta chaynallataq lápiznintapas quykapun.</t>
-  </si>
-  <si>
     <t>Pero antes había arrancado la hoja del cuaderno en que estaba el ejercicio de Paco Yunque y puso en ella su firma.</t>
   </si>
   <si>
-    <t>Manaraq qupuchkaspam, qillqanan maytunmanta chutarqusqa huk rapinta, chay rapipim karqa Paco Yunquepa challwakunamanta qillqasqan, Humberto Grievem chay rapipi sutinpa qillqantapas churarqun.</t>
-  </si>
-  <si>
-    <t>Cuando el profesor dijo: “Humberto Grieve”, Grieve fue y presentó el ejercicio de Paco Yunque, como si fuese suyo.</t>
-  </si>
-  <si>
-    <t>Yachachiq: “Humberto Grieve” nispa qayaptinmi, Grieve rispan Paco Yunquepa qillqaspa rurasqanta quykun, kikinpa rurasqanpas kanmanhina.</t>
-  </si>
-  <si>
-    <t>Y cuando el profesor dijo: “Paco Yunque”, Yunque se puso a buscar en su cuaderno la hoja en que escribió su ejercicio y no la encontró.</t>
-  </si>
-  <si>
-    <t>Chaymanta yachachiq: “Paco Yunque” nispa qayaptin, Yunque rurasqanta maskaykun maytunpi, manam tarinchu.</t>
-  </si>
-  <si>
-    <t>Pero Paco Yunque no sabía lo que se había hecho la hoja de su cuaderno y, muy avergonzado, se quedó en silencio y bajó la frente.</t>
-  </si>
-  <si>
-    <t>Ichaqa Paco Yunque mana yachanchu, chay qillqay rurasqanwan ima karusqanta, hinaspa ancha pinqakuywan, upallarquspa kumuykun.</t>
-  </si>
-  <si>
     <t>Después siguieron los demás entregando sus ejercicios.</t>
   </si>
   <si>
-    <t>Chaymanta wakin yachakuqkuna, yachachiqman aypanku qillay rurasqankuta.</t>
-  </si>
-  <si>
-    <t>Cuando el profesor acabó de verlos todos, entró de repente al salón el Director del Colegio.</t>
-  </si>
-  <si>
-    <t>Yachachiq qawayta tukuruptinña, yachaywasipa Directornin qunqayllamanta yaykurqamun.</t>
-  </si>
-  <si>
     <t>El profesor y los niños se pusieron de pie respetuosamente.</t>
   </si>
   <si>
@@ -1455,90 +669,24 @@
     <t>El profesor buscó entre todas las hojas de los alumnos y encontró el ejercicio firmado por Humberto Grieve.</t>
   </si>
   <si>
-    <t>Yachachiq, achka rapikunapa chawpinpi maskaspa tarirqun, Humberto Grievepa qillqay rurasqanta.</t>
-  </si>
-  <si>
-    <t>Se lo dio al Director, que se quedó viendo largo rato la cuartilla.</t>
-  </si>
-  <si>
-    <t>Directorman quykun, hinaptin unay qawarqun chay qillqayta.</t>
-  </si>
-  <si>
     <t>Subió al pupitre y miró severamente a los alumnos.</t>
   </si>
   <si>
-    <t>Pupitreman rispan, yachakuqkunata allinta qawarqun.</t>
-  </si>
-  <si>
     <t>Después les dijo con su voz un poco ronca pero enérgica:</t>
   </si>
   <si>
-    <t>Chaymanta, saka kunkaniraq hatun siminwan nin:</t>
-  </si>
-  <si>
-    <t>Todos los niños miraron ansiosamente a Humberto Grieve, que salió pavoneándose a pararse muy derecho y orgulloso delante del pupitre del profesor. El Director le dio la mano, diciéndole:</t>
-  </si>
-  <si>
-    <t>Lliw warmakunam Humberto Grieveta qawanku, payñataq lluqsirqun ñuqam allinqa kani niqhina hinaspa yachachiqpa pupitrenpa ñawpaqninpi kusisqa sayarqun. Director makinta hapiykun, kaynata nispa:</t>
-  </si>
-  <si>
     <t>Se volvió el Director a los demás alumnos y les dijo:</t>
   </si>
   <si>
-    <t>Directorqa, wakin yachakuqkuna lawman kutirispan nin:</t>
-  </si>
-  <si>
-    <t>Y si así lo hacen, recibirá cada uno un premio al fin del año y sus nombres serán también inscritos en el Cuadro de Honor del Colegio, como el de Humberto Grieve.</t>
-  </si>
-  <si>
-    <t>Chayna kaptiykichikqa, wata tukuytam sapakama premiota chaskinkichik chaynallataq Cuadro de Honor nisqapi sutiykichik qillqasqa kanqa, Humberto Grievepahina.</t>
-  </si>
-  <si>
-    <t>A ver si la semana que viene, hay otro alumno que dé una buena clase y haga un buen ejercicio, como el que ha hecho hoy Humberto Grieve. Así lo espero.</t>
-  </si>
-  <si>
-    <t>Ichaya hamuq semanapi, huk yachakuq ima ruraytapas allinta qillqanman Humberto Grievepa rurasqantahina. Chayna kanantam munani.</t>
-  </si>
-  <si>
-    <t>Se quedó el Director callado un rato. Todos los alumnos estaban pensativos y miraban a Humberto Grieve con admiración.</t>
-  </si>
-  <si>
-    <t>Directormi upallarqun. Yachakuqkunañataq yuyaymanaspanku Humberto Grieveta allin riqsiyninkuwan qawanku.</t>
-  </si>
-  <si>
-    <t>¡Qué rico Grieve! ¡Qué buen ejercicio había escrito! ¡Ese sí que era bueno! ¡Era el mejor alumno de todos!</t>
-  </si>
-  <si>
-    <t>¡Añañaw Grieve! ¡Allin ruraytam qillqarqusqa! ¡Chayqa allinmi karqa! ¡Payqa, lliw yachakuqkunamanta allinmi!</t>
-  </si>
-  <si>
-    <t>¡Llegando tarde y todo! ¡Y pegándole a todos! ¡Pero ya lo estaban viendo! ¡Le había dado la mano al Director! ¡Humberto Grieve, el mejor de todos los del primer año!</t>
-  </si>
-  <si>
-    <t>¡Qipa chayamuq kachkaspa! ¡Lliwta maqachkaspa! ¡Ñam qawachkarqakuña! ¡Directorwanpas makinkuta hapiykanakurqañam! ¡Humberto Grievem, kaypi yachakuqkunamanta allinnin!</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cuando Paco Yunque y su madre llegaron a la puerta del colegio, </t>
-  </si>
-  <si>
     <t>los niños estaban jugando en el patio.</t>
   </si>
   <si>
-    <t xml:space="preserve">Paco Yunque mamanpiwan yachaywasiman chayaruptinku, </t>
-  </si>
-  <si>
     <t>warmakunaqa pampapi pukllachkasqaku.</t>
   </si>
   <si>
-    <t xml:space="preserve">Paco estaba con miedo, </t>
-  </si>
-  <si>
     <t>porque era la primera vez que venía a un colegio y porque nunca había visto a tantos niños juntos.</t>
   </si>
   <si>
-    <t xml:space="preserve">Pacoqa manchakuywan karqan, </t>
-  </si>
-  <si>
     <t>wamaqllaraq yachaywasita qawaspa; hinaspa achka warmakunataqa manam haykaqllapas rikurqanchu.</t>
   </si>
   <si>
@@ -1578,30 +726,15 @@
     <t>¡Tiyaychik!</t>
   </si>
   <si>
-    <t>Pon tus cosas, como yo, en la carpeta.</t>
-  </si>
-  <si>
     <t>Ñuqahina imaykitapas carpetapi churay.</t>
   </si>
   <si>
-    <t>Yo también me llamo Paco. Paco Fariña. No tengas pena.</t>
-  </si>
-  <si>
-    <t>Ñuqapa sutiypas Pacom, Paco Fariña. Ama manchakuychu.</t>
-  </si>
-  <si>
     <t>¿A qué hora nos iremos a nuestras casas?</t>
   </si>
   <si>
     <t>¿Imay horatataq wasinchikmanri ripusun?</t>
   </si>
   <si>
-    <t>A las once. ¿Dónde está tu casa?</t>
-  </si>
-  <si>
-    <t>Chunka hukniyuq (11) horatam. ¿Maypitaq wasiykiri?</t>
-  </si>
-  <si>
     <t>Por allá.</t>
   </si>
   <si>
@@ -1620,12 +753,6 @@
     <t>Arí… Manam…</t>
   </si>
   <si>
-    <t>Lleve usted ya a Paco al colegio. No sirve que llegue tarde el primer día. Desde mañana esperará a que Humberto se levante y los llevará usted juntos a los dos.</t>
-  </si>
-  <si>
-    <t>Qamyá kunanqa Pacota yachaywasiman aparquy. Amayá qallariy punchawqa yachaywasiman qipataqa chayachunchu. Paqarinmantaqa suyanki Humberto rikcharinanta hinaspa apanki iskayninkuta.</t>
-  </si>
-  <si>
     <t>¿Hoy otra vez tarde?</t>
   </si>
   <si>
@@ -1638,36 +765,9 @@
     <t>Puñurparisqanim.</t>
   </si>
   <si>
-    <t>Bueno dijo el profesor. Que ésta sea la última vez. Pase a sentarse.</t>
-  </si>
-  <si>
-    <t>Allinmi nin yachachiq. Kunankamallam chayna kanqa. Yaykumuspa tiyay.</t>
-  </si>
-  <si>
     <t>Ven a mi carpeta conmigo.</t>
   </si>
   <si>
-    <t>Carpetayman hamuy, ñuqawan.</t>
-  </si>
-  <si>
-    <t>No. Porque el señor lo ha puesto aquí.</t>
-  </si>
-  <si>
-    <t>Ama. Taytam, chaymanqa churan.</t>
-  </si>
-  <si>
-    <t>¿Y a ti qué te importa? le increpó Grieve violentamente, arrastrando a Yunque por un brazo a su carpeta.</t>
-  </si>
-  <si>
-    <t>¿Qanmanri imataq qukusunki? nispan Grieveñataq piñarikun, Yunqueta rikranmanta carpetan lawman chutaspa.</t>
-  </si>
-  <si>
-    <t>¡Señor! gritó entonces Fariña, Grieve se está llevando a Paco Yunque a su carpeta.</t>
-  </si>
-  <si>
-    <t>¡Tayta! nispa Fariña qaparin, Grieven apachkan Paco Yunqueta carpetanman.</t>
-  </si>
-  <si>
     <t>¡Vamos a ver! ¡Silencio! ¿Qué pasa ahí?</t>
   </si>
   <si>
@@ -1680,42 +780,15 @@
     <t>Grievem Paco Yunqueta carpetanman aparqun.</t>
   </si>
   <si>
-    <t>Sí, señor. Porque Paco Yunque es mi muchacho. Por eso.</t>
-  </si>
-  <si>
-    <t>Arí, tayta. Paco Yunque muchachoy kasqanraykum. Chaymi.</t>
-  </si>
-  <si>
-    <t>Muy bien. Pero yo lo he colocado con Paco Fariña, para que atienda mejor las explicaciones. Déjelo que vuelva a su sitio.</t>
-  </si>
-  <si>
-    <t>Allinmi. Paco Fariñawanmi ñuqa tiyachirqani, yachachisqayta allinta uyarinanpaq. Kutichun tiyananman.</t>
-  </si>
-  <si>
     <t>¡Grieve! ¿Qué es esto?</t>
   </si>
   <si>
     <t>¡Grieve! ¿Imataq kayri?</t>
   </si>
   <si>
-    <t>No, señor. Yo quiero que Yunque se quede conmigo.</t>
-  </si>
-  <si>
-    <t>Manam, tayta. Yunque ñuqawan kuska kanantam munani.</t>
-  </si>
-  <si>
-    <t>Déjelo, le he dicho.</t>
-  </si>
-  <si>
     <t>Ñuqawan kachun nichkanim.</t>
   </si>
   <si>
-    <t>No, señor.</t>
-  </si>
-  <si>
-    <t>Manam, tayta.</t>
-  </si>
-  <si>
     <t>¿Cómo?</t>
   </si>
   <si>
@@ -1728,15 +801,6 @@
     <t>Mana.</t>
   </si>
   <si>
-    <t>¡Grieve! ¡Grieve!</t>
-  </si>
-  <si>
-    <t>De nuevo se oyeron pasos en el patio y otro alumno, Antonio Gesdres hijo de un albañil, apareció a la puerta del salón.</t>
-  </si>
-  <si>
-    <t>Pukllananku pampapi kutimanta uyarikun runakunapa purisqan, huk yachakuq warmam Antonio Gesdres sutiyuq, albañilpa churin, punkupi rikurirqamun.</t>
-  </si>
-  <si>
     <t>¿Por qué llega usted tarde?</t>
   </si>
   <si>
@@ -1758,45 +822,12 @@
     <t>Porque estuve alzando a mi hermanito y mamá está enferma y papá se fue a su trabajo.</t>
   </si>
   <si>
-    <t>Sullkachaytam rikcharichirqani, mamaymi unquchkan, tatayñataq llamkaq rirqun.</t>
-  </si>
-  <si>
-    <t>Bueno dijo el profesor, muy serio. Párese ahí… Y, además, tiene usted una hora de reclusión.</t>
-  </si>
-  <si>
-    <t>Allinmi nin, yachachiq, qaqa uyanwan. Chaypi sayay… Hinaspa, huk horam qipanki lluqsinaykipaq.</t>
-  </si>
-  <si>
-    <t>Grieve también ha llegado tarde, señor.</t>
-  </si>
-  <si>
-    <t>Grievepas qipatañam chayarqamun, tayta.</t>
-  </si>
-  <si>
-    <t>Miente, señor respondió rápidamente Humberto Grieve. No he llegado tarde.</t>
-  </si>
-  <si>
-    <t>Llullakunmi, tayta nispam Humberto Grieve utqaylla kutirqachin. Manam qipatachu chayamuniqa.</t>
-  </si>
-  <si>
-    <t>¡Sí, señor! ¡Sí, señor! ¡Grieve ha llegado tarde!</t>
-  </si>
-  <si>
-    <t>¡Arí, tayta! ¡Arí, tayta! ¡Grieveqa qipatañam chayarqamun!</t>
-  </si>
-  <si>
     <t>¡Psch! ¡Silencio! dijo malhumorado el profesor y todos los niños se callaron.</t>
   </si>
   <si>
     <t>¡Psch! ¡Upallaychik! yachachiq piñasqa nin chaymi lliw warmakuna upallarqunku.</t>
   </si>
   <si>
-    <t>Grieve ha llegado tarde y no lo castigan. Porque su papá tiene plata. Todos los días llega tarde. ¿Tú vives en su casa? ¿Cierto que eres su muchacho?</t>
-  </si>
-  <si>
-    <t>Grieve qipataña chayamuchkaptin mana imananchu. Taytan qullqiyuq kaptin. Sapa punchawmi qipata chayamun. ¿Qam wasiykipichu tiyanki? ¿Nisqanhinachu muchachun kanki?</t>
-  </si>
-  <si>
     <t>Yo vivo con mi mamá…</t>
   </si>
   <si>
@@ -1809,99 +840,24 @@
     <t>¿Humberto Grievepa wasinpi?</t>
   </si>
   <si>
-    <t>Es una casa muy bonita. Ahí está la patrona y el patrón. Ahí está mi mamá. Yo estoy con mi mamá.</t>
-  </si>
-  <si>
-    <t>Chay wasiqa sumaqcham. Chaypim tiyanku patrona patronpiwan. Chaypim mamay kachkan. Ñuqaqa mamaywanmi kachkani.</t>
-  </si>
-  <si>
     <t>Yunque le dijo a Fariña: Me voy a la carpeta del niño Humberto.</t>
   </si>
   <si>
     <t>Yunquem Fariñata nin: Warma Humbertopa carpetanman risaq.</t>
   </si>
   <si>
-    <t>Y Paco Fariña le decía: No vayas. No seas zonzo. El señor te va a castigar.</t>
-  </si>
-  <si>
-    <t>Paco Fariña nin: Ama riychu. Ama upachu kay. Taytam piñarqukunman.</t>
-  </si>
-  <si>
-    <t>¡Señor! gritó Fariña. Ahí, ese Grieve me está enseñando los puñetes.</t>
-  </si>
-  <si>
-    <t>¡Tayta! qaparin Fariña. Chay Grievem takakunata qawachimuwachkan.</t>
-  </si>
-  <si>
-    <t>El profesor dijo: ¡Psch! ¡Psch! ¡Silencio!… Vamos a ver… Vamos a hablar hoy de los peces, y después, vamos a hacer todos un ejercicio escrito en una hoja de los cuadernos, y después me los dan para verlos.</t>
-  </si>
-  <si>
-    <t>Yachachiq nin: ¡Psch! ¡Psch! ¡Upallaychik!… ¡Kunanmi qawasun!... Kunan rimasun challwakunamanta, chaymanta llapaykichik qillqankichik maytuykichikpi, chaymanta aypamuwankichik qawanaypaq.</t>
-  </si>
-  <si>
-    <t>Los alumnos respondieron en coro: Sí, señor.</t>
-  </si>
-  <si>
     <t>Lliw yachakuqkunam kutichinku: Arí tayta.</t>
   </si>
   <si>
-    <t>Muy bien dijo el profesor. Vamos a ver. Vamos a hablar ahora de los peces.</t>
-  </si>
-  <si>
-    <t>Allinmi nin, yachachiq. Kunan qawasun. Kunan rimasun challwakunamanta.</t>
-  </si>
-  <si>
-    <t>Señor dijo Zumiga: Había en la playa mucha arena. Un día nos metimos entre la arena y encontramos un pez medio vivo y lo llevamos a mi casa. Pero se murió en el camino…</t>
-  </si>
-  <si>
-    <t>Tayta nin, Zumiga: playapim achka aqu kasqa. Huk punchawmi aqu ukuman yaykuspayku tariniku challwata, kawsaqtaraq hinaspa apaniku wasiyman. Ichaqa wañurqun manaraq chayachkaptiyku…</t>
-  </si>
-  <si>
     <t>Señor: yo he cogido muchos peces y los he llevado a mi casa y los he soltado en mi salón y no se mueren nunca.</t>
   </si>
   <si>
-    <t>Tayta: ñuqa achka challwata hapiruspay aparurqani wasiyman hinaspa wasiy ukupi kachaykuni, manataq haykaqllapas wañunkuchu.</t>
-  </si>
-  <si>
     <t>Pero… ¿los deja usted en alguna vasija con agua?</t>
   </si>
   <si>
     <t>Icha… ¿imapas yakuyuqman churarqanki?</t>
   </si>
   <si>
-    <t>No, señor. Están sueltos, entre los muebles.</t>
-  </si>
-  <si>
-    <t>Manam, tayta. Kacharisqam purichkanku.</t>
-  </si>
-  <si>
-    <t>Mentira, señor. Porque el pez se muere pronto, cuando lo sacan del agua.</t>
-  </si>
-  <si>
-    <t>Llullakunmi tayta. Challwaqa yakumanta hurqusqaqa wañunmi.</t>
-  </si>
-  <si>
-    <t>No, señor decía Humberto Grieve. Porque en mi salón no se mueren. Porque mi salón es muy elegante. Porque mi papá me dijo que trajera peces y que podía dejarlos sueltos entre las sillas.</t>
-  </si>
-  <si>
-    <t>Manam, tayta nin, Humberto Grieve. Wasiy ukupiqa manam wañunchu. Wasiy ukuqa allin sumaqmi. Taytaymi niwarqan challwata apaspay wasiy ukupi kacharinaypaq.</t>
-  </si>
-  <si>
-    <t>Ja! Ja! Ja! Ja! Ja! ¡Miente, señor! Ja! Ja! Ja! Ja! Ja! ¡Mentira! ¡Mentira!</t>
-  </si>
-  <si>
-    <t>Ja! Ja! Ja! Ja! Ja! ¡Llullakunmi, tayta! Ja! Ja! Ja! Ja, Ja! ¡Llullakunmi! ¡Llullakunmi!</t>
-  </si>
-  <si>
-    <t>¡Claro! Porque mi papá tiene mucha plata. Y me ha dicho que va hacer llevar a mi casa a todos los peces del mar. Para mí. Para que juegue con ellos en mi salón grande.</t>
-  </si>
-  <si>
-    <t>¡Arí! Taytayqa achka qullqiyuqmi. Wasiymansi apachinqa quchapi llapallan kaq challwakunata. Ñuqapaq. Wasiypa hatun ukunpi pukllakunaypaq.</t>
-  </si>
-  <si>
-    <t>¡Bueno! ¡Bueno! ¡Silencio! Grieve no se acuerda bien, seguramente. Porque los peces mueren cuando…</t>
-  </si>
-  <si>
     <t>¡Allinmi! ¡Allinmi! ¡Upallaychik! Grieveqa manachá allintachu yuyan. Challwakunaqa wañunmi…</t>
   </si>
   <si>
@@ -1917,30 +873,9 @@
     <t>Chaynam nin yachachiq.</t>
   </si>
   <si>
-    <t>Porque los peces tienen sus mamás en el agua y sacándolos, se quedan sin mamás.</t>
-  </si>
-  <si>
-    <t>Challwakunapa mamankunaqa yakupim kachkan, chaymanta urquruptinkuqa mana mamayuq qiparqunku.</t>
-  </si>
-  <si>
-    <t>¡No, no, no! dijo el profesor. Los peces mueren fuera del agua, porque no pueden respirar. Ellos toman el aire que hay en el agua, y cuando salen, no pueden absorber el aire que hay afuera.</t>
-  </si>
-  <si>
-    <t>¡Manam, manam, manam! nin, yachachiq. Challwakunaqa yakumanta lluqsispankuqa wañunkum, mana samayta atispanku. Paykunaqa yaku ukullapim samanku, yakumanta lluqsispankuqa manam samayta atinkuchu.</t>
-  </si>
-  <si>
     <t>Porque ya están como muertos dijo un niño.</t>
   </si>
   <si>
-    <t>Wañusqahinañam kachkanku nin, huk warma.</t>
-  </si>
-  <si>
-    <t>Mi papá puede darles aire en mi casa, porque tiene bastante plata para comprar todo.</t>
-  </si>
-  <si>
-    <t>Taytaymi wayrataqa wasiypi qunman, achkam qullqin imatapas rantinanpaq.</t>
-  </si>
-  <si>
     <t>Mi papá también tiene plata.</t>
   </si>
   <si>
@@ -1950,15 +885,6 @@
     <t>Mi papá también dijo otro chico.</t>
   </si>
   <si>
-    <t>Taytaypas nin, huk warmapas.</t>
-  </si>
-  <si>
-    <t>Y tú, ¿tu papá no tiene plata?</t>
-  </si>
-  <si>
-    <t>Qamrí, ¿taytaykiri mana qullqiyuqchu?</t>
-  </si>
-  <si>
     <t>Mi mamá tiene también mucha plata.</t>
   </si>
   <si>
@@ -1968,9 +894,6 @@
     <t>¿Cuánto? le preguntó Fariña.</t>
   </si>
   <si>
-    <t>¿Hayka? nispa, Fariña tapun.</t>
-  </si>
-  <si>
     <t>Como cuatro pesetas.</t>
   </si>
   <si>
@@ -1980,81 +903,21 @@
     <t>Paco Yunque dice que su mamá tiene también mucha plata.</t>
   </si>
   <si>
-    <t>Paco Yunquem nin, mamanpas achka qullqiyuqsi.</t>
-  </si>
-  <si>
-    <t>¡Mentira, señor! respondió Humberto Grieve. Paco Yunque miente, porque su mamá es la sirviente de mi mamá y no tiene nada.</t>
-  </si>
-  <si>
-    <t>Llullakunmi, tayta! nin, Humerto Grieve Paco Yunqueqa llullakunmi, mamanqa, mamaypa yanapaqninmi, manam imanpas kanchu.</t>
-  </si>
-  <si>
-    <t>¿Qué es eso? dijo el profesor, volviéndose a ver lo que pasaba.</t>
-  </si>
-  <si>
-    <t>¿Imam kachkan? nin, yachachiq, kutirispa qawan ima kasqanta.</t>
-  </si>
-  <si>
-    <t>Grieve le ha tirado de los pelos, señor.</t>
-  </si>
-  <si>
-    <t>Tayta, Grievem chukchanmanta chutarparin.</t>
-  </si>
-  <si>
-    <t>No, señor dijo Grieve. Yo no he sido. Yo no me he movido de mi sitio.</t>
-  </si>
-  <si>
-    <t>Manam, tayta nin Grieve. Manam ñuqachu. Manam tiyasqaymantaqa kuyurinichu.</t>
-  </si>
-  <si>
-    <t>¡Bueno, bueno! dijo el profesor. ¡Silencio! ¡Cállese, Paco Yunque! ¡Silencio!</t>
-  </si>
-  <si>
-    <t>¡Allinmi, allinmi! nin, yachachiq. ¡Upallaychik! ¡Paco Yunque upallay! ¡Upallay!</t>
-  </si>
-  <si>
-    <t>Si se le saca del agua, ¿qué sucede con el pez?</t>
-  </si>
-  <si>
-    <t>Yakumanta hurquruptinchik, ¿imananmi challwata?</t>
-  </si>
-  <si>
     <t>Va a vivir en mi salón contestó Grieve.</t>
   </si>
   <si>
     <t>Wasiy ukupim kawsanqa nispa kutichin Grieve.</t>
   </si>
   <si>
-    <t>Vamos a ver, usted, Paco Yunque dijo el profesor. ¿Qué pasa con el pez, si se le saca del agua?</t>
-  </si>
-  <si>
-    <t>Kunan qawasun, qam, Paco Yunque nin yachachiq. ¿Imananmi challwata, yakumanta hurquptinchik?</t>
-  </si>
-  <si>
     <t>Los peces mueren fuera del agua porque les falta aire.</t>
   </si>
   <si>
-    <t>Challwakunaqa, yakumanta lluqsispankuqa wañunkum, mana samayta atispa.</t>
-  </si>
-  <si>
-    <t>¡Eso es! decía el profesor. Muy bien.</t>
-  </si>
-  <si>
-    <t>¡Chaynam! nin, yachachiq. Kusam.</t>
-  </si>
-  <si>
     <t>¡Señor! ¡Acaba de pegarme Humberto Grieve!</t>
   </si>
   <si>
     <t>¡Tayta! ¡Humberto Grievem kunachallan maqarpariwan!</t>
   </si>
   <si>
-    <t>¡Sí, señor! ¡Sí, señor! decían todos los niños a la vez.</t>
-  </si>
-  <si>
-    <t>¡Arí, tayta! ¡Arí, tayta! ninku llapallan warmakuna.</t>
-  </si>
-  <si>
     <t>¡Silencio!</t>
   </si>
   <si>
@@ -2064,195 +927,42 @@
     <t>¿Qué desorden era ese? preguntó el profesor a Paco Fariña.</t>
   </si>
   <si>
-    <t>¿Imataq kay chaqwari? nispa, yachachiq Paco Fariñata tapun.</t>
-  </si>
-  <si>
-    <t>Humberto Grieve me ha pegado un puñetazo en la cara, sin que yo le haga nada.</t>
-  </si>
-  <si>
     <t>Humberto Grievem takarpariwan uyaypi mana imanachkaptiy.</t>
   </si>
   <si>
-    <t>¿Verdad, Grieve?</t>
-  </si>
-  <si>
-    <t>¿Grieve, chaynachu?</t>
-  </si>
-  <si>
-    <t>No, señor dijo Humberto Grieve. Yo no le he pegado.</t>
-  </si>
-  <si>
-    <t>Manam, tayta nin Humberto Grieve. Ñuqaqa manam maqanichu.</t>
-  </si>
-  <si>
     <t>¿Quién lo ha visto? preguntó el profesor a Fariña.</t>
   </si>
   <si>
-    <t>¿Pitaq rikurqa? nispa, tapurqun Fariñata.</t>
-  </si>
-  <si>
-    <t>¡Todos, señor! Paco Yunque también lo ha visto.</t>
-  </si>
-  <si>
-    <t>¡Llapallaykum, tayta! Paco Yunquepas rikunmi.</t>
-  </si>
-  <si>
     <t>¿Es verdad lo que dice Paco Fariña? le preguntó el profesor a Yunque.</t>
   </si>
   <si>
     <t>¿Paco Fariña kaqllatachu nichkan? nispan yachachiq Yunqueta tapurqun.</t>
   </si>
   <si>
-    <t>Yunque no dice nada, señor, porque Humberto Grieve le pega, porque es su muchacho y vive en su casa.</t>
-  </si>
-  <si>
-    <t>Yunqueqa manam imatapas ninchu, tayta, Humberto Grieve maqasqanrayku, muchachonmi hinaspa paypa wasinpim tiyan.</t>
-  </si>
-  <si>
     <t>¿Quién otro ha visto lo que dice Fariña?</t>
   </si>
   <si>
     <t>¿Pikunam rikurqan Fariñapa nisqanta?</t>
   </si>
   <si>
-    <t>¡Yo, señor! ¡Yo, señor! ¡Yo, señor!</t>
-  </si>
-  <si>
-    <t>¡Ñuqa tayta! ¡Ñuqa tayta! ¡Ñuqa tayta!</t>
-  </si>
-  <si>
-    <t>¿Entonces, es cierto, Grieve, que le ha pegado usted a Fariña?</t>
-  </si>
-  <si>
-    <t>¿Chaynaqa, chiqapchiki, Grieve, qam Fariñata maqarqanki?</t>
-  </si>
-  <si>
-    <t>¡No, señor! Yo no le he pegado.</t>
-  </si>
-  <si>
-    <t>¡Manam, tayta! Ñuqaqa manam maqarqanichu.</t>
-  </si>
-  <si>
-    <t>Cuidado con mentir, Grieve. ¡Un niño decente como usted, no debe mentir!</t>
-  </si>
-  <si>
-    <t>Grieve, yanqataq llullakuchkawaq. ¡Qamhina decente warmaqa manam llullakunanchu!</t>
-  </si>
-  <si>
-    <t>No, señor. Yo no le he pegado.</t>
-  </si>
-  <si>
-    <t>Manam, tayta. Manam maqarqanichu.</t>
-  </si>
-  <si>
-    <t>Bueno. Yo creo en lo que dice usted. Yo sé que usted no miente nunca. Bueno. Pero tenga usted mucho cuidado en adelante.</t>
-  </si>
-  <si>
-    <t>Allinmi. Nisqaykitaqa chiqapchanim. Qamqa manam haykaqllapas llullakurqankichu. Yanqataq qipaniraqta llullakuchkawaq.</t>
-  </si>
-  <si>
-    <t>No le castigan, porque su papá es rico. Le voy a decir a mi mamá.</t>
-  </si>
-  <si>
-    <t>Manam wananqayta qunchu, taytan qullqisapa kasqanrayku. Mamaymanmi willaykusaq.</t>
-  </si>
-  <si>
-    <t>¿Qué está usted diciendo? Humberto Grieve es un buen alumno. No miente nunca. No molesta a nadie. Por eso no le castigo. Aquí, todos los niños son iguales, los hijos de ricos y los hijos de pobres. Yo los castigo aunque sean hijos de ricos. Como usted vuelva a decirlo lo que está diciendo del padre de Grieve, le pondré dos horas de reclusión. ¿Me ha oído usted?</t>
-  </si>
-  <si>
-    <t>¿Imatam nichkanki? Humberto Grieveqa allin yachakuqmi. Manam haykaqllapas llullakunchu. Manataqmi pitapas imananchu. Chaymi ima wananqaytapas mana qunichu. Kaypi, lliw warmakunaqa chaynapurallam, qullqisapapa mana qullqiyuqpa wawankunapas. Qullqisapapa wawan kaptinpas wananqaytaqa qunim. Grievepa taytanmanta imatapas kutimanta niptiykiqa iskay hora qipatam lluqsinki. ¿Uyariwachkankichu?</t>
-  </si>
-  <si>
     <t>¿Y por qué no se lo dices a tu mamá?</t>
   </si>
   <si>
     <t>¿Imaynanpitaq mamaykimanri mana willankichu?</t>
   </si>
   <si>
-    <t>Porque si le digo a mi mamá, también me pega y la patrona se enoja.</t>
-  </si>
-  <si>
-    <t>Mamayman willaykuptiyqa, maqarquwanqam hinaspa patrona piñarqukunman.</t>
-  </si>
-  <si>
     <t>¿A ti también te pega el niño Humberto?</t>
   </si>
   <si>
     <t>¿Humberto warma qamtapas maqasunkichu?</t>
   </si>
   <si>
-    <t>¿A mí? ¡Qué me va a pegar a mí! Le pego un puñetazo en el hocico y le echo sangre. ¡Vas a ver! ¡Como me haga alguna cosa! ¡Déjalo y verás! ¡Y se lo diré a mi mamá! ¡Y vendrá mi papá y le pegará a Grieve y a su papá también y a todos!</t>
-  </si>
-  <si>
-    <t>¿Ñuqata? ¡Ñuqataqa imam maqawanqa! Siminpi takarquspay yawarcharquyman. ¡Mapas qawanki! ¡Imatapas ruwaykuwachun! ¡Saqiykullay qawankim! ¡Hinaspam mamayman willaykusaq! ¡Hinaspa taytay hamuspa Grievetaqa maqarqunqa, taytantapas, chaynallataq llapantapas!</t>
-  </si>
-  <si>
-    <t>¡Bueno! dijo el profesor, cesando de escribir. Ahí está el ejercicio escrito. Ahora, todos sacan sus cuadernos y copian lo que hay en la pizarra. Hay que copiarlo completamente igual.</t>
-  </si>
-  <si>
-    <t>¡Allinmi! nin yachachiq, qillqayta saqiykuspan. Kaypim kachkan, qillqaspa ruranaykichikpaq. Kunan, qillqana maytuykichikta hurquspaykichik pizarrapi kaqta qillqaychik. Ima kaqllatam qillqankichik.</t>
-  </si>
-  <si>
-    <t>¿En nuestros cuadernos? preguntó tímidamente Paco Yunque.</t>
-  </si>
-  <si>
-    <t>¿Qillqana maytuykupi? nispa, Paco Yunque tapun manchakuqhinalla.</t>
-  </si>
-  <si>
-    <t>Sí, en sus cuadernos le respondió el profesor. ¿Usted sabe escribir un poco?</t>
-  </si>
-  <si>
-    <t>Arí, qillqana maytuykichikpi nispa kutichin yachachiq. ¿Qam tunpanta yachankiña qillqayta?</t>
-  </si>
-  <si>
-    <t>Sí, señor. Porque mi papá me enseñó en el campo.</t>
-  </si>
-  <si>
-    <t>Arí, tayta. Taytaymi llaqtaypi yachachiwarqan.</t>
-  </si>
-  <si>
-    <t>Muy bien. Entonces, todos a copiar.</t>
-  </si>
-  <si>
-    <t>Kusam. Chaynaqa, llapaykichik qillqaychik.</t>
-  </si>
-  <si>
-    <t>No hay que apurarse decía el profesor. Hay que escribir poco a poco, para no equivocarse.</t>
-  </si>
-  <si>
-    <t>Ama utqaspa nin yachachiq. As asllamanta qillqana, mana pantanapaq.</t>
-  </si>
-  <si>
-    <t>¿Es, señor, el ejercicio escrito de los peces?</t>
-  </si>
-  <si>
-    <t>¿Chayqa, tayta, challwakunamanta qillqanaykupaqchu?</t>
-  </si>
-  <si>
-    <t>Sí. A copiar todo el mundo.</t>
-  </si>
-  <si>
-    <t>Arí, llapaykichik qillqankichik.</t>
-  </si>
-  <si>
     <t>¿Ya terminaron?</t>
   </si>
   <si>
     <t>¿Tukurqunkichikñachu?</t>
   </si>
   <si>
-    <t>Ya, señor respondieron todos a la vez.</t>
-  </si>
-  <si>
-    <t>Arí, tayta nispa, llapankumanta rimarirqunku.</t>
-  </si>
-  <si>
-    <t>Bueno dijo el profesor. Pongan al pie sus nombres bien claros.</t>
-  </si>
-  <si>
-    <t>Allinmi nin yachachiq. Urayninpi, sutiykichikta allinta qillqaychik.</t>
-  </si>
-  <si>
     <t>Ven a jugar al melo.</t>
   </si>
   <si>
@@ -2265,12 +975,6 @@
     <t>¡Ama uqariychu! ¡Ama yanapaychu! Paco Yunqueqa muchachuymi.</t>
   </si>
   <si>
-    <t>Estáte quieto así le ordenó imperiosamente. No te muevas hasta que yo te diga.</t>
-  </si>
-  <si>
-    <t>Chaynalla chaypi kanki nispa kamachin hatun siminwan. Amam kuyunkichu ñuqa kamachinaykama.</t>
-  </si>
-  <si>
     <t>¡No! ¡No te dejo que saltes sobre Paco Yunque!</t>
   </si>
   <si>
@@ -2283,12 +987,6 @@
     <t>¡Yaw! ¡Yaw! ¡Paco Fariña! ¡Paco Fariña! ¡Huktam takarparisqayki!</t>
   </si>
   <si>
-    <t>¡Porque es tu muchacho, le pegas y lo saltas y lo haces llorar! ¡Sáltalo y verás!</t>
-  </si>
-  <si>
-    <t>¡Muchachoyki kaptin maqanki, pawaykunki hinaspa waqachinki! ¡Pawaylla pawaykuy, qawanaykipaq!</t>
-  </si>
-  <si>
     <t>¿Por qué te dejas saltar así y dar de patadas? ¡Pégale! ¡Sáltalo tú también! ¿Por qué te dejas? ¡No seas zonzo! ¡Cállate! ¡Ya no llores! ¡Ya nos vamos a ir a nuestras casas!</t>
   </si>
   <si>
@@ -2301,58 +999,1774 @@
     <t>¿Chinkarachinkichu nispa yachachiq tapun utaq mana rurarqankichu?</t>
   </si>
   <si>
-    <t>Bueno dijo el profesor, y anotó en unos libros la falta de Paco Yunque.</t>
-  </si>
-  <si>
-    <t>Allinmi nin yachachiq, hinaspa maytukunapi qillqarqun Paco Yunquepa mana rurasqanta.</t>
-  </si>
-  <si>
     <t>¿Ya sabe usted quién es el mejor alumno de su año? ¿Han hecho el ejercicio semanal para calificarlos?</t>
   </si>
   <si>
-    <t>¿Qam yachankiñachu kaypi mayqin yachakuq allin yachayniyuq kasqanta? ¿Kay semanapaq ruray kayta qillqarunkuñachu, chaninchanapaq?</t>
-  </si>
-  <si>
-    <t>Sí, señor Director dijo el profesor. Acaban de hacerlo. La nota más alta la ha obtenido Humberto Grieve.</t>
-  </si>
-  <si>
-    <t>Arí, wiraqucha Director nin yachachiq. Kunallanmi tukurqunku. Humberto Grieven, allin notata hurqurqun.</t>
-  </si>
-  <si>
     <t>¿Dónde está su ejercicio?</t>
   </si>
   <si>
     <t>¿Maytaq chay rurasqanri?</t>
   </si>
   <si>
-    <t>Aquí está, señor Director.</t>
-  </si>
-  <si>
-    <t>Kayqaya, wiraqucha Director.</t>
-  </si>
-  <si>
-    <t>Muy bien dijo el Director, contento.</t>
-  </si>
-  <si>
-    <t>Kusa kusam nin Director, kusisqa.</t>
-  </si>
-  <si>
-    <t>De todos los ejercicios que ustedes han hecho ahora, el mejor es de Humberto Grieve. Así es que el nombre de este niño va a ser inscrito en el Cuadro de Honor de esta semana, como el mejor alumno del primer año. Salga afuera Humberto Grieve.</t>
-  </si>
-  <si>
-    <t>Qamkunapa kunan lliw qillqay rurasqaykichikmanta, Humberto Grievepam alli allinqa. Chaymi kay semanaqa, kay warmapa sutin, Cuadro de Honor nisqapi qillqasqa kanqa, allin yachakuq kasqanrayku. Lluqsiy Humberto Grieve.</t>
-  </si>
-  <si>
-    <t>Muy bien, Humberto Grieve. Lo felicito. Así deben ser los niños. Muy bien.</t>
-  </si>
-  <si>
-    <t>Allinmi, Humberto Grieve. Kusikuy kachun. Chaynam warmachakunaqa kanan. Allinmi.</t>
-  </si>
-  <si>
-    <t>Todos ustedes deben hacer lo mismo que Humberto Grieve. Deben ser buenos alumnos como él. Deben estudiar y ser aplicados como él. Deben ser serios, formales y buenos niños como él.</t>
-  </si>
-  <si>
-    <t>Llapaykichikmi Humberto Grievehina kanaykichik. Payhina allin yachakuq kanaykichik. Allintam yachanaykichik, payhina kanaykichikpaq. Payhinam allinta ruranaykichik chaynallataq allin warmakuna kanaykichik.</t>
+    <t xml:space="preserve">¡Qué rico Grieve! </t>
+  </si>
+  <si>
+    <t>¡Era el mejor alumno de todos!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">¡Añañaw Grieve! </t>
+  </si>
+  <si>
+    <t>¡Qué buen ejercicio había escrito!</t>
+  </si>
+  <si>
+    <t>¡Ese sí que era bueno!</t>
+  </si>
+  <si>
+    <t>¡Allin ruraytam qillqarqusqa!</t>
+  </si>
+  <si>
+    <t>¡Chayqa allinmi karqa!</t>
+  </si>
+  <si>
+    <t>Pacoqa sunsuyarparin campopiqa manam haykaqpas chayna achka runapa rimaynintaqa uyarirqanchu.</t>
+  </si>
+  <si>
+    <t>Chayqa manam.</t>
+  </si>
+  <si>
+    <t>Paco Yunqueqa hinaraq uman muyusqa kaspa mana casokunchu.</t>
+  </si>
+  <si>
+    <t>Yo también me llamo Paco</t>
+  </si>
+  <si>
+    <t>Ñuqapa sutiypas Pacom</t>
+  </si>
+  <si>
+    <t>Paco Fariña no tengas pena.</t>
+  </si>
+  <si>
+    <t>Paco Fariña ama manchakuychu.</t>
+  </si>
+  <si>
+    <t>Tiyay Susanam rantirqapuwan.</t>
+  </si>
+  <si>
+    <t>Carpetayman hamuy ñuqawan.</t>
+  </si>
+  <si>
+    <t>Paco Fariña Humberto Grieveta nin:</t>
+  </si>
+  <si>
+    <t>Yachachiqqa allintam yacharqan chaymi Humberto Grieveta nin:</t>
+  </si>
+  <si>
+    <t>Humberto Grieve Paco Yunqueta maqapayasqanraykum.</t>
+  </si>
+  <si>
+    <t>Tayta: ñuqa achka challwata hapiruspay aparurqani wasiyman hinaspa wasiy ukupi kachaykuni manataq haykaqllapas wañunkuchu.</t>
+  </si>
+  <si>
+    <t>Wañusqahinañam kachkanku nin huk warma.</t>
+  </si>
+  <si>
+    <t>Taytaypas nin huk warmapas.</t>
+  </si>
+  <si>
+    <t>Paco Yunque yuyarirqun huk punchaw maman pesetakunata makinpi hapisqanta. Yunquem Fariñaman nin:</t>
+  </si>
+  <si>
+    <t>¿Hayka? nispa Fariña tapun.</t>
+  </si>
+  <si>
+    <t>Paco Fariña yachachiqman hatun siminwan nin:</t>
+  </si>
+  <si>
+    <t>Paco Yunquem nin mamanpas achka qullqiyuqsi.</t>
+  </si>
+  <si>
+    <t>Paco Fariña nin:</t>
+  </si>
+  <si>
+    <t>Humberto Grievem yachachiq kutirinankama Paco Fariñata siminpi takarparin hinaspa carpetanman utqayllaman kutirqun.</t>
+  </si>
+  <si>
+    <t>Yachana ukupi chaqway karparin.</t>
+  </si>
+  <si>
+    <t>Yachachiq pupitrenta takarparin hinaspa nin:</t>
+  </si>
+  <si>
+    <t>¿Imataq kay chaqwari? nispa yachachiq Paco Fariñata tapun.</t>
+  </si>
+  <si>
+    <t>¿Pitaq rikurqa? nispa tapurqun Fariñata.</t>
+  </si>
+  <si>
+    <t>Paco Fariña piñasqa upallaqhinalla rimapakun hinaspa waqaqhina nin:</t>
+  </si>
+  <si>
+    <t>Yachachiq uyarirquspan piñakuywan sayarparin Fariñapa ñawpaqninpi hinaspa hatun siminwan nin:</t>
+  </si>
+  <si>
+    <t>¿Humberto warma imaynanpitaq chayna paywanri?</t>
+  </si>
+  <si>
+    <t>Ichaqa yachachiq Humberto warmata mana imananchu.</t>
+  </si>
+  <si>
+    <t>Paco Yunquem mancharisqa uyarin Paco Fariñapa nisqanta.</t>
+  </si>
+  <si>
+    <t>Wasinman hamuq runakuna manchakunku hinaspa patronta patronatapas kasunkupuni.</t>
+  </si>
+  <si>
+    <t>Paco Yunquem yachachiq pizarrapi qillqaqta qawan.</t>
+  </si>
+  <si>
+    <t>Aswanqa patronpa wasinman rimaq hamuq taytakunahinam.</t>
+  </si>
+  <si>
+    <t>Puka kunkayuq sinqanpas pavopa ñutiyuqhina.</t>
+  </si>
+  <si>
+    <t>Paco Yunque waqayta munan. ¿Yachachiq imay horataq pizarrapi qillqayta tukunqa?</t>
+  </si>
+  <si>
+    <t>Warmakuna qillqana maytunkuta hurquspanku qillqayta qallarin ku yachachiq pizarrapi ruranankupaq qillqasqanta.</t>
+  </si>
+  <si>
+    <t>Arí llapaykichik qillqankichik.</t>
+  </si>
+  <si>
+    <t>Chayta nichkaptin campana waqarparin warmakuna pukllanankupaq.</t>
+  </si>
+  <si>
+    <t>Warmakuna kusikuykuspanku pukllananku hawaman pawayllaña lluqsirparinku.</t>
+  </si>
+  <si>
+    <t>Ichaqa Fariña mana kuyurinchu hinaspa Grievepa ñawpaqninpi kallpachakuspa sayarqun kaynata nispa:</t>
+  </si>
+  <si>
+    <t>Paco Yunqueqa hinam waqaykun wiqinwanpas hiqipaqhinaraq.</t>
+  </si>
+  <si>
+    <t>Warmakunam asuykurqun Paco Yunqueman chaynallataq huk warmakunapas Humberto Grieveman Paco Fariñamanpas.</t>
+  </si>
+  <si>
+    <t>Grievem kallpawan tanqarparin Fariñata pampaman wischukunankama.</t>
+  </si>
+  <si>
+    <t>Yachachiqñataq pupitrenpi tiyarqun hinaspa warmakunata sutinkumanta qayan challwakunamanta qillqay rurasqankuta qawachinankupaq.</t>
+  </si>
+  <si>
+    <t>Chaymanta wakin yachakuqkuna yachachiqman aypanku qillay rurasqankuta.</t>
+  </si>
+  <si>
+    <t>¿Qam yachankiñachu kaypi mayqin yachakuq allin yachayniyuq kasqanta? ¿Kay semanapaq ruray kayta qillqarunkuñachu chaninchanapaq?</t>
+  </si>
+  <si>
+    <t>Pupitreman rispan yachakuqkunata allinta qawarqun.</t>
+  </si>
+  <si>
+    <t>Chaymanta saka kunkaniraq hatun siminwan nin:</t>
+  </si>
+  <si>
+    <t>Directorqa wakin yachakuqkuna lawman kutirispan nin:</t>
+  </si>
+  <si>
+    <t>¡Payqa lliw yachakuqkunamanta allinmi!</t>
+  </si>
+  <si>
+    <t>Qunqaymanta llapallanku upallarparinku chaywan Paco mancharikun.</t>
+  </si>
+  <si>
+    <t>Yachachiq makinmanta hapirquspa aparqun ñawpaqpi kaq tiyanaman sayaymasin warmapa kuskanman.</t>
+  </si>
+  <si>
+    <t>Sullkachaytam rikcharichirqani mamaymi unquchkan tatayñataq llamkaq rirqun.</t>
+  </si>
+  <si>
+    <t>Tullu qari warma qillu uyayuq kaynata nin:</t>
+  </si>
+  <si>
+    <t>Challwakunaqa yakumanta lluqsispankuqa wañunkum mana samayta atispa.</t>
+  </si>
+  <si>
+    <t>¡Kaykunaqa millaymi patronpa Humberto warmapapas!</t>
+  </si>
+  <si>
+    <t>Yachachiq qawarqun llapan warmakunata qaqa uyanwan hinaspa soldadohina nin:</t>
+  </si>
+  <si>
+    <t>Yachachiq achka rapikunapa chawpinpi maskaspa tarirqun Humberto Grievepa qillqay rurasqanta.</t>
+  </si>
+  <si>
+    <t>Manaraq qupuchkaspam qillqanan maytunmanta chutarqusqa huk rapinta chay rapipim karqa Paco Yunquepa challwakunamanta qillqasqan Humberto Grievem chay rapipi sutinpa qillqantapas churarqun.</t>
+  </si>
+  <si>
+    <t>Párese ahí</t>
+  </si>
+  <si>
+    <t>Chaypi sayay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Paco Yunque dijo el profesor. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Paco Yunque nin yachachiq. </t>
+  </si>
+  <si>
+    <t>cesando de escribir.</t>
+  </si>
+  <si>
+    <t>qillqayta saqiykuspan.</t>
+  </si>
+  <si>
+    <t>¡Bueno! dijo el profesor</t>
+  </si>
+  <si>
+    <t>¡Allinmi! nin yachachiq</t>
+  </si>
+  <si>
+    <t>En el campo hablaba primero uno después otro después otro y después otro.</t>
+  </si>
+  <si>
+    <t>Eso no era ya voz de personas sino otro ruido muy diferente.</t>
+  </si>
+  <si>
+    <t>Runakunapa rimayninñachu karqan ichaqa hukman chaqwaymi karqan.</t>
+  </si>
+  <si>
+    <t>Paco no quiso seguirlos al principio pero luego obedeció porque vio que todos hacían lo mismo.</t>
+  </si>
+  <si>
+    <t>Pacoqa manam munarqachu chaymantaqa qatirqun llapanku yaykuqta rikuspa.</t>
+  </si>
+  <si>
+    <t>Los Zumiga le estaban jalando el uno para un lado y el otro para el otro lado cuando de pronto le soltaron y lo dejaron solo.</t>
+  </si>
+  <si>
+    <t>Zumigakunañataq chutachkanku sapa waqtanmanta qunqaymanta kacharirqunku hinaspa sapallanta saqirqunku.</t>
+  </si>
+  <si>
+    <t>Todos los niños estaban de pie con la mano derecha levantada a la altura de la sien saludando en silencio y muy erguidos.</t>
+  </si>
+  <si>
+    <t>Llapan warmakuna sayasqa kachkanku piqankukama ichuq makinkuta uqarispanku upallalla kaspanku hinaspa allinta sayaspanku.</t>
+  </si>
+  <si>
+    <t>El profesor volvió a su pupitre y después de echar una mirada muy seria sobre todos los alumnos dijo con voz de militar:</t>
+  </si>
+  <si>
+    <t>Yachachiq kutirqun pupitrenman hinaspa yachakuqkunata qaqa uyanwan qawaykuspa hatun siminwan nin:</t>
+  </si>
+  <si>
+    <t>Pon tus cosas como yo en la carpeta.</t>
+  </si>
+  <si>
+    <t>Y él Paco Yunque ¿por qué tenía tanto miedo?</t>
+  </si>
+  <si>
+    <t>Paco Yunqueñataq ¿imaynanpitaq anchata manchakun?</t>
+  </si>
+  <si>
+    <t>Miraba a hurtadillas al profesor al pupitre al muro que había detrás del profesor y al techo.</t>
+  </si>
+  <si>
+    <t>Mana musyachikuqhinalla yachachiqta qawan pupitretapas yachachiqpa qipanpi kaq pirqatapas chaynallataq yachaywasipa qatantapas.</t>
+  </si>
+  <si>
+    <t>Sólo que Humberto acostumbraba venir tarde al colegio y esta vez por ser la primera la señora Grieve le había dicho a la madre de Paco:</t>
+  </si>
+  <si>
+    <t>Humbertoqa yachaywasiman qipa qipata chayarqan kunanñataq qallariy punchaw kaptin mama Grieve mañarurqan Pacopa mamanta:</t>
+  </si>
+  <si>
+    <t>El profesor al ver a Humberto Grieve le dijo:</t>
+  </si>
+  <si>
+    <t>Yachachiq Humberto Grieveta qawaspa nin:</t>
+  </si>
+  <si>
+    <t>Humberto con gran desenfado respondió:</t>
+  </si>
+  <si>
+    <t>Humberto mana manchakuspa kutichin:</t>
+  </si>
+  <si>
+    <t>Humberto Grieve colorado de cólera dijo:</t>
+  </si>
+  <si>
+    <t>Humberto Grieve piñakuywan pukayarquspa nin:</t>
+  </si>
+  <si>
+    <t>Y además tiene usted una hora de reclusión.</t>
+  </si>
+  <si>
+    <t>Hinaspa huk horam qipanki lluqsinaykipaq.</t>
+  </si>
+  <si>
+    <t>¡Sí señor! ¡Sí señor! ¡Grieve ha llegado tarde!</t>
+  </si>
+  <si>
+    <t>¡Arí tayta! ¡Arí tayta! ¡Grieveqa qipatañam chayarqamun!</t>
+  </si>
+  <si>
+    <t>¡Bueno bueno! dijo el profesor. ¡Silencio! ¡Cállese Paco Yunque! ¡Silencio!</t>
+  </si>
+  <si>
+    <t>¡Allinmi allinmi! nin yachachiq. ¡Upallaychik! ¡Paco Yunque upallay! ¡Upallay!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vamos a ver usted </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kunan qawasun qam </t>
+  </si>
+  <si>
+    <t>Paco Yunque medio llorando todavía por el jalón de pelos que le dio Grieve repitió de una tirada lo que dijo el profesor:</t>
+  </si>
+  <si>
+    <t>Paco Yunquem Grievepa chukchan chutasqanwan waqapakustinraq chaylla kutirqachin yachachiqpa tapukusqanta:</t>
+  </si>
+  <si>
+    <t>Fariña en vez de llorar como Paco Yunque dijo a grandes voces al profesor:</t>
+  </si>
+  <si>
+    <t>Fariñaqa manam Paco Yunquehinachu waqan aswanmi yachachiqman qapariqhina nin:</t>
+  </si>
+  <si>
+    <t>Paco Fariña con los ojos brillantes de rabia decía:</t>
+  </si>
+  <si>
+    <t>Paco Fariña piñallaña qawaspan nin:</t>
+  </si>
+  <si>
+    <t>¿Es señor el ejercicio escrito de los peces?</t>
+  </si>
+  <si>
+    <t>¿Chayqa tayta challwakunamanta qillqanaykupaqchu?</t>
+  </si>
+  <si>
+    <t>Ya en el patio vino Humberto Grieve y agarró a Paco Yunque por un brazo diciéndole con cólera:</t>
+  </si>
+  <si>
+    <t>Pukllana pampapi kachkaptin Humberto Grieve hamurqun hinaspa Paco Yunqueta huknin rikranmanta hapirqun piñallaña kaynata nispa:</t>
+  </si>
+  <si>
+    <t>Cuando el profesor dijo: “Humberto Grieve” Grieve fue y presentó el ejercicio de Paco Yunque como si fuese suyo.</t>
+  </si>
+  <si>
+    <t>Yachachiq: “Humberto Grieve” nispa qayaptinmi Grieve rispan Paco Yunquepa qillqaspa rurasqanta quykun kikinpa rurasqanpas kanmanhina.</t>
+  </si>
+  <si>
+    <t>Todos los niños miraron ansiosamente a Humberto Grieve que salió pavoneándose a pararse muy derecho y orgulloso delante del pupitre del profesor. El Director le dio la mano diciéndole:</t>
+  </si>
+  <si>
+    <t>Lliw warmakunam Humberto Grieveta qawanku payñataq lluqsirqun ñuqam allinqa kani niqhina hinaspa yachachiqpa pupitrenpa ñawpaqninpi kusisqa sayarqun. Director makinta hapiykun kaynata nispa:</t>
+  </si>
+  <si>
+    <t>Y si así lo hacen recibirá cada uno un premio al fin del año y sus nombres serán también inscritos en el Cuadro de Honor del Colegio como el de Humberto Grieve.</t>
+  </si>
+  <si>
+    <t>Chayna kaptiykichikqa wata tukuytam sapakama premiota chaskinkichik chaynallataq Cuadro de Honor nisqapi sutiykichik qillqasqa kanqa Humberto Grievepahina.</t>
+  </si>
+  <si>
+    <t>decían todos los niños a la vez.</t>
+  </si>
+  <si>
+    <t>ninku llapallan warmakuna.</t>
+  </si>
+  <si>
+    <t>Ñuqa tayta</t>
+  </si>
+  <si>
+    <t>Yo señor</t>
+  </si>
+  <si>
+    <t>Cuidado con mentir</t>
+  </si>
+  <si>
+    <t>yanqataq llullakuchkawaq</t>
+  </si>
+  <si>
+    <t>¡Qamhina decente warmaqa manam llullakunanchu!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cuando Paco Yunque y su madre llegaron a la puerta del colegio </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Paco Yunque mamanpiwan yachaywasiman chayaruptinku </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Paco estaba con miedo </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pacoqa manchakuywan karqan </t>
+  </si>
+  <si>
+    <t>A veces oyó hablar hasta cuatro o cinco personas juntas.</t>
+  </si>
+  <si>
+    <t>Y más todavía con la acequia cuando crecía…</t>
+  </si>
+  <si>
+    <t>Y ahora sí que esto del colegio era una bulla fuerte de muchos.</t>
+  </si>
+  <si>
+    <t>Kay yachaywasipiqa llumpay chaqwañam karqan achka runakunapa.</t>
+  </si>
+  <si>
+    <t>De diversos grupos se separaban los alumnos y venían a ver a Paco haciéndole muchas preguntas.</t>
+  </si>
+  <si>
+    <t>Yachakuq warmakunam huntamunku Pacota qawaq tapupayaspanku.</t>
+  </si>
+  <si>
+    <t>Pero Paco no podía oír nada por la gritería de los demás.</t>
+  </si>
+  <si>
+    <t>En ese momento sonó la campana y todos entraron a los salones de clase.</t>
+  </si>
+  <si>
+    <t>Chaynachkaptinkum campana waqarparin hinaptinmi lliw warmakuna yachananku ukuman yaykurparinku.</t>
+  </si>
+  <si>
+    <t>Con voz temblorosa Paco respondió muy bajito:</t>
+  </si>
+  <si>
+    <t>Katkataqhina rimaspa Paco tumpachallata rimaspa kutichin:</t>
+  </si>
+  <si>
+    <t>Paco Yunque tenía aún en la mano su libro su cuaderno y su lápiz.</t>
+  </si>
+  <si>
+    <t>Paco Yunqueqa maytunta qillqanan maytunta lápiznintapas hapirayan.</t>
+  </si>
+  <si>
+    <t>Después le dijo alegremente:</t>
+  </si>
+  <si>
+    <t>Chaymanta kusisqa kaynata nin:</t>
+  </si>
+  <si>
+    <t>¿Dónde está tu familia la tuya?</t>
+  </si>
+  <si>
+    <t>Como éste eran seguramente todos los demás niños: habladores contentos y no les daba miedo el colegio.</t>
+  </si>
+  <si>
+    <t>Payhinachiki wakin warmakunapas: rimaysapakuna kusisqallaña hinaspa yachaywasitaqa mana manchakunkuchu.</t>
+  </si>
+  <si>
+    <t>De cuando en cuando llegaban voces de otros salones de clase y ruidos de carretas que pasaban por la calle.</t>
+  </si>
+  <si>
+    <t>Precisamente a Paco le habían hecho venir del campo para que acompañe al colegio a Humberto y para que juegue con él pues ambos tenían la misma edad.</t>
+  </si>
+  <si>
+    <t>Pacotaqa aparqachimusqa Humbertota yachaywasiman rinaysinanpaq chaynallataq payta pukllaysinanpaq watapuralla kasqankurayku.</t>
+  </si>
+  <si>
+    <t>Humberto Grieve buscó con la mirada donde estaba Paco Yunque. Al dar con él se le acercó y le dijo imperiosamente:</t>
+  </si>
+  <si>
+    <t>Humberto Grieve ñawillanwan maskan Paco Yunqueta. Rikurquspan asuykurqun hinaspa kamachiqhina nin:</t>
+  </si>
+  <si>
+    <t>¿Y a ti qué te importa? le increpó Grieve violentamente arrastrando a Yunque por un brazo a su carpeta.</t>
+  </si>
+  <si>
+    <t>¿Qanmanri imataq qukusunki? nispan Grieveñataq piñarikun Yunqueta rikranmanta carpetan lawman chutaspa.</t>
+  </si>
+  <si>
+    <t>¡Señor! gritó entonces Fariña Grieve se está llevando a Paco Yunque a su carpeta.</t>
+  </si>
+  <si>
+    <t>¡Tayta! nispa Fariña qaparin Grieven apachkan Paco Yunqueta carpetanman.</t>
+  </si>
+  <si>
+    <t>Humberto Grieve instalado ya en su carpeta con Paco Yunque le dijo al profesor:</t>
+  </si>
+  <si>
+    <t>Humberto Grieve Paco Yunquewan carpetanpiña tiyaspan yachachiqta nin:</t>
+  </si>
+  <si>
+    <t>Todos los alumnos miraban en silencio al profesor a Humberto Grieve y a Paco Yunque.</t>
+  </si>
+  <si>
+    <t>Lliw yachakuqkuna upallalla yachachiqta qawanku Humberto Grievetapas chaynallataq Paco Yunquetapas.</t>
+  </si>
+  <si>
+    <t>Fariña fue y tomó a Paco Yunque por la mano y quiso volverlo a traer a su carpeta pero Grieve tomó a Paco Yunque por el otro brazo y no lo dejó moverse.</t>
+  </si>
+  <si>
+    <t>Fariña Paco Yunqueta makinmanta hapispa carpetanman kutichiyta munan Grieveñataq huknin rikranmanta hapirqun hinaspa mana kuyurinanta munanchu.</t>
+  </si>
+  <si>
+    <t>Déjelo le he dicho.</t>
+  </si>
+  <si>
+    <t>No señor.</t>
+  </si>
+  <si>
+    <t>Manam tayta.</t>
+  </si>
+  <si>
+    <t>El profesor estaba indignado y repetía amenazador:</t>
+  </si>
+  <si>
+    <t>Yachachiq piñarqukuspa kuti kutimanta hatun siminwan:</t>
+  </si>
+  <si>
+    <t>Humberto Grieve tenía bajos los ojos y sujetaba fuertemente por el brazo a Paco Yunque el cual estaba aturdido y se dejaba jalar como un trapo por Fariña y por Grieve.</t>
+  </si>
+  <si>
+    <t>Humberto Grieve Paco Yunqueta hatun ñawinwan qawaspa qaqay qaqata rikranmanta hapirqun payñataq uman muyusqahina kaspa trapotahina chutaykachachikun Fariñawan chaynallataq Grievewan.</t>
+  </si>
+  <si>
+    <t>Paco Yunque tenía ahora más miedo a Humberto Grieve que al profesor que a todos los demás niños y que al colegio entero.</t>
+  </si>
+  <si>
+    <t>Paco Yunque kunanqa aswan manchaparqukun Humberto Grieveta yachachiqmantaqa aswanraq lliw yachaywasipi kaq warmakunamantapas.</t>
+  </si>
+  <si>
+    <t>El profesor se acercó a Paco Yunque le tomó por el brazo y le condujo a la carpeta de Fariña.</t>
+  </si>
+  <si>
+    <t>Yachachiq asuykurqun Paco Yunqueman rikranmanta hapirquspan Fariñapa carpetanman aparqun.</t>
+  </si>
+  <si>
+    <t>Grieve se puso a llorar pataleando furiosamente en su banco.</t>
+  </si>
+  <si>
+    <t>Grieve waqarqun tiyananpi haytaqyaspa piñasqallaña.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bueno dijo el profesor muy serio. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Allinmi nin yachachiq qaqa uyanwan. </t>
+  </si>
+  <si>
+    <t>Le señaló un rincón cerca de la pizarra de ejercicios.</t>
+  </si>
+  <si>
+    <t>Kuchuta qawachin pizarrapa lawninman.</t>
+  </si>
+  <si>
+    <t>Grieve también ha llegado tarde señor.</t>
+  </si>
+  <si>
+    <t>Grievepas qipatañam chayarqamun tayta.</t>
+  </si>
+  <si>
+    <t>Cuando saldrían del colegio el niño Humberto le daría un empujón en el pecho y una patada en la pierna.</t>
+  </si>
+  <si>
+    <t>Ahora le va a pegar porque le estaba enseñando los puñetes y le miraba con ojos blancos.</t>
+  </si>
+  <si>
+    <t>Kunanqa maqarqunqam takatam qawachichkan hinaspa ñawintapas yuraqyachisparaq qawan.</t>
+  </si>
+  <si>
+    <t>Los alumnos respondieron en coro: Sí señor.</t>
+  </si>
+  <si>
+    <t>Todos los chicos exclamaban a la vez reventando de risa:</t>
+  </si>
+  <si>
+    <t>Ja! Ja! Ja! Ja! Ja! ¡Miente señor! Ja! Ja! Ja! Ja! Ja! ¡Mentira! ¡Mentira!</t>
+  </si>
+  <si>
+    <t>Ja! Ja! Ja! Ja! Ja! ¡Llullakunmi tayta! Ja! Ja! Ja! Ja Ja! ¡Llullakunmi! ¡Llullakunmi!</t>
+  </si>
+  <si>
+    <t>¡Bueno! ¡Bueno! ¡Silencio! Grieve no se acuerda bien seguramente. Porque los peces mueren cuando…</t>
+  </si>
+  <si>
+    <t>Porque los peces tienen sus mamás en el agua y sacándolos se quedan sin mamás.</t>
+  </si>
+  <si>
+    <t>Challwakunapa mamankunaqa yakupim kachkan chaymanta urquruptinkuqa mana mamayuq qiparqunku.</t>
+  </si>
+  <si>
+    <t>Mi papá puede darles aire en mi casa porque tiene bastante plata para comprar todo.</t>
+  </si>
+  <si>
+    <t>Taytaymi wayrataqa wasiypi qunman achkam qullqin imatapas rantinanpaq.</t>
+  </si>
+  <si>
+    <t>Y tú ¿tu papá no tiene plata?</t>
+  </si>
+  <si>
+    <t>Qamrí ¿taytaykiri mana qullqiyuqchu?</t>
+  </si>
+  <si>
+    <t>El profesor tomó la tiza y escribió en la pizarra dando la espalda a los niños.</t>
+  </si>
+  <si>
+    <t>¿Qué es eso? dijo el profesor volviéndose a ver lo que pasaba.</t>
+  </si>
+  <si>
+    <t>¿Imam kachkan? nin yachachiq kutirispa qawan ima kasqanta.</t>
+  </si>
+  <si>
+    <t>Grieve le ha tirado de los pelos señor.</t>
+  </si>
+  <si>
+    <t>Tayta Grievem chukchanmanta chutarparin.</t>
+  </si>
+  <si>
+    <t>Si se le saca del agua ¿qué sucede con el pez?</t>
+  </si>
+  <si>
+    <t>Yakumanta hurquruptinchik ¿imananmi challwata?</t>
+  </si>
+  <si>
+    <t>¿Qué pasa con el pez si se le saca del agua?</t>
+  </si>
+  <si>
+    <t>¿Imananmi challwata yakumanta hurquptinchik?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">¡Sí señor! </t>
+  </si>
+  <si>
+    <t>¡Arí tayta!</t>
+  </si>
+  <si>
+    <t>¡Las cosas de este Humberto Grieve! ¡Ya ven lo que estaba pasando por su cuenta! ¡Ahora habrá que ver lo que iba a hacer el profesor que estaba colorado de cólera! ¡Y todo por culpa de Humberto Grieve!</t>
+  </si>
+  <si>
+    <t>¡Kay Humberto Grievepa rurasqankuna! ¡Qawachkankichikmi kikinmanta imapas rurasqanta! ¡Kunanmi qawasun yachachiqpa ima rurasqanta piñakuywan uyanpas pukayasqaraq! ¡Humberto Grievepa huchanpi!</t>
+  </si>
+  <si>
+    <t>Humberto Grieve me ha pegado un puñetazo en la cara sin que yo le haga nada.</t>
+  </si>
+  <si>
+    <t>¿Verdad Grieve?</t>
+  </si>
+  <si>
+    <t>¿Grieve chaynachu?</t>
+  </si>
+  <si>
+    <t>¡Todos señor! Paco Yunque también lo ha visto.</t>
+  </si>
+  <si>
+    <t>¡Llapallaykum tayta! Paco Yunquepas rikunmi.</t>
+  </si>
+  <si>
+    <t>¡No señor! Yo no le he pegado.</t>
+  </si>
+  <si>
+    <t>¡Manam tayta! Ñuqaqa manam maqarqanichu.</t>
+  </si>
+  <si>
+    <t>¡Un niño decente como usted no debe mentir!</t>
+  </si>
+  <si>
+    <t>Porque si le digo a mi mamá también me pega y la patrona se enoja.</t>
+  </si>
+  <si>
+    <t>Mamayman willaykuptiyqa maqarquwanqam hinaspa patrona piñarqukunman.</t>
+  </si>
+  <si>
+    <t>Mientras el profesor escribía en la pizarra Humberto Grieve se puso a llenar de dibujos su cuaderno.</t>
+  </si>
+  <si>
+    <t>Yachachiq pizarrapi qillqanankama Humberto Grieve qillqana maytun huntata qillqaparqun.</t>
+  </si>
+  <si>
+    <t>Yunque miraba a los otros niños y éstos no le pegaban a Yunque ni a Fariña ni a nadie.</t>
+  </si>
+  <si>
+    <t>Yunque qawan wakin warmakunata paykunaqa manam maqankuchu Yunqueta nitaq Fariñata manataqmi pitapas.</t>
+  </si>
+  <si>
+    <t>Tampoco le querían agarrar a Yunque en las otras carpetas como quiso hacerlo el niño Humberto.</t>
+  </si>
+  <si>
+    <t>Yunquetapas manam hapiytaqa munankuchu huk carpetakunapi Humberto warmahinaqa.</t>
+  </si>
+  <si>
+    <t>Yunque se lo diría ahora a su mamá y si el niño Humberto le pegaba se lo diría al profesor.</t>
+  </si>
+  <si>
+    <t>Yunque kunanqa mamanman willarqunqa warma Humberto maqaptinñataq yachachiqman willaykunqa.</t>
+  </si>
+  <si>
+    <t>Entonces se lo diría a Paco Fariña. Le preguntó a Paco Fariña:</t>
+  </si>
+  <si>
+    <t>Chaynaqa willarqunman Paco Fariñaman. Paco Fariñata tapurqun:</t>
+  </si>
+  <si>
+    <t>Paco Yunque no quería creerlo porque al niño Humberto no le pegaba nadie.</t>
+  </si>
+  <si>
+    <t>Paco Yunqueqa manam chaynaqa kanmanchu nin Humberto warmataqa manam pipas maqarqanchu.</t>
+  </si>
+  <si>
+    <t>Si Fariña le pegaba vendría el patrón y le pegaría a Fariña y también al papá de Fariña.</t>
+  </si>
+  <si>
+    <t>Fariña maqaptinqa patronmi hamurquspan Fariñata maqarqunman chaynallataq Fariñapa taytantapas.</t>
+  </si>
+  <si>
+    <t>En buena cuenta el señor Grieve podía más que el profesor y más que todos.</t>
+  </si>
+  <si>
+    <t>Yachasqam tayta Grieve yachachiqmantaqa lliw runakunapaq atiqniyuq kasqan.</t>
+  </si>
+  <si>
+    <t>Sus zapatos hacían risss - risss - rissss - risssss cuando caminaba mucho.</t>
+  </si>
+  <si>
+    <t>Zapatonkunañataq anchata puriptin risss – risss – rissss – risssss ninraq.</t>
+  </si>
+  <si>
+    <t>Y porque el patrón y la patrona le querían mucho al niño Humberto y Paco Yunque tenía pena porque el niño Humberto le pegaba mucho.</t>
+  </si>
+  <si>
+    <t>Patronqa patronapas anchatam kuyanku Humberto warmataqa Paco Yunqueñataq manchakurqan Humberto warmata ancha maqasqanrayku.</t>
+  </si>
+  <si>
+    <t>Sí en sus cuadernos le respondió el profesor. ¿Usted sabe escribir un poco?</t>
+  </si>
+  <si>
+    <t>Arí qillqana maytuykichikpi nispa kutichin yachachiq. ¿Qam tunpanta yachankiña qillqayta?</t>
+  </si>
+  <si>
+    <t>Al cabo de un rato el profesor se paró y preguntó:</t>
+  </si>
+  <si>
+    <t>Unayniraqchamanta yachachiq sayarirquspa tapun:</t>
+  </si>
+  <si>
+    <t>Ya señor respondieron todos a la vez.</t>
+  </si>
+  <si>
+    <t>Arí tayta nispa llapankumanta rimarirqunku.</t>
+  </si>
+  <si>
+    <t>Paco Yunque había copiado su ejercicio muy bien y salió al recreo con su libro su cuaderno y su lápiz.</t>
+  </si>
+  <si>
+    <t>Paco Yunqueqa rurananpaq qusqanta allintam qillqarqusqa hinaspa maytunta qillqana maytunta chaynallataq lápiznintapas aparikuspa lluqsirqun pukllayman.</t>
+  </si>
+  <si>
+    <t>Lo echó de un empellón al medio y le hizo derribar su libro su cuaderno y su lápiz.</t>
+  </si>
+  <si>
+    <t>Huk tanqayllawan chawpiman chanqaykun chaynaspa wikapachin maytunta qillqana maytunta lápiznintapas.</t>
+  </si>
+  <si>
+    <t>Entonces salió Paco Fariña del ruedo formado por los otros niños y se plantó ante Grieve diciéndole:</t>
+  </si>
+  <si>
+    <t>Paco Fariña warmakunapa chawpinmanta lluqsirqamun hinaspa Grievepa ñawpaqninpi sayarparin kaynata nispa:</t>
+  </si>
+  <si>
+    <t>¡Porque es tu muchacho le pegas y lo saltas y lo haces llorar! ¡Sáltalo y verás!</t>
+  </si>
+  <si>
+    <t>¡Muchachoyki kaptin maqanki pawaykunki hinaspa waqachinki! ¡Pawaylla pawaykuy qawanaykipaq!</t>
+  </si>
+  <si>
+    <t>Los dos hermanos Zumiga abrazaban a Paco Yunque y le decían que ya no llorase y le consolaban diciéndole:</t>
+  </si>
+  <si>
+    <t>A medida que el profesor recibía las hojas de los cuadernos las iba leyendo y escribía las notas en unos libros.</t>
+  </si>
+  <si>
+    <t>Yachachiq qillqana maytupa rapinta chaskisqanmanhina qawaspa yachakuqkunapa notankuta maytukunapi qillqan.</t>
+  </si>
+  <si>
+    <t>Humberto Grieve se acercó a la carpeta de Paco Yunque y le entregó su libro su cuaderno y su lápiz.</t>
+  </si>
+  <si>
+    <t>Humberto Grievem asuykurqun Paco Yunquepa carpetanman hinaspa maytunta qillqana maytunta chaynallataq lápiznintapas quykapun.</t>
+  </si>
+  <si>
+    <t>Y cuando el profesor dijo: “Paco Yunque” Yunque se puso a buscar en su cuaderno la hoja en que escribió su ejercicio y no la encontró.</t>
+  </si>
+  <si>
+    <t>Chaymanta yachachiq: “Paco Yunque” nispa qayaptin Yunque rurasqanta maskaykun maytunpi manam tarinchu.</t>
+  </si>
+  <si>
+    <t>Bueno dijo el profesor y anotó en unos libros la falta de Paco Yunque.</t>
+  </si>
+  <si>
+    <t>Allinmi nin yachachiq hinaspa maytukunapi qillqarqun Paco Yunquepa mana rurasqanta.</t>
+  </si>
+  <si>
+    <t>Cuando el profesor acabó de verlos todos entró de repente al salón el Director del Colegio.</t>
+  </si>
+  <si>
+    <t>Yachachiq qawayta tukuruptinña yachaywasipa Directornin qunqayllamanta yaykurqamun.</t>
+  </si>
+  <si>
+    <t>Aquí está señor Director.</t>
+  </si>
+  <si>
+    <t>Kayqaya wiraqucha Director.</t>
+  </si>
+  <si>
+    <t>Se lo dio al Director que se quedó viendo largo rato la cuartilla.</t>
+  </si>
+  <si>
+    <t>Directorman quykun hinaptin unay qawarqun chay qillqayta.</t>
+  </si>
+  <si>
+    <t>Muy bien dijo el Director contento.</t>
+  </si>
+  <si>
+    <t>Kusa kusam nin Director kusisqa.</t>
+  </si>
+  <si>
+    <t>¡Llegando tarde y todo! ¡Y pegándole a todos! ¡Pero ya lo estaban viendo! ¡Le había dado la mano al Director! ¡Humberto Grieve el mejor de todos los del primer año!</t>
+  </si>
+  <si>
+    <t>¡Qipa chayamuq kachkaspa! ¡Lliwta maqachkaspa! ¡Ñam qawachkarqakuña! ¡Directorwanpas makinkuta hapiykanakurqañam! ¡Humberto Grievem kaypi yachakuqkunamanta allinnin!</t>
+  </si>
+  <si>
+    <t>Sí a copiar todo el mundo.</t>
+  </si>
+  <si>
+    <t>Vamos a jugar con mi tablero.</t>
+  </si>
+  <si>
+    <t>Tiene torres negras.</t>
+  </si>
+  <si>
+    <t>Porque el señor lo ha puesto aquí.</t>
+  </si>
+  <si>
+    <t>Yo quiero que Yunque se quede conmigo.</t>
+  </si>
+  <si>
+    <t>Miente señor respondió rápidamente Humberto Grieve.</t>
+  </si>
+  <si>
+    <t>No he llegado tarde.</t>
+  </si>
+  <si>
+    <t>Paco Yunque no sabía qué hacer.</t>
+  </si>
+  <si>
+    <t>Le pegaría otra vez el niño Humberto porque no se quedó con él en su carpeta.</t>
+  </si>
+  <si>
+    <t>¡Señor! gritó Fariña.</t>
+  </si>
+  <si>
+    <t>Ahí ese Grieve me está enseñando los puñetes.</t>
+  </si>
+  <si>
+    <t>Varios niños quisieron hablar.</t>
+  </si>
+  <si>
+    <t>El profesor le dijo a uno de los Zumiga que hablase.</t>
+  </si>
+  <si>
+    <t>Señor dijo Zumiga: Había en la playa mucha arena.</t>
+  </si>
+  <si>
+    <t>Un día nos metimos entre la arena y encontramos un pez medio vivo y lo llevamos a mi casa.</t>
+  </si>
+  <si>
+    <t>Pero se murió en el camino…</t>
+  </si>
+  <si>
+    <t>Están sueltos entre los muebles.</t>
+  </si>
+  <si>
+    <t>Mentira señor.</t>
+  </si>
+  <si>
+    <t>Porque el pez se muere pronto cuando lo sacan del agua.</t>
+  </si>
+  <si>
+    <t>Humberto Grieve se enojó porque no le creían lo que contaba.</t>
+  </si>
+  <si>
+    <t>Todos se burlaban de lo que había dicho.</t>
+  </si>
+  <si>
+    <t>Todos los niños dijeron que sus padres tenían mucho dinero.</t>
+  </si>
+  <si>
+    <t>Paco Yunque no decía nada y estaba pensando en los peces que morían fuera del agua.</t>
+  </si>
+  <si>
+    <t>No señor dijo Humberto Grieve.</t>
+  </si>
+  <si>
+    <t>Yo no le he pegado.</t>
+  </si>
+  <si>
+    <t>No le castigan porque su papá es rico.</t>
+  </si>
+  <si>
+    <t>Le voy a decir a mi mamá.</t>
+  </si>
+  <si>
+    <t>Paco Yunque estaba pensando en su mamá.</t>
+  </si>
+  <si>
+    <t>Después se acordó de la patrona y del niño Humberto.</t>
+  </si>
+  <si>
+    <t>¿Le pegaría al volver a la casa?</t>
+  </si>
+  <si>
+    <t>Y nada más le diría.</t>
+  </si>
+  <si>
+    <t>Pero Paco tendría colorada la pierna de la patada del niño Humberto.</t>
+  </si>
+  <si>
+    <t>Y Paco se pondría a llorar.</t>
+  </si>
+  <si>
+    <t>Porque al niño Humberto nadie le hacía nada.</t>
+  </si>
+  <si>
+    <t>Sí señor.</t>
+  </si>
+  <si>
+    <t>Porque mi papá me enseñó en el campo.</t>
+  </si>
+  <si>
+    <t>Entonces todos a copiar.</t>
+  </si>
+  <si>
+    <t>No hay que apurarse decía el profesor.</t>
+  </si>
+  <si>
+    <t>Hay que escribir poco a poco para no equivocarse.</t>
+  </si>
+  <si>
+    <t>Bueno dijo el profesor.</t>
+  </si>
+  <si>
+    <t>Pongan al pie sus nombres bien claros.</t>
+  </si>
+  <si>
+    <t>Yunque hacía lo que le ordenaba Grieve pero estaba colorado y avergonzado de que los otros niños viesen cómo lo zarandeaba el niño Humberto.</t>
+  </si>
+  <si>
+    <t>Yunque quería llorar.</t>
+  </si>
+  <si>
+    <t>Estáte quieto así le ordenó imperiosamente.</t>
+  </si>
+  <si>
+    <t>No te muevas hasta que yo te diga.</t>
+  </si>
+  <si>
+    <t>Mucho rato estuvo así jugando Humberto Grieve con Paco Yunque.</t>
+  </si>
+  <si>
+    <t>Le dio como veinte saltos y veinte patadas.</t>
+  </si>
+  <si>
+    <t>De repente se oyó un llanto.</t>
+  </si>
+  <si>
+    <t>Era Yunque que estaba llorando de las fuertes patadas del niño Humberto.</t>
+  </si>
+  <si>
+    <t>Un buen rato llovieron bofetadas y patadas entre varios niños.</t>
+  </si>
+  <si>
+    <t>Una gran gritería había en el salón del primer año cuando entró el profesor.</t>
+  </si>
+  <si>
+    <t>Todos se callaron.</t>
+  </si>
+  <si>
+    <t>A ver si la semana que viene hay otro alumno que dé una buena clase y haga un buen ejercicio como el que ha hecho hoy Humberto Grieve.</t>
+  </si>
+  <si>
+    <t>Así lo espero.</t>
+  </si>
+  <si>
+    <t>Se quedó el Director callado un rato.</t>
+  </si>
+  <si>
+    <t>Todos los alumnos estaban pensativos y miraban a Humberto Grieve con admiración.</t>
+  </si>
+  <si>
+    <t>Tableroywan pukllakusun.</t>
+  </si>
+  <si>
+    <t>Yana torreyuqkunam.</t>
+  </si>
+  <si>
+    <t>Ama.</t>
+  </si>
+  <si>
+    <t>Taytam chaymanqa churan.</t>
+  </si>
+  <si>
+    <t>Yunque ñuqawan kuska kanantam munani.</t>
+  </si>
+  <si>
+    <t>Llullakunmi tayta nispam Humberto Grieve utqaylla kutirqachin.</t>
+  </si>
+  <si>
+    <t>Manam qipatachu chayamuniqa.</t>
+  </si>
+  <si>
+    <t>Paco Yunque mana imatapas rurayta atinchu.</t>
+  </si>
+  <si>
+    <t>Warma Humberto huktawan maqarqunman paypa carpetanpi mana tiyasqanmanta.</t>
+  </si>
+  <si>
+    <t>¡Tayta! qaparin Fariña.</t>
+  </si>
+  <si>
+    <t>Chay Grievem takakunata qawachimuwachkan.</t>
+  </si>
+  <si>
+    <t>Achka warmakunam rimayta munanku.</t>
+  </si>
+  <si>
+    <t>Yachachiqmi huknin Zumigata qam rimay nin.</t>
+  </si>
+  <si>
+    <t>Tayta nin Zumiga: playapim achka aqu kasqa.</t>
+  </si>
+  <si>
+    <t>Huk punchawmi aqu ukuman yaykuspayku tariniku challwata kawsaqtaraq hinaspa apaniku wasiyman.</t>
+  </si>
+  <si>
+    <t>Ichaqa wañurqun manaraq chayachkaptiyku…</t>
+  </si>
+  <si>
+    <t>Kacharisqam purichkanku.</t>
+  </si>
+  <si>
+    <t>Llullakunmi tayta.</t>
+  </si>
+  <si>
+    <t>Challwaqa yakumanta hurqusqaqa wañunmi.</t>
+  </si>
+  <si>
+    <t>Humberto Grieve piñarqukun willakuyninta taripasqankumanta.</t>
+  </si>
+  <si>
+    <t>Llapankum willakusqanmanta asipayaykunku.</t>
+  </si>
+  <si>
+    <t>Lliw warmakunam ninku taytanku qullqisapa kasqankuta.</t>
+  </si>
+  <si>
+    <t>Paco Yunqueñataq mana imatapas nispa yuyachkarqan challwakuna yakumanta lluqsispaqa wañusqanta.</t>
+  </si>
+  <si>
+    <t>Manam tayta nin Humberto Grieve.</t>
+  </si>
+  <si>
+    <t>Ñuqaqa manam maqanichu.</t>
+  </si>
+  <si>
+    <t>Manam maqarqanichu.</t>
+  </si>
+  <si>
+    <t>Manam wananqayta qunchu taytan qullqisapa kasqanrayku.</t>
+  </si>
+  <si>
+    <t>Mamaymanmi willaykusaq.</t>
+  </si>
+  <si>
+    <t>Paco Yunque mamanta yuyachkarqan.</t>
+  </si>
+  <si>
+    <t>Chaymanta yuyarirqun patronanta chaynallataq Humberto warmatapas.</t>
+  </si>
+  <si>
+    <t>¿Wasiman kutiptin maqarqunmankuchu?</t>
+  </si>
+  <si>
+    <t>Chaynallatam ninman.</t>
+  </si>
+  <si>
+    <t>Ichaqa Pacopa chankan pukallaña kanman Humberto warmapa haytasqanwan.</t>
+  </si>
+  <si>
+    <t>Pacoñataq waqarqunman.</t>
+  </si>
+  <si>
+    <t>Humberto warmataqa pipas manam imananchu.</t>
+  </si>
+  <si>
+    <t>Arí tayta.</t>
+  </si>
+  <si>
+    <t>Taytaymi llaqtaypi yachachiwarqan.</t>
+  </si>
+  <si>
+    <t>Chaynaqa llapaykichik qillqaychik.</t>
+  </si>
+  <si>
+    <t>Ama utqaspa nin yachachiq.</t>
+  </si>
+  <si>
+    <t>As asllamanta qillqana mana pantanapaq.</t>
+  </si>
+  <si>
+    <t>Allinmi nin yachachiq.</t>
+  </si>
+  <si>
+    <t>Urayninpi sutiykichikta allinta qillqaychik.</t>
+  </si>
+  <si>
+    <t>Yunque waqanayaq kachkan.</t>
+  </si>
+  <si>
+    <t>Chaynalla chaypi kanki nispa kamachin hatun siminwan.</t>
+  </si>
+  <si>
+    <t>Amam kuyunkichu ñuqa kamachinaykama.</t>
+  </si>
+  <si>
+    <t>Humberto Grievem chaynaspan unaysu pukllakun Paco Yunquewan.</t>
+  </si>
+  <si>
+    <t>Yaqa iskay chunka kutita pawaykuspam iskay chunka kutitahina haytaparqun.</t>
+  </si>
+  <si>
+    <t>Qunqayllamanta uyarirqukun waqay.</t>
+  </si>
+  <si>
+    <t>Yunquem waqachkasqa Humberto warma kallpawan haytaparusqanwan.</t>
+  </si>
+  <si>
+    <t>Chayqa chaqwallañam kaykun.</t>
+  </si>
+  <si>
+    <t>Huk wata warmakunapa yachananku ukupi qapariykuchkaptinkum yachachiq yaykurqun.</t>
+  </si>
+  <si>
+    <t>Lliwmi upallarqunku.</t>
+  </si>
+  <si>
+    <t>Ichaya hamuq semanapi huk yachakuq ima ruraytapas allinta qillqanman Humberto Grievepa rurasqantahina.</t>
+  </si>
+  <si>
+    <t>Chayna kanantam munani.</t>
+  </si>
+  <si>
+    <t>Directormi upallarqun.</t>
+  </si>
+  <si>
+    <t>Yachakuqkunañataq yuyaymanaspanku Humberto Grieveta allin riqsiyninkuwan qawanku.</t>
+  </si>
+  <si>
+    <t>Yunqueqa Grievepa nisqanta ruran ichaqa pukayarqun hinaspa pinqasqallaña Humberto warma chaspisqanta wakin warmakuna qawaptin.</t>
+  </si>
+  <si>
+    <t>Achka warmakunam unay takapaykanakunku uyankupi chaynallataq haytapaykunakunku.</t>
+  </si>
+  <si>
+    <t>Lleve usted ya a Paco al colegio.</t>
+  </si>
+  <si>
+    <t>No sirve que llegue tarde el primer día.</t>
+  </si>
+  <si>
+    <t>Desde mañana esperará a que Humberto se levante y los llevará usted juntos a los dos.</t>
+  </si>
+  <si>
+    <t>Que ésta sea la última vez.</t>
+  </si>
+  <si>
+    <t>Pase a sentarse.</t>
+  </si>
+  <si>
+    <t>Porque Paco Yunque es mi muchacho.</t>
+  </si>
+  <si>
+    <t>Por eso.</t>
+  </si>
+  <si>
+    <t>Pero yo lo he colocado con Paco Fariña para que atienda mejor las explicaciones.</t>
+  </si>
+  <si>
+    <t>Déjelo que vuelva a su sitio.</t>
+  </si>
+  <si>
+    <t>Grieve ha llegado tarde y no lo castigan.</t>
+  </si>
+  <si>
+    <t>Porque su papá tiene plata.</t>
+  </si>
+  <si>
+    <t>Todos los días llega tarde.</t>
+  </si>
+  <si>
+    <t>¿Tú vives en su casa?</t>
+  </si>
+  <si>
+    <t>¿Cierto que eres su muchacho?</t>
+  </si>
+  <si>
+    <t>No seas zonzo.</t>
+  </si>
+  <si>
+    <t>El señor te va a castigar.</t>
+  </si>
+  <si>
+    <t>Muy bien dijo el profesor.</t>
+  </si>
+  <si>
+    <t>Vamos a ver.</t>
+  </si>
+  <si>
+    <t>Vamos a hablar ahora de los peces.</t>
+  </si>
+  <si>
+    <t>Pero Grieve recordaba que trajo dos peces pequeños a su casa y los soltó en su salón y ahí estuvieron muchos días.</t>
+  </si>
+  <si>
+    <t>Los movió y se movían.</t>
+  </si>
+  <si>
+    <t>No estaba seguro si vivieron muchos días o murieron pronto.</t>
+  </si>
+  <si>
+    <t>No señor dijo Grieve.</t>
+  </si>
+  <si>
+    <t>Yo no he sido.</t>
+  </si>
+  <si>
+    <t>Yo no me he movido de mi sitio.</t>
+  </si>
+  <si>
+    <t>Paco Fariña estaba agachado.</t>
+  </si>
+  <si>
+    <t>Paco Yunque también.</t>
+  </si>
+  <si>
+    <t>Los dos sabían que era Humberto Grieve quien les había pegado y que era un gran mentiroso.</t>
+  </si>
+  <si>
+    <t>No le pegue usted a Paquito.</t>
+  </si>
+  <si>
+    <t>No sea tan malo”.</t>
+  </si>
+  <si>
+    <t>Ahí está el ejercicio escrito.</t>
+  </si>
+  <si>
+    <t>Ahora todos sacan sus cuadernos y copian lo que hay en la pizarra.</t>
+  </si>
+  <si>
+    <t>Hay que copiarlo completamente igual.</t>
+  </si>
+  <si>
+    <t>El salón se sumió en el silencio.</t>
+  </si>
+  <si>
+    <t>No se oía sino el ruido de los lápices.</t>
+  </si>
+  <si>
+    <t>El profesor se sentó a su pupitre y también se puso a escribir en unos libros.</t>
+  </si>
+  <si>
+    <t>Humberto Grieve llevó al salón de clases las cosas de Paco Yunque y se las guardó en su carpeta.</t>
+  </si>
+  <si>
+    <t>Después volvió al patio a jugar con Paco Yunque.</t>
+  </si>
+  <si>
+    <t>Le cogió del pescuezo y le hizo doblar la cintura y ponerse en cuatro manos.</t>
+  </si>
+  <si>
+    <t>Sí señor Director dijo el profesor.</t>
+  </si>
+  <si>
+    <t>Acaban de hacerlo.</t>
+  </si>
+  <si>
+    <t>La nota más alta la ha obtenido Humberto Grieve.</t>
+  </si>
+  <si>
+    <t>Y Paco Fariña le decía No vayas.</t>
+  </si>
+  <si>
+    <t>Y la mamá de Paco Yunque le diría al niño Humberto “No niño.</t>
+  </si>
+  <si>
+    <t>Qamyá kunanqa Pacota yachaywasiman aparquy.</t>
+  </si>
+  <si>
+    <t>Amayá qallariy punchawqa yachaywasiman qipataqa chayachunchu.</t>
+  </si>
+  <si>
+    <t>Paqarinmantaqa suyanki Humberto rikcharinanta hinaspa apanki iskayninkuta.</t>
+  </si>
+  <si>
+    <t>Kunankamallam chayna kanqa.</t>
+  </si>
+  <si>
+    <t>Yaykumuspa tiyay.</t>
+  </si>
+  <si>
+    <t>Paco Yunque muchachoy kasqanraykum.</t>
+  </si>
+  <si>
+    <t>Chaymi.</t>
+  </si>
+  <si>
+    <t>Allinmi.</t>
+  </si>
+  <si>
+    <t>Paco Fariñawanmi ñuqa tiyachirqani yachachisqayta allinta uyarinanpaq.</t>
+  </si>
+  <si>
+    <t>Kutichun tiyananman.</t>
+  </si>
+  <si>
+    <t>Grieve qipataña chayamuchkaptin mana imananchu.</t>
+  </si>
+  <si>
+    <t>Taytan qullqiyuq kaptin.</t>
+  </si>
+  <si>
+    <t>Sapa punchawmi qipata chayamun.</t>
+  </si>
+  <si>
+    <t>Paco Fariña nin Ama riychu.</t>
+  </si>
+  <si>
+    <t>Ama upachu kay.</t>
+  </si>
+  <si>
+    <t>Taytam piñarqukunman.</t>
+  </si>
+  <si>
+    <t>Kunan qawasun.</t>
+  </si>
+  <si>
+    <t>Kunan rimasun challwakunamanta.</t>
+  </si>
+  <si>
+    <t>Ichaqa yuyanmi Grieve iskay challwachakunata apaspan wasin ukupi kachaykusqanta chaypi achka punchaw kasqantapas.</t>
+  </si>
+  <si>
+    <t>Taspiptin mana kuyurisqanta.</t>
+  </si>
+  <si>
+    <t>Manam allintaqa yuyanchu achka punchaw kawsasqanta utaq utqaylla wañusqanta.</t>
+  </si>
+  <si>
+    <t>Manam tayta nin Grieve.</t>
+  </si>
+  <si>
+    <t>Manam ñuqachu.</t>
+  </si>
+  <si>
+    <t>Manam tiyasqaymantaqa kuyurinichu.</t>
+  </si>
+  <si>
+    <t>Paco Fariñaqa kumurayan.</t>
+  </si>
+  <si>
+    <t>Paco Yunquepas chaynallataq.</t>
+  </si>
+  <si>
+    <t>Iskayninkum yachanku Humberto Grieve maqarqusqanta hinaspa ancha llulla kasqantapas.</t>
+  </si>
+  <si>
+    <t>Paco Yunquepa mamanñataq Humberto warmata ninman “Ama warma.</t>
+  </si>
+  <si>
+    <t>Pacochataqa amayá maqallaychu.</t>
+  </si>
+  <si>
+    <t>Amayá chaynaqa kaychu”.</t>
+  </si>
+  <si>
+    <t>Kaypim kachkan qillqaspa ruranaykichikpaq.</t>
+  </si>
+  <si>
+    <t>Kunan qillqana maytuykichikta hurquspaykichik pizarrapi kaqta qillqaychik.</t>
+  </si>
+  <si>
+    <t>Ima kaqllatam qillqankichik.</t>
+  </si>
+  <si>
+    <t>Chay ukupi llapanku upallarparinku.</t>
+  </si>
+  <si>
+    <t>Lápizwan qillqasqankum uyarikun.</t>
+  </si>
+  <si>
+    <t>Yachachiq tiyarqun pupitrenpi hinaspa maytukunapi qillqaykun.</t>
+  </si>
+  <si>
+    <t>Humberto Grievem Paco Yunquepa kaqninkunata yachananku ukuman aparqun hinaspa carpetanpi waqaycharqapun.</t>
+  </si>
+  <si>
+    <t>Chaymanta pukllanan pampaman Paco Yunquewan pukllaq kutirqun.</t>
+  </si>
+  <si>
+    <t>Kunkanmanta hapirquspan kumurparichin makinwan pampapi hapipakunankama.</t>
+  </si>
+  <si>
+    <t>Arí wiraqucha Director nin yachachiq.</t>
+  </si>
+  <si>
+    <t>Kunallanmi tukurqunku.</t>
+  </si>
+  <si>
+    <t>Humberto Grieven allin notata hurqurqun.</t>
+  </si>
+  <si>
+    <t>Ahí está la patrona y el patrón.</t>
+  </si>
+  <si>
+    <t>Ahí está mi mamá.</t>
+  </si>
+  <si>
+    <t>Yo estoy con mi mamá.</t>
+  </si>
+  <si>
+    <t>¿Me han oído bien?</t>
+  </si>
+  <si>
+    <t>Vamos a hacer lo mismo que hicimos la semana pasada.</t>
+  </si>
+  <si>
+    <t>Exactamente lo mismo.</t>
+  </si>
+  <si>
+    <t>Hay que atender bien a la clase.</t>
+  </si>
+  <si>
+    <t>Hay que copiar bien el ejercicio que voy a escribir después en la pizarra.</t>
+  </si>
+  <si>
+    <t>¿Me han entendido bien?</t>
+  </si>
+  <si>
+    <t>No señor decía Humberto Grieve.</t>
+  </si>
+  <si>
+    <t>Porque en mi salón no se mueren.</t>
+  </si>
+  <si>
+    <t>Porque mi salón es muy elegante.</t>
+  </si>
+  <si>
+    <t>Porque mi papá me dijo que trajera peces y que podía dejarlos sueltos entre las sillas.</t>
+  </si>
+  <si>
+    <t>¡Claro!</t>
+  </si>
+  <si>
+    <t>Porque mi papá tiene mucha plata.</t>
+  </si>
+  <si>
+    <t>Y me ha dicho que va hacer llevar a mi casa a todos los peces del mar.</t>
+  </si>
+  <si>
+    <t>Para mí.</t>
+  </si>
+  <si>
+    <t>Para que juegue con ellos en mi salón grande.</t>
+  </si>
+  <si>
+    <t>Otra vez se reían de Grieve los niños.</t>
+  </si>
+  <si>
+    <t>Este Grieve no sabía nada.</t>
+  </si>
+  <si>
+    <t>No pensaba más que en su casa y en su salón y en su papá y en su plata.</t>
+  </si>
+  <si>
+    <t>Siempre estaba diciendo tonterías.</t>
+  </si>
+  <si>
+    <t>Todos todos todos le tenían miedo al niño Humberto y a sus papás.</t>
+  </si>
+  <si>
+    <t>Todos.</t>
+  </si>
+  <si>
+    <t>Muy bien Humberto Grieve.</t>
+  </si>
+  <si>
+    <t>Lo felicito.</t>
+  </si>
+  <si>
+    <t>Así deben ser los niños.</t>
+  </si>
+  <si>
+    <t>Todos ustedes deben hacer lo mismo que Humberto Grieve.</t>
+  </si>
+  <si>
+    <t>Deben ser buenos alumnos como él.</t>
+  </si>
+  <si>
+    <t>Deben estudiar y ser aplicados como él.</t>
+  </si>
+  <si>
+    <t>Deben ser serios formales y buenos niños como él.</t>
+  </si>
+  <si>
+    <t>Es una casa muy bonita.</t>
+  </si>
+  <si>
+    <t>Chay wasiqa sumaqcham.</t>
+  </si>
+  <si>
+    <t>Chaypim tiyanku patrona patronpiwan.</t>
+  </si>
+  <si>
+    <t>Chaypim mamay kachkan.</t>
+  </si>
+  <si>
+    <t>Ñuqaqa mamaywanmi kachkani.</t>
+  </si>
+  <si>
+    <t>¿Allintachu uyariwankichik?</t>
+  </si>
+  <si>
+    <t>Ñawpaq semanapihinam rurasun.</t>
+  </si>
+  <si>
+    <t>Chaynatapuni.</t>
+  </si>
+  <si>
+    <t>Rimasqayta allinta uyarinkichik.</t>
+  </si>
+  <si>
+    <t>Ruranaykichikpaqmi qillqasaq pizarrapi chaytam allinta qillqaspa apankichik.</t>
+  </si>
+  <si>
+    <t>Wasiy ukupiqa manam wañunchu.</t>
+  </si>
+  <si>
+    <t>Wasiy ukuqa allin sumaqmi.</t>
+  </si>
+  <si>
+    <t>Taytaymi niwarqan challwata apaspay wasiy ukupi kacharinaypaq.</t>
+  </si>
+  <si>
+    <t>¡Arí!</t>
+  </si>
+  <si>
+    <t>Taytayqa achka qullqiyuqmi.</t>
+  </si>
+  <si>
+    <t>Wasiymansi apachinqa quchapi llapallan kaq challwakunata.</t>
+  </si>
+  <si>
+    <t>Ñuqapaq.</t>
+  </si>
+  <si>
+    <t>Wasiypa hatun ukunpi pukllakunaypaq.</t>
+  </si>
+  <si>
+    <t>Grievepa nisqanwan warmakuna kutimanta asiykunku.</t>
+  </si>
+  <si>
+    <t>Grieveqa manam yachanchu imatapas.</t>
+  </si>
+  <si>
+    <t>Wasinpi wasinpa hatun ukunpi taytanpi chaynallataq qullqinpipas yuyarayan.</t>
+  </si>
+  <si>
+    <t>Upahinam imatapas riman.</t>
+  </si>
+  <si>
+    <t>Humberto warmata taytamamantapas llapachallankum manchakurqanku.</t>
+  </si>
+  <si>
+    <t>Llapanku.</t>
+  </si>
+  <si>
+    <t>Allinmi Humberto Grieve.</t>
+  </si>
+  <si>
+    <t>Kusikuy kachun.</t>
+  </si>
+  <si>
+    <t>Chaynam warmachakunaqa kanan.</t>
+  </si>
+  <si>
+    <t>Llapaykichikmi Humberto Grievehina kanaykichik.</t>
+  </si>
+  <si>
+    <t>Payhina allin yachakuq kanaykichik.</t>
+  </si>
+  <si>
+    <t>Allintam yachanaykichik payhina kanaykichikpaq.</t>
+  </si>
+  <si>
+    <t>Payhinam allinta ruranaykichik chaynallataq allin warmakuna kanaykichik.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">El profesor también.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">La cocinera.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Su hija.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">La mamá de Paco.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">El Venancio con su mandil.  </t>
+  </si>
+  <si>
+    <t>La María que lava las bacinicas.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yachachiqpas.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yanupuqpas.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Warmi wawanpas.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pacopa mamanpas.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mandilniyuq Venaciopas.  </t>
+  </si>
+  <si>
+    <t>Bacinicakuna mayllaq Mariapas.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A las once. </t>
+  </si>
+  <si>
+    <t>¿Dónde está tu casa?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chunka hukniyuq horatam. </t>
+  </si>
+  <si>
+    <t>¿Maypitaq wasiykiri?</t>
+  </si>
+  <si>
+    <t>decía el profesor.</t>
+  </si>
+  <si>
+    <t>nin yachachiq.</t>
+  </si>
+  <si>
+    <t>¡Chaynam!</t>
+  </si>
+  <si>
+    <t>¡Eso es!</t>
+  </si>
+  <si>
+    <t>¿Nisqanhinachu muchachun kanki?</t>
+  </si>
+  <si>
+    <t>¿Qam wasiykipichu tiyanki?</t>
+  </si>
+  <si>
+    <t>preguntó tímidamente Paco Yunque.</t>
+  </si>
+  <si>
+    <t>¿En nuestros cuadernos?</t>
+  </si>
+  <si>
+    <t>nispa Paco Yunque tapun manchakuqhinalla.</t>
+  </si>
+  <si>
+    <t>¿Qillqana maytuykupi?</t>
+  </si>
+  <si>
+    <t>¿A mí?</t>
+  </si>
+  <si>
+    <t>¿Ñuqata?</t>
+  </si>
+  <si>
+    <t>¡Qué me va a pegar a mí!</t>
+  </si>
+  <si>
+    <t>¡Ñuqataqa imam maqawanqa!</t>
+  </si>
+  <si>
+    <t>Le pego un puñetazo en el hocico y le echo sangre.</t>
+  </si>
+  <si>
+    <t>¡Vas a ver!</t>
+  </si>
+  <si>
+    <t>¡Como me haga alguna cosa!</t>
+  </si>
+  <si>
+    <t>¡Déjalo y verás!</t>
+  </si>
+  <si>
+    <t>¡Y se lo diré a mi mamá!</t>
+  </si>
+  <si>
+    <t>¡Y vendrá mi papá y le pegará a Grieve y a su papá también y a todos!</t>
+  </si>
+  <si>
+    <t>Siminpi takarquspay yawarcharquyman.</t>
+  </si>
+  <si>
+    <t>¡Mapas qawanki!</t>
+  </si>
+  <si>
+    <t>¡Imatapas ruwaykuwachun!</t>
+  </si>
+  <si>
+    <t>¡Saqiykullay qawankim!</t>
+  </si>
+  <si>
+    <t>¡Hinaspam mamayman willaykusaq!</t>
+  </si>
+  <si>
+    <t>¡Hinaspa taytay hamuspa Grievetaqa maqarqunqa taytantapas chaynallataq llapantapas!</t>
+  </si>
+  <si>
+    <t>¿Y que su papá vendría a pegarle al señor Grieve?</t>
+  </si>
+  <si>
+    <t>¿Cierto sería que le pegaría al niño Humberto?</t>
+  </si>
+  <si>
+    <t>¿Taytanñataq hamurqunman tayta Grieveta maqaqnin?</t>
+  </si>
+  <si>
+    <t>¿Ichachu Humberto warmata maqarqunman?</t>
+  </si>
+  <si>
+    <t>¿Por qué era tan serio y daba miedo?</t>
+  </si>
+  <si>
+    <t>¿Quién era el profesor?</t>
+  </si>
+  <si>
+    <t>¿Imaynanpitaq piña uyayuqri hinaspa manchakuypaq?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">¿Pitaq kay yachachiqri? </t>
   </si>
 </sst>
 </file>
@@ -2368,12 +2782,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -2388,8 +2808,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2704,71 +3125,71 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A6602E1-EC97-4D0D-B00E-F22433FF5991}">
-  <dimension ref="A1:B391"/>
+  <dimension ref="A1:B471"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A370" workbookViewId="0">
-      <selection activeCell="B118" sqref="B118"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection sqref="A1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="101.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="88.88671875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>452</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>453</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>493</v>
+        <v>213</v>
       </c>
       <c r="B2" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>494</v>
+        <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>496</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>2</v>
+        <v>454</v>
       </c>
       <c r="B4" t="s">
-        <v>3</v>
+        <v>455</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>215</v>
       </c>
       <c r="B5" t="s">
-        <v>5</v>
+        <v>216</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>497</v>
+        <v>2</v>
       </c>
       <c r="B6" t="s">
-        <v>499</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>498</v>
+        <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>500</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
@@ -2832,3015 +3253,3655 @@
         <v>20</v>
       </c>
       <c r="B15" t="s">
-        <v>21</v>
+        <v>330</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>22</v>
+        <v>397</v>
       </c>
       <c r="B16" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>24</v>
+        <v>456</v>
       </c>
       <c r="B17" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B18" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>28</v>
+        <v>457</v>
       </c>
       <c r="B19" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B20" t="s">
-        <v>31</v>
+        <v>331</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>32</v>
+        <v>398</v>
       </c>
       <c r="B21" t="s">
-        <v>33</v>
+        <v>399</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>34</v>
+        <v>458</v>
       </c>
       <c r="B22" t="s">
-        <v>35</v>
+        <v>459</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="B23" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>38</v>
+        <v>460</v>
       </c>
       <c r="B24" t="s">
-        <v>39</v>
+        <v>461</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>40</v>
+        <v>462</v>
       </c>
       <c r="B25" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="B26" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="B27" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="B28" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>48</v>
+        <v>463</v>
       </c>
       <c r="B29" t="s">
-        <v>49</v>
+        <v>464</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>50</v>
+        <v>217</v>
       </c>
       <c r="B30" t="s">
-        <v>51</v>
+        <v>218</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>52</v>
+        <v>400</v>
       </c>
       <c r="B31" t="s">
-        <v>53</v>
+        <v>401</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>54</v>
+        <v>36</v>
       </c>
       <c r="B32" t="s">
-        <v>55</v>
+        <v>37</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>56</v>
+        <v>38</v>
       </c>
       <c r="B33" t="s">
-        <v>57</v>
+        <v>380</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>58</v>
+        <v>402</v>
       </c>
       <c r="B34" t="s">
-        <v>59</v>
+        <v>403</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>60</v>
+        <v>39</v>
       </c>
       <c r="B35" t="s">
-        <v>61</v>
+        <v>40</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>62</v>
+        <v>404</v>
       </c>
       <c r="B36" t="s">
-        <v>63</v>
+        <v>405</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>501</v>
+        <v>41</v>
       </c>
       <c r="B37" t="s">
-        <v>502</v>
+        <v>42</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>64</v>
+        <v>43</v>
       </c>
       <c r="B38" t="s">
-        <v>65</v>
+        <v>44</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>66</v>
+        <v>45</v>
       </c>
       <c r="B39" t="s">
-        <v>67</v>
+        <v>46</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>68</v>
+        <v>47</v>
       </c>
       <c r="B40" t="s">
-        <v>69</v>
+        <v>48</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>70</v>
+        <v>49</v>
       </c>
       <c r="B41" t="s">
-        <v>71</v>
+        <v>50</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>72</v>
+        <v>51</v>
       </c>
       <c r="B42" t="s">
-        <v>73</v>
+        <v>52</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>74</v>
+        <v>53</v>
       </c>
       <c r="B43" t="s">
-        <v>75</v>
+        <v>54</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>76</v>
+        <v>55</v>
       </c>
       <c r="B44" t="s">
-        <v>77</v>
+        <v>56</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>78</v>
+        <v>57</v>
       </c>
       <c r="B45" t="s">
-        <v>79</v>
+        <v>58</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>80</v>
+        <v>59</v>
       </c>
       <c r="B46" t="s">
-        <v>81</v>
+        <v>381</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>82</v>
+        <v>60</v>
       </c>
       <c r="B47" t="s">
-        <v>83</v>
+        <v>61</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>84</v>
+        <v>219</v>
       </c>
       <c r="B48" t="s">
-        <v>85</v>
+        <v>220</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>86</v>
+        <v>465</v>
       </c>
       <c r="B49" t="s">
-        <v>87</v>
+        <v>466</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>88</v>
+        <v>221</v>
       </c>
       <c r="B50" t="s">
-        <v>89</v>
+        <v>221</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>90</v>
+        <v>222</v>
       </c>
       <c r="B51" t="s">
-        <v>91</v>
+        <v>223</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>92</v>
+        <v>224</v>
       </c>
       <c r="B52" t="s">
-        <v>93</v>
+        <v>224</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>94</v>
+        <v>225</v>
       </c>
       <c r="B53" t="s">
-        <v>95</v>
+        <v>226</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>96</v>
+        <v>406</v>
       </c>
       <c r="B54" t="s">
-        <v>97</v>
+        <v>407</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>98</v>
+        <v>227</v>
       </c>
       <c r="B55" t="s">
-        <v>99</v>
+        <v>228</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>100</v>
+        <v>62</v>
       </c>
       <c r="B56" t="s">
-        <v>101</v>
+        <v>63</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>503</v>
+        <v>64</v>
       </c>
       <c r="B57" t="s">
-        <v>504</v>
+        <v>65</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>102</v>
+        <v>467</v>
       </c>
       <c r="B58" t="s">
-        <v>103</v>
+        <v>468</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>505</v>
+        <v>66</v>
       </c>
       <c r="B59" t="s">
-        <v>505</v>
+        <v>67</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>506</v>
+        <v>408</v>
       </c>
       <c r="B60" t="s">
-        <v>507</v>
+        <v>229</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>508</v>
+        <v>68</v>
       </c>
       <c r="B61" t="s">
-        <v>508</v>
+        <v>332</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>509</v>
+        <v>69</v>
       </c>
       <c r="B62" t="s">
-        <v>510</v>
+        <v>70</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>104</v>
+        <v>469</v>
       </c>
       <c r="B63" t="s">
-        <v>105</v>
+        <v>470</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>511</v>
+        <v>333</v>
       </c>
       <c r="B64" t="s">
-        <v>512</v>
+        <v>334</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>106</v>
+        <v>335</v>
       </c>
       <c r="B65" t="s">
-        <v>107</v>
+        <v>336</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>108</v>
+        <v>71</v>
       </c>
       <c r="B66" t="s">
-        <v>109</v>
+        <v>337</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>110</v>
+        <v>471</v>
       </c>
       <c r="B67" t="s">
-        <v>111</v>
+        <v>72</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>112</v>
+        <v>73</v>
       </c>
       <c r="B68" t="s">
-        <v>113</v>
+        <v>74</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>513</v>
+        <v>75</v>
       </c>
       <c r="B69" t="s">
-        <v>514</v>
+        <v>76</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>114</v>
+        <v>472</v>
       </c>
       <c r="B70" t="s">
-        <v>115</v>
+        <v>473</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>116</v>
+        <v>77</v>
       </c>
       <c r="B71" t="s">
-        <v>117</v>
+        <v>78</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>118</v>
+        <v>409</v>
       </c>
       <c r="B72" t="s">
-        <v>119</v>
+        <v>410</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>515</v>
+        <v>411</v>
       </c>
       <c r="B73" t="s">
-        <v>516</v>
+        <v>412</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>120</v>
+        <v>79</v>
       </c>
       <c r="B74" t="s">
-        <v>121</v>
+        <v>80</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>122</v>
+        <v>474</v>
       </c>
       <c r="B75" t="s">
-        <v>123</v>
+        <v>81</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>124</v>
+        <v>82</v>
       </c>
       <c r="B76" t="s">
-        <v>125</v>
+        <v>83</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>126</v>
+        <v>84</v>
       </c>
       <c r="B77" t="s">
-        <v>127</v>
+        <v>85</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>128</v>
+        <v>86</v>
       </c>
       <c r="B78" t="s">
-        <v>129</v>
+        <v>87</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>130</v>
+        <v>88</v>
       </c>
       <c r="B79" t="s">
-        <v>131</v>
+        <v>89</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>132</v>
+        <v>230</v>
       </c>
       <c r="B80" t="s">
-        <v>133</v>
+        <v>231</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>134</v>
+        <v>873</v>
       </c>
       <c r="B81" t="s">
-        <v>135</v>
+        <v>875</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>136</v>
+        <v>872</v>
       </c>
       <c r="B82" t="s">
-        <v>137</v>
+        <v>874</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>138</v>
+        <v>232</v>
       </c>
       <c r="B83" t="s">
-        <v>139</v>
+        <v>233</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>140</v>
+        <v>234</v>
       </c>
       <c r="B84" t="s">
-        <v>141</v>
+        <v>235</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>142</v>
+        <v>236</v>
       </c>
       <c r="B85" t="s">
-        <v>143</v>
+        <v>237</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>144</v>
+        <v>475</v>
       </c>
       <c r="B86" t="s">
-        <v>145</v>
+        <v>476</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>146</v>
+        <v>413</v>
       </c>
       <c r="B87" t="s">
-        <v>147</v>
+        <v>414</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>148</v>
+        <v>415</v>
       </c>
       <c r="B88" t="s">
-        <v>149</v>
+        <v>416</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
-        <v>150</v>
+        <v>238</v>
       </c>
       <c r="B89" t="s">
-        <v>151</v>
+        <v>239</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>517</v>
+        <v>417</v>
       </c>
       <c r="B90" t="s">
-        <v>518</v>
+        <v>418</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>519</v>
+        <v>240</v>
       </c>
       <c r="B91" t="s">
-        <v>520</v>
+        <v>241</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
-        <v>521</v>
+        <v>477</v>
       </c>
       <c r="B92" t="s">
-        <v>522</v>
+        <v>478</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
-        <v>523</v>
+        <v>242</v>
       </c>
       <c r="B93" t="s">
-        <v>524</v>
+        <v>338</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
-        <v>525</v>
+        <v>90</v>
       </c>
       <c r="B94" t="s">
-        <v>526</v>
+        <v>339</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
-        <v>152</v>
+        <v>479</v>
       </c>
       <c r="B95" t="s">
-        <v>153</v>
+        <v>480</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
-        <v>154</v>
+        <v>481</v>
       </c>
       <c r="B96" t="s">
-        <v>155</v>
+        <v>482</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
-        <v>156</v>
+        <v>91</v>
       </c>
       <c r="B97" t="s">
-        <v>157</v>
+        <v>92</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
-        <v>158</v>
+        <v>243</v>
       </c>
       <c r="B98" t="s">
-        <v>159</v>
+        <v>244</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
-        <v>527</v>
+        <v>93</v>
       </c>
       <c r="B99" t="s">
-        <v>528</v>
+        <v>94</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
-        <v>160</v>
+        <v>245</v>
       </c>
       <c r="B100" t="s">
-        <v>161</v>
+        <v>246</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
-        <v>529</v>
+        <v>483</v>
       </c>
       <c r="B101" t="s">
-        <v>530</v>
+        <v>484</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
-        <v>162</v>
+        <v>95</v>
       </c>
       <c r="B102" t="s">
-        <v>163</v>
+        <v>340</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
-        <v>531</v>
+        <v>485</v>
       </c>
       <c r="B103" t="s">
-        <v>532</v>
+        <v>486</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
-        <v>533</v>
+        <v>487</v>
       </c>
       <c r="B104" t="s">
-        <v>534</v>
+        <v>488</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
-        <v>164</v>
+        <v>96</v>
       </c>
       <c r="B105" t="s">
-        <v>165</v>
+        <v>97</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
-        <v>535</v>
+        <v>247</v>
       </c>
       <c r="B106" t="s">
-        <v>536</v>
+        <v>248</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
-        <v>166</v>
+        <v>419</v>
       </c>
       <c r="B107" t="s">
-        <v>167</v>
+        <v>420</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
-        <v>537</v>
+        <v>489</v>
       </c>
       <c r="B108" t="s">
-        <v>538</v>
+        <v>249</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
-        <v>539</v>
+        <v>490</v>
       </c>
       <c r="B109" t="s">
-        <v>540</v>
+        <v>491</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
-        <v>541</v>
+        <v>250</v>
       </c>
       <c r="B110" t="s">
-        <v>542</v>
+        <v>251</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
-        <v>168</v>
+        <v>252</v>
       </c>
       <c r="B111" t="s">
-        <v>169</v>
+        <v>253</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
-        <v>543</v>
+        <v>492</v>
       </c>
       <c r="B112" t="s">
-        <v>544</v>
+        <v>493</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
-        <v>170</v>
+        <v>494</v>
       </c>
       <c r="B113" t="s">
-        <v>171</v>
+        <v>495</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
-        <v>545</v>
+        <v>496</v>
       </c>
       <c r="B114" t="s">
-        <v>546</v>
+        <v>497</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
-        <v>172</v>
+        <v>98</v>
       </c>
       <c r="B115" t="s">
-        <v>173</v>
+        <v>99</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
-        <v>547</v>
+        <v>100</v>
       </c>
       <c r="B116" t="s">
-        <v>548</v>
+        <v>341</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
-        <v>174</v>
+        <v>498</v>
       </c>
       <c r="B117" t="s">
-        <v>175</v>
+        <v>499</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
-        <v>549</v>
+        <v>500</v>
       </c>
       <c r="B118" t="s">
-        <v>550</v>
+        <v>501</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
-        <v>176</v>
+        <v>101</v>
       </c>
       <c r="B119" t="s">
-        <v>177</v>
+        <v>102</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
-        <v>178</v>
+        <v>254</v>
       </c>
       <c r="B120" t="s">
-        <v>179</v>
+        <v>255</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
-        <v>180</v>
+        <v>256</v>
       </c>
       <c r="B121" t="s">
-        <v>181</v>
+        <v>257</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
-        <v>551</v>
+        <v>258</v>
       </c>
       <c r="B122" t="s">
-        <v>552</v>
+        <v>259</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
-        <v>182</v>
+        <v>260</v>
       </c>
       <c r="B123" t="s">
-        <v>183</v>
+        <v>382</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
-        <v>553</v>
+        <v>421</v>
       </c>
       <c r="B124" t="s">
-        <v>554</v>
+        <v>422</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
-        <v>555</v>
+        <v>389</v>
       </c>
       <c r="B125" t="s">
-        <v>556</v>
+        <v>390</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
-        <v>557</v>
+        <v>502</v>
       </c>
       <c r="B126" t="s">
-        <v>558</v>
+        <v>503</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
-        <v>559</v>
+        <v>504</v>
       </c>
       <c r="B127" t="s">
-        <v>560</v>
+        <v>505</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
-        <v>561</v>
+        <v>103</v>
       </c>
       <c r="B128" t="s">
-        <v>562</v>
+        <v>104</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
-        <v>184</v>
+        <v>506</v>
       </c>
       <c r="B129" t="s">
-        <v>185</v>
+        <v>507</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
-        <v>563</v>
+        <v>105</v>
       </c>
       <c r="B130" t="s">
-        <v>563</v>
+        <v>106</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
-        <v>186</v>
+        <v>423</v>
       </c>
       <c r="B131" t="s">
-        <v>187</v>
+        <v>424</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
-        <v>188</v>
+        <v>261</v>
       </c>
       <c r="B132" t="s">
-        <v>189</v>
+        <v>262</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
-        <v>190</v>
+        <v>107</v>
       </c>
       <c r="B133" t="s">
-        <v>191</v>
+        <v>108</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
-        <v>192</v>
+        <v>109</v>
       </c>
       <c r="B134" t="s">
-        <v>193</v>
+        <v>110</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
-        <v>194</v>
+        <v>111</v>
       </c>
       <c r="B135" t="s">
-        <v>195</v>
+        <v>112</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
-        <v>196</v>
+        <v>263</v>
       </c>
       <c r="B136" t="s">
-        <v>197</v>
+        <v>264</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
-        <v>564</v>
+        <v>265</v>
       </c>
       <c r="B137" t="s">
-        <v>565</v>
+        <v>266</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
-        <v>198</v>
+        <v>508</v>
       </c>
       <c r="B138" t="s">
-        <v>199</v>
+        <v>113</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
-        <v>566</v>
+        <v>509</v>
       </c>
       <c r="B139" t="s">
-        <v>567</v>
+        <v>510</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
-        <v>568</v>
+        <v>267</v>
       </c>
       <c r="B140" t="s">
-        <v>569</v>
+        <v>268</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
-        <v>570</v>
+        <v>511</v>
       </c>
       <c r="B141" t="s">
-        <v>571</v>
+        <v>269</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
-        <v>572</v>
+        <v>114</v>
       </c>
       <c r="B142" t="s">
-        <v>573</v>
+        <v>115</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
-        <v>574</v>
+        <v>270</v>
       </c>
       <c r="B143" t="s">
-        <v>575</v>
+        <v>342</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
-        <v>200</v>
+        <v>116</v>
       </c>
       <c r="B144" t="s">
-        <v>201</v>
+        <v>61</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
-        <v>202</v>
+        <v>271</v>
       </c>
       <c r="B145" t="s">
-        <v>203</v>
+        <v>272</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
-        <v>576</v>
+        <v>117</v>
       </c>
       <c r="B146" t="s">
-        <v>577</v>
+        <v>118</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
-        <v>578</v>
+        <v>512</v>
       </c>
       <c r="B147" t="s">
-        <v>579</v>
+        <v>119</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
-        <v>204</v>
+        <v>513</v>
       </c>
       <c r="B148" t="s">
-        <v>205</v>
+        <v>514</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
-        <v>580</v>
+        <v>120</v>
       </c>
       <c r="B149" t="s">
-        <v>581</v>
+        <v>121</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
-        <v>582</v>
+        <v>515</v>
       </c>
       <c r="B150" t="s">
-        <v>583</v>
+        <v>273</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
-        <v>206</v>
+        <v>122</v>
       </c>
       <c r="B151" t="s">
-        <v>207</v>
+        <v>123</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
-        <v>208</v>
+        <v>274</v>
       </c>
       <c r="B152" t="s">
-        <v>209</v>
+        <v>275</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
-        <v>584</v>
+        <v>276</v>
       </c>
       <c r="B153" t="s">
-        <v>585</v>
+        <v>277</v>
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
-        <v>210</v>
+        <v>124</v>
       </c>
       <c r="B154" t="s">
-        <v>211</v>
+        <v>383</v>
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
-        <v>586</v>
+        <v>516</v>
       </c>
       <c r="B155" t="s">
-        <v>587</v>
+        <v>517</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
-        <v>588</v>
+        <v>278</v>
       </c>
       <c r="B156" t="s">
-        <v>589</v>
+        <v>343</v>
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
-        <v>590</v>
+        <v>114</v>
       </c>
       <c r="B157" t="s">
-        <v>591</v>
+        <v>115</v>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
-        <v>212</v>
+        <v>518</v>
       </c>
       <c r="B158" t="s">
-        <v>213</v>
+        <v>519</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
-        <v>214</v>
+        <v>125</v>
       </c>
       <c r="B159" t="s">
-        <v>215</v>
+        <v>126</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
-        <v>216</v>
+        <v>279</v>
       </c>
       <c r="B160" t="s">
-        <v>217</v>
+        <v>280</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
-        <v>218</v>
+        <v>281</v>
       </c>
       <c r="B161" t="s">
-        <v>219</v>
+        <v>344</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
-        <v>220</v>
+        <v>127</v>
       </c>
       <c r="B162" t="s">
-        <v>221</v>
+        <v>128</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
-        <v>592</v>
+        <v>520</v>
       </c>
       <c r="B163" t="s">
-        <v>593</v>
+        <v>521</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
-        <v>594</v>
+        <v>129</v>
       </c>
       <c r="B164" t="s">
-        <v>595</v>
+        <v>345</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
-        <v>222</v>
+        <v>282</v>
       </c>
       <c r="B165" t="s">
-        <v>223</v>
+        <v>283</v>
       </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
-        <v>596</v>
+        <v>284</v>
       </c>
       <c r="B166" t="s">
-        <v>597</v>
+        <v>346</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
-        <v>598</v>
+        <v>285</v>
       </c>
       <c r="B167" t="s">
-        <v>599</v>
+        <v>286</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
-        <v>224</v>
+        <v>130</v>
       </c>
       <c r="B168" t="s">
-        <v>225</v>
+        <v>347</v>
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
-        <v>226</v>
+        <v>287</v>
       </c>
       <c r="B169" t="s">
-        <v>227</v>
+        <v>348</v>
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
-        <v>600</v>
+        <v>522</v>
       </c>
       <c r="B170" t="s">
-        <v>601</v>
+        <v>131</v>
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
-        <v>602</v>
+        <v>523</v>
       </c>
       <c r="B171" t="s">
-        <v>603</v>
+        <v>524</v>
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
-        <v>228</v>
+        <v>132</v>
       </c>
       <c r="B172" t="s">
-        <v>229</v>
+        <v>349</v>
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
-        <v>604</v>
+        <v>525</v>
       </c>
       <c r="B173" t="s">
-        <v>605</v>
+        <v>526</v>
       </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
-        <v>230</v>
+        <v>425</v>
       </c>
       <c r="B174" t="s">
-        <v>231</v>
+        <v>426</v>
       </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
-        <v>606</v>
+        <v>133</v>
       </c>
       <c r="B175" t="s">
-        <v>607</v>
+        <v>134</v>
       </c>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
-        <v>232</v>
+        <v>527</v>
       </c>
       <c r="B176" t="s">
-        <v>101</v>
+        <v>528</v>
       </c>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
-        <v>608</v>
+        <v>288</v>
       </c>
       <c r="B177" t="s">
-        <v>609</v>
+        <v>289</v>
       </c>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
-        <v>610</v>
+        <v>529</v>
       </c>
       <c r="B178" t="s">
-        <v>611</v>
+        <v>530</v>
       </c>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
-        <v>233</v>
+        <v>391</v>
       </c>
       <c r="B179" t="s">
-        <v>234</v>
+        <v>392</v>
       </c>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
-        <v>235</v>
+        <v>427</v>
       </c>
       <c r="B180" t="s">
-        <v>236</v>
+        <v>428</v>
       </c>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
-        <v>612</v>
+        <v>429</v>
       </c>
       <c r="B181" t="s">
-        <v>613</v>
+        <v>430</v>
       </c>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
-        <v>614</v>
+        <v>290</v>
       </c>
       <c r="B182" t="s">
-        <v>615</v>
+        <v>384</v>
       </c>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
-        <v>237</v>
+        <v>135</v>
       </c>
       <c r="B183" t="s">
-        <v>238</v>
+        <v>136</v>
       </c>
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
-        <v>239</v>
+        <v>137</v>
       </c>
       <c r="B184" t="s">
-        <v>240</v>
+        <v>350</v>
       </c>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
-        <v>616</v>
+        <v>431</v>
       </c>
       <c r="B185" t="s">
-        <v>617</v>
+        <v>432</v>
       </c>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
-        <v>241</v>
+        <v>291</v>
       </c>
       <c r="B186" t="s">
-        <v>242</v>
+        <v>292</v>
       </c>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
-        <v>243</v>
+        <v>531</v>
       </c>
       <c r="B187" t="s">
-        <v>244</v>
+        <v>532</v>
       </c>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
-        <v>245</v>
+        <v>445</v>
       </c>
       <c r="B188" t="s">
-        <v>246</v>
+        <v>446</v>
       </c>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
-        <v>618</v>
+        <v>138</v>
       </c>
       <c r="B189" t="s">
-        <v>619</v>
+        <v>351</v>
       </c>
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
-        <v>247</v>
+        <v>139</v>
       </c>
       <c r="B190" t="s">
-        <v>248</v>
+        <v>352</v>
       </c>
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
-        <v>620</v>
+        <v>293</v>
       </c>
       <c r="B191" t="s">
-        <v>621</v>
+        <v>294</v>
       </c>
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
-        <v>249</v>
+        <v>533</v>
       </c>
       <c r="B192" t="s">
-        <v>250</v>
+        <v>534</v>
       </c>
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
-        <v>622</v>
+        <v>295</v>
       </c>
       <c r="B193" t="s">
-        <v>623</v>
+        <v>353</v>
       </c>
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
-        <v>624</v>
+        <v>433</v>
       </c>
       <c r="B194" t="s">
-        <v>625</v>
+        <v>434</v>
       </c>
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
-        <v>251</v>
+        <v>535</v>
       </c>
       <c r="B195" t="s">
-        <v>252</v>
+        <v>296</v>
       </c>
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
-        <v>626</v>
+        <v>536</v>
       </c>
       <c r="B196" t="s">
-        <v>627</v>
+        <v>537</v>
       </c>
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
-        <v>628</v>
+        <v>140</v>
       </c>
       <c r="B197" t="s">
-        <v>629</v>
+        <v>141</v>
       </c>
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
-        <v>630</v>
+        <v>297</v>
       </c>
       <c r="B198" t="s">
-        <v>631</v>
+        <v>354</v>
       </c>
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
-        <v>230</v>
+        <v>538</v>
       </c>
       <c r="B199" t="s">
-        <v>231</v>
+        <v>539</v>
       </c>
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
-        <v>632</v>
+        <v>298</v>
       </c>
       <c r="B200" t="s">
-        <v>633</v>
+        <v>299</v>
       </c>
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
-        <v>253</v>
+        <v>142</v>
       </c>
       <c r="B201" t="s">
-        <v>254</v>
+        <v>143</v>
       </c>
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
-        <v>634</v>
+        <v>144</v>
       </c>
       <c r="B202" t="s">
-        <v>635</v>
+        <v>145</v>
       </c>
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
-        <v>636</v>
+        <v>300</v>
       </c>
       <c r="B203" t="s">
-        <v>637</v>
+        <v>301</v>
       </c>
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
-        <v>255</v>
+        <v>448</v>
       </c>
       <c r="B204" t="s">
-        <v>256</v>
+        <v>447</v>
       </c>
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
-        <v>257</v>
+        <v>146</v>
       </c>
       <c r="B205" t="s">
-        <v>258</v>
+        <v>147</v>
       </c>
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
-        <v>638</v>
+        <v>540</v>
       </c>
       <c r="B206" t="s">
-        <v>639</v>
-      </c>
-    </row>
-    <row r="207" spans="1:2" x14ac:dyDescent="0.3">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="207" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
-        <v>259</v>
+        <v>449</v>
       </c>
       <c r="B207" t="s">
-        <v>260</v>
+        <v>450</v>
       </c>
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
-        <v>640</v>
+        <v>542</v>
       </c>
       <c r="B208" t="s">
-        <v>641</v>
+        <v>451</v>
       </c>
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
-        <v>642</v>
+        <v>148</v>
       </c>
       <c r="B209" t="s">
-        <v>643</v>
+        <v>355</v>
       </c>
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
-        <v>644</v>
+        <v>149</v>
       </c>
       <c r="B210" t="s">
-        <v>645</v>
+        <v>356</v>
       </c>
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
-        <v>261</v>
+        <v>150</v>
       </c>
       <c r="B211" t="s">
-        <v>262</v>
+        <v>151</v>
       </c>
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
-        <v>646</v>
+        <v>152</v>
       </c>
       <c r="B212" t="s">
-        <v>647</v>
+        <v>153</v>
       </c>
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
-        <v>648</v>
+        <v>302</v>
       </c>
       <c r="B213" t="s">
-        <v>649</v>
+        <v>303</v>
       </c>
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
-        <v>263</v>
+        <v>543</v>
       </c>
       <c r="B214" t="s">
-        <v>264</v>
+        <v>544</v>
       </c>
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
-        <v>265</v>
+        <v>545</v>
       </c>
       <c r="B215" t="s">
-        <v>266</v>
+        <v>546</v>
       </c>
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
-        <v>650</v>
+        <v>547</v>
       </c>
       <c r="B216" t="s">
-        <v>651</v>
+        <v>548</v>
       </c>
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
-        <v>267</v>
+        <v>549</v>
       </c>
       <c r="B217" t="s">
-        <v>268</v>
+        <v>550</v>
       </c>
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
-        <v>652</v>
+        <v>154</v>
       </c>
       <c r="B218" t="s">
-        <v>653</v>
+        <v>357</v>
       </c>
     </row>
     <row r="219" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
-        <v>654</v>
+        <v>551</v>
       </c>
       <c r="B219" t="s">
-        <v>655</v>
+        <v>552</v>
       </c>
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
-        <v>656</v>
+        <v>155</v>
       </c>
       <c r="B220" t="s">
-        <v>657</v>
+        <v>358</v>
       </c>
     </row>
     <row r="221" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
-        <v>269</v>
+        <v>553</v>
       </c>
       <c r="B221" t="s">
-        <v>270</v>
+        <v>554</v>
       </c>
     </row>
     <row r="222" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
-        <v>658</v>
+        <v>304</v>
       </c>
       <c r="B222" t="s">
-        <v>659</v>
+        <v>305</v>
       </c>
     </row>
     <row r="223" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
-        <v>660</v>
+        <v>886</v>
       </c>
       <c r="B223" t="s">
-        <v>661</v>
-      </c>
-    </row>
-    <row r="224" spans="1:2" x14ac:dyDescent="0.3">
+        <v>887</v>
+      </c>
+    </row>
+    <row r="224" spans="1:2" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
-        <v>271</v>
+        <v>888</v>
       </c>
       <c r="B224" t="s">
-        <v>272</v>
+        <v>889</v>
       </c>
     </row>
     <row r="225" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
-        <v>662</v>
+        <v>890</v>
       </c>
       <c r="B225" t="s">
-        <v>663</v>
+        <v>896</v>
       </c>
     </row>
     <row r="226" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
-        <v>273</v>
+        <v>891</v>
       </c>
       <c r="B226" t="s">
-        <v>274</v>
+        <v>897</v>
       </c>
     </row>
     <row r="227" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
-        <v>664</v>
+        <v>892</v>
       </c>
       <c r="B227" t="s">
-        <v>665</v>
+        <v>898</v>
       </c>
     </row>
     <row r="228" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
-        <v>666</v>
+        <v>893</v>
       </c>
       <c r="B228" t="s">
-        <v>667</v>
+        <v>899</v>
       </c>
     </row>
     <row r="229" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
-        <v>275</v>
+        <v>894</v>
       </c>
       <c r="B229" t="s">
-        <v>276</v>
+        <v>900</v>
       </c>
     </row>
     <row r="230" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
-        <v>277</v>
+        <v>895</v>
       </c>
       <c r="B230" t="s">
-        <v>278</v>
+        <v>901</v>
       </c>
     </row>
     <row r="231" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
-        <v>279</v>
+        <v>156</v>
       </c>
       <c r="B231" t="s">
-        <v>280</v>
+        <v>359</v>
       </c>
     </row>
     <row r="232" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
-        <v>668</v>
+        <v>903</v>
       </c>
       <c r="B232" t="s">
-        <v>669</v>
+        <v>905</v>
       </c>
     </row>
     <row r="233" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
-        <v>670</v>
+        <v>902</v>
       </c>
       <c r="B233" t="s">
-        <v>671</v>
+        <v>904</v>
       </c>
     </row>
     <row r="234" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
-        <v>281</v>
+        <v>555</v>
       </c>
       <c r="B234" t="s">
-        <v>282</v>
+        <v>556</v>
       </c>
     </row>
     <row r="235" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
-        <v>283</v>
+        <v>557</v>
       </c>
       <c r="B235" t="s">
-        <v>284</v>
+        <v>558</v>
       </c>
     </row>
     <row r="236" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
-        <v>672</v>
+        <v>157</v>
       </c>
       <c r="B236" t="s">
-        <v>673</v>
+        <v>158</v>
       </c>
     </row>
     <row r="237" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
-        <v>285</v>
+        <v>159</v>
       </c>
       <c r="B237" t="s">
-        <v>286</v>
+        <v>160</v>
       </c>
     </row>
     <row r="238" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
-        <v>287</v>
+        <v>161</v>
       </c>
       <c r="B238" t="s">
-        <v>288</v>
+        <v>162</v>
       </c>
     </row>
     <row r="239" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
-        <v>674</v>
+        <v>163</v>
       </c>
       <c r="B239" t="s">
-        <v>675</v>
+        <v>360</v>
       </c>
     </row>
     <row r="240" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
-        <v>289</v>
+        <v>559</v>
       </c>
       <c r="B240" t="s">
-        <v>290</v>
+        <v>560</v>
       </c>
     </row>
     <row r="241" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
-        <v>676</v>
+        <v>164</v>
       </c>
       <c r="B241" t="s">
-        <v>677</v>
+        <v>361</v>
       </c>
     </row>
     <row r="242" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
-        <v>678</v>
+        <v>907</v>
       </c>
       <c r="B242" t="s">
-        <v>679</v>
+        <v>909</v>
       </c>
     </row>
     <row r="243" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
-        <v>680</v>
+        <v>906</v>
       </c>
       <c r="B243" t="s">
-        <v>681</v>
+        <v>908</v>
       </c>
     </row>
     <row r="244" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A244" t="s">
-        <v>291</v>
+        <v>165</v>
       </c>
       <c r="B244" t="s">
-        <v>292</v>
+        <v>166</v>
       </c>
     </row>
     <row r="245" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
-        <v>682</v>
+        <v>167</v>
       </c>
       <c r="B245" t="s">
-        <v>683</v>
+        <v>168</v>
       </c>
     </row>
     <row r="246" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A246" t="s">
-        <v>684</v>
+        <v>169</v>
       </c>
       <c r="B246" t="s">
-        <v>685</v>
+        <v>362</v>
       </c>
     </row>
     <row r="247" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A247" t="s">
-        <v>686</v>
+        <v>170</v>
       </c>
       <c r="B247" t="s">
-        <v>687</v>
+        <v>363</v>
       </c>
     </row>
     <row r="248" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A248" t="s">
-        <v>293</v>
+        <v>561</v>
       </c>
       <c r="B248" t="s">
-        <v>294</v>
+        <v>562</v>
       </c>
     </row>
     <row r="249" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A249" t="s">
-        <v>295</v>
+        <v>171</v>
       </c>
       <c r="B249" t="s">
-        <v>296</v>
+        <v>172</v>
       </c>
     </row>
     <row r="250" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A250" t="s">
-        <v>688</v>
+        <v>173</v>
       </c>
       <c r="B250" t="s">
-        <v>689</v>
+        <v>174</v>
       </c>
     </row>
     <row r="251" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A251" t="s">
-        <v>297</v>
+        <v>563</v>
       </c>
       <c r="B251" t="s">
-        <v>298</v>
+        <v>564</v>
       </c>
     </row>
     <row r="252" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A252" t="s">
-        <v>690</v>
+        <v>175</v>
       </c>
       <c r="B252" t="s">
-        <v>691</v>
+        <v>176</v>
       </c>
     </row>
     <row r="253" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A253" t="s">
-        <v>692</v>
+        <v>177</v>
       </c>
       <c r="B253" t="s">
-        <v>693</v>
+        <v>178</v>
       </c>
     </row>
     <row r="254" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A254" t="s">
-        <v>299</v>
+        <v>179</v>
       </c>
       <c r="B254" t="s">
-        <v>300</v>
+        <v>385</v>
       </c>
     </row>
     <row r="255" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A255" t="s">
-        <v>694</v>
+        <v>180</v>
       </c>
       <c r="B255" t="s">
-        <v>695</v>
+        <v>364</v>
       </c>
     </row>
     <row r="256" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A256" t="s">
-        <v>696</v>
+        <v>393</v>
       </c>
       <c r="B256" t="s">
-        <v>697</v>
+        <v>394</v>
       </c>
     </row>
     <row r="257" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A257" t="s">
-        <v>698</v>
+        <v>395</v>
       </c>
       <c r="B257" t="s">
-        <v>699</v>
+        <v>396</v>
       </c>
     </row>
     <row r="258" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A258" t="s">
-        <v>700</v>
+        <v>883</v>
       </c>
       <c r="B258" t="s">
-        <v>701</v>
+        <v>885</v>
       </c>
     </row>
     <row r="259" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A259" t="s">
-        <v>702</v>
+        <v>882</v>
       </c>
       <c r="B259" t="s">
-        <v>703</v>
+        <v>884</v>
       </c>
     </row>
     <row r="260" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A260" t="s">
-        <v>301</v>
+        <v>565</v>
       </c>
       <c r="B260" t="s">
-        <v>302</v>
+        <v>566</v>
       </c>
     </row>
     <row r="261" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A261" t="s">
-        <v>303</v>
+        <v>181</v>
       </c>
       <c r="B261" t="s">
-        <v>304</v>
+        <v>365</v>
       </c>
     </row>
     <row r="262" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A262" t="s">
-        <v>704</v>
+        <v>182</v>
       </c>
       <c r="B262" t="s">
-        <v>705</v>
+        <v>183</v>
       </c>
     </row>
     <row r="263" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A263" t="s">
-        <v>305</v>
+        <v>435</v>
       </c>
       <c r="B263" t="s">
-        <v>306</v>
+        <v>436</v>
       </c>
     </row>
     <row r="264" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A264" t="s">
-        <v>706</v>
+        <v>598</v>
       </c>
       <c r="B264" t="s">
-        <v>707</v>
+        <v>366</v>
       </c>
     </row>
     <row r="265" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A265" t="s">
-        <v>307</v>
+        <v>567</v>
       </c>
       <c r="B265" t="s">
-        <v>308</v>
+        <v>568</v>
       </c>
     </row>
     <row r="266" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A266" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="B266" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
     </row>
     <row r="267" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A267" t="s">
-        <v>311</v>
+        <v>569</v>
       </c>
       <c r="B267" t="s">
-        <v>312</v>
+        <v>570</v>
       </c>
     </row>
     <row r="268" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A268" t="s">
-        <v>708</v>
+        <v>184</v>
       </c>
       <c r="B268" t="s">
-        <v>709</v>
+        <v>367</v>
       </c>
     </row>
     <row r="269" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A269" t="s">
-        <v>710</v>
+        <v>185</v>
       </c>
       <c r="B269" t="s">
-        <v>711</v>
+        <v>368</v>
       </c>
     </row>
     <row r="270" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A270" t="s">
-        <v>313</v>
+        <v>571</v>
       </c>
       <c r="B270" t="s">
-        <v>314</v>
+        <v>572</v>
       </c>
     </row>
     <row r="271" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A271" t="s">
-        <v>315</v>
+        <v>437</v>
       </c>
       <c r="B271" t="s">
-        <v>316</v>
+        <v>438</v>
       </c>
     </row>
     <row r="272" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A272" t="s">
-        <v>317</v>
+        <v>308</v>
       </c>
       <c r="B272" t="s">
-        <v>318</v>
+        <v>309</v>
       </c>
     </row>
     <row r="273" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A273" t="s">
-        <v>319</v>
+        <v>573</v>
       </c>
       <c r="B273" t="s">
-        <v>320</v>
+        <v>574</v>
       </c>
     </row>
     <row r="274" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A274" t="s">
-        <v>321</v>
+        <v>310</v>
       </c>
       <c r="B274" t="s">
-        <v>322</v>
+        <v>311</v>
       </c>
     </row>
     <row r="275" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A275" t="s">
-        <v>323</v>
+        <v>575</v>
       </c>
       <c r="B275" t="s">
-        <v>324</v>
+        <v>576</v>
       </c>
     </row>
     <row r="276" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A276" t="s">
-        <v>325</v>
+        <v>312</v>
       </c>
       <c r="B276" t="s">
-        <v>326</v>
+        <v>313</v>
       </c>
     </row>
     <row r="277" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A277" t="s">
-        <v>327</v>
+        <v>186</v>
       </c>
       <c r="B277" t="s">
-        <v>328</v>
+        <v>187</v>
       </c>
     </row>
     <row r="278" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A278" t="s">
-        <v>712</v>
+        <v>314</v>
       </c>
       <c r="B278" t="s">
-        <v>713</v>
+        <v>315</v>
       </c>
     </row>
     <row r="279" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A279" t="s">
-        <v>714</v>
+        <v>188</v>
       </c>
       <c r="B279" t="s">
-        <v>715</v>
+        <v>369</v>
       </c>
     </row>
     <row r="280" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A280" t="s">
-        <v>329</v>
+        <v>577</v>
       </c>
       <c r="B280" t="s">
-        <v>330</v>
+        <v>578</v>
       </c>
     </row>
     <row r="281" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A281" t="s">
-        <v>331</v>
+        <v>579</v>
       </c>
       <c r="B281" t="s">
-        <v>332</v>
+        <v>189</v>
       </c>
     </row>
     <row r="282" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A282" t="s">
-        <v>333</v>
+        <v>316</v>
       </c>
       <c r="B282" t="s">
-        <v>334</v>
+        <v>317</v>
       </c>
     </row>
     <row r="283" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A283" t="s">
-        <v>335</v>
+        <v>190</v>
       </c>
       <c r="B283" t="s">
-        <v>336</v>
+        <v>370</v>
       </c>
     </row>
     <row r="284" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A284" t="s">
-        <v>337</v>
+        <v>191</v>
       </c>
       <c r="B284" t="s">
-        <v>338</v>
+        <v>371</v>
       </c>
     </row>
     <row r="285" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A285" t="s">
-        <v>339</v>
+        <v>192</v>
       </c>
       <c r="B285" t="s">
-        <v>340</v>
+        <v>372</v>
       </c>
     </row>
     <row r="286" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A286" t="s">
-        <v>341</v>
+        <v>193</v>
       </c>
       <c r="B286" t="s">
-        <v>342</v>
+        <v>194</v>
       </c>
     </row>
     <row r="287" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A287" t="s">
-        <v>343</v>
+        <v>195</v>
       </c>
       <c r="B287" t="s">
-        <v>344</v>
+        <v>196</v>
       </c>
     </row>
     <row r="288" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A288" t="s">
-        <v>345</v>
+        <v>197</v>
       </c>
       <c r="B288" t="s">
-        <v>346</v>
+        <v>386</v>
       </c>
     </row>
     <row r="289" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A289" t="s">
-        <v>347</v>
+        <v>227</v>
       </c>
       <c r="B289" t="s">
-        <v>348</v>
+        <v>228</v>
       </c>
     </row>
     <row r="290" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A290" t="s">
-        <v>349</v>
+        <v>198</v>
       </c>
       <c r="B290" t="s">
-        <v>350</v>
+        <v>199</v>
       </c>
     </row>
     <row r="291" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A291" t="s">
-        <v>351</v>
+        <v>200</v>
       </c>
       <c r="B291" t="s">
-        <v>352</v>
+        <v>373</v>
       </c>
     </row>
     <row r="292" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A292" t="s">
-        <v>353</v>
+        <v>580</v>
       </c>
       <c r="B292" t="s">
-        <v>354</v>
+        <v>581</v>
       </c>
     </row>
     <row r="293" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A293" t="s">
-        <v>355</v>
+        <v>582</v>
       </c>
       <c r="B293" t="s">
-        <v>356</v>
+        <v>583</v>
       </c>
     </row>
     <row r="294" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A294" t="s">
-        <v>357</v>
+        <v>201</v>
       </c>
       <c r="B294" t="s">
-        <v>358</v>
+        <v>388</v>
       </c>
     </row>
     <row r="295" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A295" t="s">
-        <v>359</v>
+        <v>439</v>
       </c>
       <c r="B295" t="s">
-        <v>360</v>
+        <v>440</v>
       </c>
     </row>
     <row r="296" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A296" t="s">
-        <v>361</v>
+        <v>584</v>
       </c>
       <c r="B296" t="s">
-        <v>362</v>
+        <v>585</v>
       </c>
     </row>
     <row r="297" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A297" t="s">
-        <v>363</v>
+        <v>318</v>
       </c>
       <c r="B297" t="s">
-        <v>364</v>
+        <v>319</v>
       </c>
     </row>
     <row r="298" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A298" t="s">
-        <v>365</v>
+        <v>586</v>
       </c>
       <c r="B298" t="s">
-        <v>366</v>
+        <v>587</v>
       </c>
     </row>
     <row r="299" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A299" t="s">
-        <v>367</v>
+        <v>202</v>
       </c>
       <c r="B299" t="s">
-        <v>368</v>
+        <v>374</v>
       </c>
     </row>
     <row r="300" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A300" t="s">
-        <v>369</v>
+        <v>588</v>
       </c>
       <c r="B300" t="s">
-        <v>370</v>
+        <v>589</v>
       </c>
     </row>
     <row r="301" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A301" t="s">
-        <v>371</v>
+        <v>203</v>
       </c>
       <c r="B301" t="s">
-        <v>372</v>
+        <v>204</v>
       </c>
     </row>
     <row r="302" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A302" t="s">
-        <v>373</v>
+        <v>205</v>
       </c>
       <c r="B302" t="s">
-        <v>374</v>
+        <v>206</v>
       </c>
     </row>
     <row r="303" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A303" t="s">
-        <v>375</v>
+        <v>227</v>
       </c>
       <c r="B303" t="s">
-        <v>376</v>
+        <v>228</v>
       </c>
     </row>
     <row r="304" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A304" t="s">
-        <v>377</v>
+        <v>207</v>
       </c>
       <c r="B304" t="s">
-        <v>378</v>
+        <v>208</v>
       </c>
     </row>
     <row r="305" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A305" t="s">
-        <v>379</v>
+        <v>320</v>
       </c>
       <c r="B305" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
     </row>
     <row r="306" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A306" t="s">
-        <v>381</v>
+        <v>321</v>
       </c>
       <c r="B306" t="s">
-        <v>382</v>
+        <v>322</v>
       </c>
     </row>
     <row r="307" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A307" t="s">
-        <v>383</v>
+        <v>590</v>
       </c>
       <c r="B307" t="s">
-        <v>384</v>
+        <v>591</v>
       </c>
     </row>
     <row r="308" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A308" t="s">
-        <v>716</v>
+        <v>209</v>
       </c>
       <c r="B308" t="s">
-        <v>717</v>
+        <v>387</v>
       </c>
     </row>
     <row r="309" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A309" t="s">
-        <v>718</v>
+        <v>592</v>
       </c>
       <c r="B309" t="s">
-        <v>719</v>
+        <v>593</v>
       </c>
     </row>
     <row r="310" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A310" t="s">
-        <v>720</v>
+        <v>594</v>
       </c>
       <c r="B310" t="s">
-        <v>721</v>
+        <v>595</v>
       </c>
     </row>
     <row r="311" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A311" t="s">
-        <v>722</v>
+        <v>210</v>
       </c>
       <c r="B311" t="s">
-        <v>723</v>
+        <v>376</v>
       </c>
     </row>
     <row r="312" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A312" t="s">
-        <v>724</v>
+        <v>211</v>
       </c>
       <c r="B312" t="s">
-        <v>725</v>
+        <v>377</v>
       </c>
     </row>
     <row r="313" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A313" t="s">
-        <v>385</v>
+        <v>441</v>
       </c>
       <c r="B313" t="s">
-        <v>386</v>
+        <v>442</v>
       </c>
     </row>
     <row r="314" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A314" t="s">
-        <v>726</v>
+        <v>212</v>
       </c>
       <c r="B314" t="s">
-        <v>727</v>
+        <v>378</v>
       </c>
     </row>
     <row r="315" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A315" t="s">
-        <v>387</v>
+        <v>443</v>
       </c>
       <c r="B315" t="s">
-        <v>388</v>
+        <v>444</v>
       </c>
     </row>
     <row r="316" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A316" t="s">
-        <v>728</v>
+        <v>323</v>
       </c>
       <c r="B316" t="s">
-        <v>729</v>
+        <v>325</v>
       </c>
     </row>
     <row r="317" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A317" t="s">
-        <v>730</v>
+        <v>596</v>
       </c>
       <c r="B317" t="s">
-        <v>731</v>
+        <v>597</v>
       </c>
     </row>
     <row r="318" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A318" t="s">
-        <v>389</v>
+        <v>326</v>
       </c>
       <c r="B318" t="s">
-        <v>390</v>
+        <v>328</v>
       </c>
     </row>
     <row r="319" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A319" t="s">
-        <v>391</v>
+        <v>327</v>
       </c>
       <c r="B319" t="s">
-        <v>392</v>
+        <v>329</v>
       </c>
     </row>
     <row r="320" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A320" t="s">
-        <v>393</v>
+        <v>324</v>
       </c>
       <c r="B320" t="s">
-        <v>394</v>
+        <v>379</v>
       </c>
     </row>
     <row r="321" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A321" t="s">
-        <v>732</v>
+      <c r="A321" s="1" t="s">
+        <v>599</v>
       </c>
       <c r="B321" t="s">
-        <v>733</v>
+        <v>654</v>
       </c>
     </row>
     <row r="322" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A322" t="s">
-        <v>734</v>
+        <v>600</v>
       </c>
       <c r="B322" t="s">
-        <v>735</v>
+        <v>655</v>
       </c>
     </row>
     <row r="323" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A323" t="s">
-        <v>736</v>
+        <v>252</v>
       </c>
       <c r="B323" t="s">
-        <v>737</v>
+        <v>656</v>
       </c>
     </row>
     <row r="324" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A324" t="s">
-        <v>395</v>
+        <v>601</v>
       </c>
       <c r="B324" t="s">
-        <v>396</v>
+        <v>657</v>
       </c>
     </row>
     <row r="325" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A325" t="s">
-        <v>397</v>
+        <v>490</v>
       </c>
       <c r="B325" t="s">
-        <v>398</v>
+        <v>491</v>
       </c>
     </row>
     <row r="326" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A326" t="s">
-        <v>399</v>
+        <v>602</v>
       </c>
       <c r="B326" t="s">
-        <v>400</v>
+        <v>658</v>
       </c>
     </row>
     <row r="327" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A327" t="s">
-        <v>401</v>
+        <v>603</v>
       </c>
       <c r="B327" t="s">
-        <v>402</v>
+        <v>659</v>
       </c>
     </row>
     <row r="328" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A328" t="s">
-        <v>738</v>
+        <v>604</v>
       </c>
       <c r="B328" t="s">
-        <v>739</v>
+        <v>660</v>
       </c>
     </row>
     <row r="329" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A329" t="s">
-        <v>403</v>
+        <v>605</v>
       </c>
       <c r="B329" t="s">
-        <v>404</v>
+        <v>661</v>
       </c>
     </row>
     <row r="330" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A330" t="s">
-        <v>405</v>
+        <v>606</v>
       </c>
       <c r="B330" t="s">
-        <v>406</v>
+        <v>662</v>
       </c>
     </row>
     <row r="331" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A331" t="s">
-        <v>407</v>
+        <v>607</v>
       </c>
       <c r="B331" t="s">
-        <v>408</v>
+        <v>663</v>
       </c>
     </row>
     <row r="332" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A332" t="s">
-        <v>740</v>
+        <v>608</v>
       </c>
       <c r="B332" t="s">
-        <v>741</v>
+        <v>664</v>
       </c>
     </row>
     <row r="333" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A333" t="s">
-        <v>409</v>
+        <v>609</v>
       </c>
       <c r="B333" t="s">
-        <v>410</v>
+        <v>665</v>
       </c>
     </row>
     <row r="334" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A334" t="s">
-        <v>742</v>
+        <v>610</v>
       </c>
       <c r="B334" t="s">
-        <v>743</v>
+        <v>666</v>
       </c>
     </row>
     <row r="335" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A335" t="s">
-        <v>411</v>
+        <v>611</v>
       </c>
       <c r="B335" t="s">
-        <v>412</v>
+        <v>667</v>
       </c>
     </row>
     <row r="336" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A336" t="s">
-        <v>413</v>
+        <v>612</v>
       </c>
       <c r="B336" t="s">
-        <v>414</v>
+        <v>668</v>
       </c>
     </row>
     <row r="337" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A337" t="s">
-        <v>415</v>
+        <v>613</v>
       </c>
       <c r="B337" t="s">
-        <v>416</v>
+        <v>669</v>
       </c>
     </row>
     <row r="338" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A338" t="s">
-        <v>417</v>
+        <v>490</v>
       </c>
       <c r="B338" t="s">
-        <v>418</v>
+        <v>491</v>
       </c>
     </row>
     <row r="339" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A339" t="s">
-        <v>744</v>
+        <v>614</v>
       </c>
       <c r="B339" t="s">
-        <v>745</v>
+        <v>670</v>
       </c>
     </row>
     <row r="340" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A340" t="s">
-        <v>419</v>
+        <v>615</v>
       </c>
       <c r="B340" t="s">
-        <v>420</v>
+        <v>671</v>
       </c>
     </row>
     <row r="341" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A341" t="s">
-        <v>746</v>
+        <v>616</v>
       </c>
       <c r="B341" t="s">
-        <v>747</v>
+        <v>672</v>
       </c>
     </row>
     <row r="342" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A342" t="s">
-        <v>421</v>
+        <v>617</v>
       </c>
       <c r="B342" t="s">
-        <v>422</v>
+        <v>673</v>
       </c>
     </row>
     <row r="343" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A343" t="s">
-        <v>748</v>
+        <v>618</v>
       </c>
       <c r="B343" t="s">
-        <v>749</v>
+        <v>674</v>
       </c>
     </row>
     <row r="344" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A344" t="s">
-        <v>423</v>
+        <v>619</v>
       </c>
       <c r="B344" t="s">
-        <v>424</v>
+        <v>675</v>
       </c>
     </row>
     <row r="345" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A345" t="s">
-        <v>750</v>
+        <v>620</v>
       </c>
       <c r="B345" t="s">
-        <v>751</v>
+        <v>676</v>
       </c>
     </row>
     <row r="346" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A346" t="s">
-        <v>425</v>
+        <v>879</v>
       </c>
       <c r="B346" t="s">
-        <v>426</v>
+        <v>878</v>
       </c>
     </row>
     <row r="347" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A347" t="s">
-        <v>427</v>
+        <v>876</v>
       </c>
       <c r="B347" t="s">
-        <v>428</v>
+        <v>877</v>
       </c>
     </row>
     <row r="348" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A348" t="s">
-        <v>429</v>
+        <v>225</v>
       </c>
       <c r="B348" t="s">
-        <v>430</v>
+        <v>226</v>
       </c>
     </row>
     <row r="349" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A349" t="s">
-        <v>431</v>
+        <v>621</v>
       </c>
       <c r="B349" t="s">
-        <v>432</v>
+        <v>677</v>
       </c>
     </row>
     <row r="350" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A350" t="s">
-        <v>433</v>
+        <v>622</v>
       </c>
       <c r="B350" t="s">
-        <v>434</v>
+        <v>678</v>
       </c>
     </row>
     <row r="351" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A351" t="s">
-        <v>435</v>
+        <v>490</v>
       </c>
       <c r="B351" t="s">
-        <v>436</v>
+        <v>491</v>
       </c>
     </row>
     <row r="352" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A352" t="s">
-        <v>437</v>
+        <v>622</v>
       </c>
       <c r="B352" t="s">
-        <v>438</v>
+        <v>679</v>
       </c>
     </row>
     <row r="353" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A353" t="s">
-        <v>439</v>
+        <v>623</v>
       </c>
       <c r="B353" t="s">
-        <v>440</v>
+        <v>680</v>
       </c>
     </row>
     <row r="354" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A354" t="s">
-        <v>441</v>
+        <v>624</v>
       </c>
       <c r="B354" t="s">
-        <v>442</v>
+        <v>681</v>
       </c>
     </row>
     <row r="355" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A355" t="s">
-        <v>443</v>
+        <v>625</v>
       </c>
       <c r="B355" t="s">
-        <v>444</v>
+        <v>682</v>
       </c>
     </row>
     <row r="356" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A356" t="s">
-        <v>511</v>
+        <v>626</v>
       </c>
       <c r="B356" t="s">
-        <v>512</v>
+        <v>683</v>
       </c>
     </row>
     <row r="357" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A357" t="s">
-        <v>445</v>
+        <v>627</v>
       </c>
       <c r="B357" t="s">
-        <v>446</v>
+        <v>684</v>
       </c>
     </row>
     <row r="358" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A358" t="s">
-        <v>447</v>
+        <v>628</v>
       </c>
       <c r="B358" t="s">
-        <v>448</v>
+        <v>685</v>
       </c>
     </row>
     <row r="359" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A359" t="s">
-        <v>449</v>
+        <v>629</v>
       </c>
       <c r="B359" t="s">
-        <v>450</v>
+        <v>686</v>
       </c>
     </row>
     <row r="360" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A360" t="s">
-        <v>451</v>
+        <v>630</v>
       </c>
       <c r="B360" t="s">
-        <v>452</v>
+        <v>687</v>
       </c>
     </row>
     <row r="361" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A361" t="s">
-        <v>453</v>
+        <v>631</v>
       </c>
       <c r="B361" t="s">
-        <v>454</v>
+        <v>688</v>
       </c>
     </row>
     <row r="362" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A362" t="s">
-        <v>455</v>
+        <v>632</v>
       </c>
       <c r="B362" t="s">
-        <v>456</v>
+        <v>689</v>
       </c>
     </row>
     <row r="363" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A363" t="s">
-        <v>457</v>
+        <v>633</v>
       </c>
       <c r="B363" t="s">
-        <v>458</v>
+        <v>690</v>
       </c>
     </row>
     <row r="364" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A364" t="s">
-        <v>752</v>
+        <v>225</v>
       </c>
       <c r="B364" t="s">
-        <v>753</v>
+        <v>226</v>
       </c>
     </row>
     <row r="365" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A365" t="s">
-        <v>459</v>
+        <v>634</v>
       </c>
       <c r="B365" t="s">
-        <v>460</v>
+        <v>691</v>
       </c>
     </row>
     <row r="366" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A366" t="s">
-        <v>754</v>
+        <v>635</v>
       </c>
       <c r="B366" t="s">
-        <v>755</v>
+        <v>692</v>
       </c>
     </row>
     <row r="367" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A367" t="s">
-        <v>461</v>
+        <v>636</v>
       </c>
       <c r="B367" t="s">
-        <v>462</v>
+        <v>693</v>
       </c>
     </row>
     <row r="368" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A368" t="s">
-        <v>463</v>
+        <v>637</v>
       </c>
       <c r="B368" t="s">
-        <v>464</v>
+        <v>694</v>
       </c>
     </row>
     <row r="369" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A369" t="s">
-        <v>465</v>
+        <v>638</v>
       </c>
       <c r="B369" t="s">
-        <v>466</v>
+        <v>695</v>
       </c>
     </row>
     <row r="370" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A370" t="s">
-        <v>467</v>
+        <v>639</v>
       </c>
       <c r="B370" t="s">
-        <v>468</v>
+        <v>710</v>
       </c>
     </row>
     <row r="371" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A371" t="s">
-        <v>511</v>
+        <v>640</v>
       </c>
       <c r="B371" t="s">
-        <v>512</v>
+        <v>696</v>
       </c>
     </row>
     <row r="372" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A372" t="s">
-        <v>469</v>
+        <v>641</v>
       </c>
       <c r="B372" t="s">
-        <v>470</v>
+        <v>697</v>
       </c>
     </row>
     <row r="373" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A373" t="s">
-        <v>756</v>
+        <v>642</v>
       </c>
       <c r="B373" t="s">
-        <v>757</v>
+        <v>698</v>
       </c>
     </row>
     <row r="374" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A374" t="s">
-        <v>758</v>
+        <v>643</v>
       </c>
       <c r="B374" t="s">
-        <v>759</v>
+        <v>699</v>
       </c>
     </row>
     <row r="375" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A375" t="s">
-        <v>760</v>
+        <v>644</v>
       </c>
       <c r="B375" t="s">
-        <v>761</v>
+        <v>700</v>
       </c>
     </row>
     <row r="376" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A376" t="s">
-        <v>762</v>
+        <v>645</v>
       </c>
       <c r="B376" t="s">
-        <v>763</v>
+        <v>701</v>
       </c>
     </row>
     <row r="377" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A377" t="s">
-        <v>471</v>
+        <v>646</v>
       </c>
       <c r="B377" t="s">
-        <v>472</v>
+        <v>702</v>
       </c>
     </row>
     <row r="378" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A378" t="s">
-        <v>473</v>
+        <v>647</v>
       </c>
       <c r="B378" t="s">
-        <v>474</v>
+        <v>711</v>
       </c>
     </row>
     <row r="379" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A379" t="s">
-        <v>764</v>
+        <v>18</v>
       </c>
       <c r="B379" t="s">
-        <v>765</v>
+        <v>703</v>
       </c>
     </row>
     <row r="380" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A380" t="s">
-        <v>475</v>
+        <v>648</v>
       </c>
       <c r="B380" t="s">
-        <v>476</v>
+        <v>704</v>
       </c>
     </row>
     <row r="381" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A381" t="s">
-        <v>477</v>
+        <v>649</v>
       </c>
       <c r="B381" t="s">
-        <v>478</v>
+        <v>705</v>
       </c>
     </row>
     <row r="382" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A382" t="s">
-        <v>766</v>
+        <v>650</v>
       </c>
       <c r="B382" t="s">
-        <v>767</v>
+        <v>706</v>
       </c>
     </row>
     <row r="383" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A383" t="s">
-        <v>479</v>
+        <v>651</v>
       </c>
       <c r="B383" t="s">
-        <v>480</v>
+        <v>707</v>
       </c>
     </row>
     <row r="384" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A384" t="s">
-        <v>768</v>
+        <v>652</v>
       </c>
       <c r="B384" t="s">
-        <v>769</v>
+        <v>708</v>
       </c>
     </row>
     <row r="385" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A385" t="s">
-        <v>481</v>
+        <v>653</v>
       </c>
       <c r="B385" t="s">
-        <v>482</v>
+        <v>709</v>
       </c>
     </row>
     <row r="386" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A386" t="s">
-        <v>770</v>
+        <v>712</v>
       </c>
       <c r="B386" t="s">
-        <v>771</v>
+        <v>756</v>
       </c>
     </row>
     <row r="387" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A387" t="s">
-        <v>483</v>
+        <v>713</v>
       </c>
       <c r="B387" t="s">
-        <v>484</v>
+        <v>757</v>
       </c>
     </row>
     <row r="388" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A388" t="s">
-        <v>485</v>
+        <v>714</v>
       </c>
       <c r="B388" t="s">
-        <v>486</v>
+        <v>758</v>
       </c>
     </row>
     <row r="389" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A389" t="s">
-        <v>487</v>
+        <v>637</v>
       </c>
       <c r="B389" t="s">
-        <v>488</v>
+        <v>694</v>
       </c>
     </row>
     <row r="390" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A390" t="s">
-        <v>489</v>
+        <v>715</v>
       </c>
       <c r="B390" t="s">
-        <v>490</v>
+        <v>759</v>
       </c>
     </row>
     <row r="391" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A391" t="s">
-        <v>491</v>
+        <v>716</v>
       </c>
       <c r="B391" t="s">
-        <v>492</v>
+        <v>760</v>
+      </c>
+    </row>
+    <row r="392" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A392" t="s">
+        <v>632</v>
+      </c>
+      <c r="B392" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="393" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A393" t="s">
+        <v>717</v>
+      </c>
+      <c r="B393" t="s">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="394" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A394" t="s">
+        <v>718</v>
+      </c>
+      <c r="B394" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="395" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A395" t="s">
+        <v>225</v>
+      </c>
+      <c r="B395" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="396" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A396" t="s">
+        <v>719</v>
+      </c>
+      <c r="B396" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="397" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A397" t="s">
+        <v>720</v>
+      </c>
+      <c r="B397" t="s">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="398" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A398" t="s">
+        <v>721</v>
+      </c>
+      <c r="B398" t="s">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="399" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A399" t="s">
+        <v>722</v>
+      </c>
+      <c r="B399" t="s">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="400" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A400" t="s">
+        <v>723</v>
+      </c>
+      <c r="B400" t="s">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="401" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A401" t="s">
+        <v>724</v>
+      </c>
+      <c r="B401" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="402" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A402" t="s">
+        <v>725</v>
+      </c>
+      <c r="B402" t="s">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="403" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A403" t="s">
+        <v>754</v>
+      </c>
+      <c r="B403" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="404" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A404" t="s">
+        <v>726</v>
+      </c>
+      <c r="B404" t="s">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="405" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A405" t="s">
+        <v>727</v>
+      </c>
+      <c r="B405" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="406" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A406" t="s">
+        <v>728</v>
+      </c>
+      <c r="B406" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="407" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A407" t="s">
+        <v>729</v>
+      </c>
+      <c r="B407" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="408" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A408" t="s">
+        <v>730</v>
+      </c>
+      <c r="B408" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="409" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A409" t="s">
+        <v>731</v>
+      </c>
+      <c r="B409" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="410" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A410" t="s">
+        <v>732</v>
+      </c>
+      <c r="B410" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="411" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A411" t="s">
+        <v>733</v>
+      </c>
+      <c r="B411" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="412" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A412" t="s">
+        <v>734</v>
+      </c>
+      <c r="B412" t="s">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="413" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A413" t="s">
+        <v>735</v>
+      </c>
+      <c r="B413" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="414" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A414" t="s">
+        <v>736</v>
+      </c>
+      <c r="B414" t="s">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="415" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A415" t="s">
+        <v>737</v>
+      </c>
+      <c r="B415" t="s">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="416" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A416" t="s">
+        <v>738</v>
+      </c>
+      <c r="B416" t="s">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="417" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A417" t="s">
+        <v>739</v>
+      </c>
+      <c r="B417" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="418" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A418" t="s">
+        <v>755</v>
+      </c>
+      <c r="B418" t="s">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="419" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A419" t="s">
+        <v>740</v>
+      </c>
+      <c r="B419" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="420" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A420" t="s">
+        <v>741</v>
+      </c>
+      <c r="B420" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="421" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A421" t="s">
+        <v>742</v>
+      </c>
+      <c r="B421" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="422" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A422" t="s">
+        <v>743</v>
+      </c>
+      <c r="B422" t="s">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="423" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A423" t="s">
+        <v>744</v>
+      </c>
+      <c r="B423" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="424" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A424" t="s">
+        <v>745</v>
+      </c>
+      <c r="B424" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="425" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A425" t="s">
+        <v>746</v>
+      </c>
+      <c r="B425" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="426" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A426" t="s">
+        <v>747</v>
+      </c>
+      <c r="B426" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="427" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A427" t="s">
+        <v>748</v>
+      </c>
+      <c r="B427" t="s">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="428" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A428" t="s">
+        <v>749</v>
+      </c>
+      <c r="B428" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="429" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A429" t="s">
+        <v>750</v>
+      </c>
+      <c r="B429" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="430" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A430" t="s">
+        <v>751</v>
+      </c>
+      <c r="B430" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="431" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A431" t="s">
+        <v>752</v>
+      </c>
+      <c r="B431" t="s">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="432" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A432" t="s">
+        <v>753</v>
+      </c>
+      <c r="B432" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="433" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A433" t="s">
+        <v>829</v>
+      </c>
+      <c r="B433" t="s">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="434" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A434" t="s">
+        <v>798</v>
+      </c>
+      <c r="B434" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="435" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A435" t="s">
+        <v>799</v>
+      </c>
+      <c r="B435" t="s">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="436" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A436" t="s">
+        <v>800</v>
+      </c>
+      <c r="B436" t="s">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="437" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A437" t="s">
+        <v>801</v>
+      </c>
+      <c r="B437" t="s">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="438" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A438" t="s">
+        <v>802</v>
+      </c>
+      <c r="B438" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="439" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A439" t="s">
+        <v>803</v>
+      </c>
+      <c r="B439" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="440" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A440" t="s">
+        <v>804</v>
+      </c>
+      <c r="B440" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="441" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A441" t="s">
+        <v>805</v>
+      </c>
+      <c r="B441" t="s">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="442" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A442" t="s">
+        <v>806</v>
+      </c>
+      <c r="B442" t="s">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="443" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A443" t="s">
+        <v>807</v>
+      </c>
+      <c r="B443" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="444" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A444" t="s">
+        <v>808</v>
+      </c>
+      <c r="B444" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="445" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A445" t="s">
+        <v>809</v>
+      </c>
+      <c r="B445" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="446" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A446" t="s">
+        <v>810</v>
+      </c>
+      <c r="B446" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="447" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A447" t="s">
+        <v>811</v>
+      </c>
+      <c r="B447" t="s">
+        <v>842</v>
+      </c>
+    </row>
+    <row r="448" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A448" t="s">
+        <v>812</v>
+      </c>
+      <c r="B448" t="s">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="449" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A449" t="s">
+        <v>813</v>
+      </c>
+      <c r="B449" t="s">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="450" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A450" t="s">
+        <v>814</v>
+      </c>
+      <c r="B450" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="451" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A451" t="s">
+        <v>815</v>
+      </c>
+      <c r="B451" t="s">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="452" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A452" t="s">
+        <v>816</v>
+      </c>
+      <c r="B452" t="s">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="453" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A453" t="s">
+        <v>817</v>
+      </c>
+      <c r="B453" t="s">
+        <v>848</v>
+      </c>
+    </row>
+    <row r="454" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A454" t="s">
+        <v>818</v>
+      </c>
+      <c r="B454" t="s">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="455" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A455" t="s">
+        <v>819</v>
+      </c>
+      <c r="B455" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="456" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A456" t="s">
+        <v>820</v>
+      </c>
+      <c r="B456" t="s">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="457" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A457" t="s">
+        <v>821</v>
+      </c>
+      <c r="B457" t="s">
+        <v>852</v>
+      </c>
+    </row>
+    <row r="458" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A458" t="s">
+        <v>822</v>
+      </c>
+      <c r="B458" t="s">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="459" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A459" t="s">
+        <v>823</v>
+      </c>
+      <c r="B459" t="s">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="460" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A460" t="s">
+        <v>824</v>
+      </c>
+      <c r="B460" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="461" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A461" t="s">
+        <v>225</v>
+      </c>
+      <c r="B461" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="462" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A462" t="s">
+        <v>825</v>
+      </c>
+      <c r="B462" t="s">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="463" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A463" t="s">
+        <v>826</v>
+      </c>
+      <c r="B463" t="s">
+        <v>857</v>
+      </c>
+    </row>
+    <row r="464" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A464" t="s">
+        <v>827</v>
+      </c>
+      <c r="B464" t="s">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="465" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A465" t="s">
+        <v>828</v>
+      </c>
+      <c r="B465" t="s">
+        <v>859</v>
+      </c>
+    </row>
+    <row r="466" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A466" t="s">
+        <v>860</v>
+      </c>
+      <c r="B466" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="467" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A467" t="s">
+        <v>861</v>
+      </c>
+      <c r="B467" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="468" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A468" t="s">
+        <v>862</v>
+      </c>
+      <c r="B468" t="s">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="469" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A469" t="s">
+        <v>863</v>
+      </c>
+      <c r="B469" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="470" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A470" t="s">
+        <v>864</v>
+      </c>
+      <c r="B470" t="s">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="471" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A471" t="s">
+        <v>865</v>
+      </c>
+      <c r="B471" t="s">
+        <v>871</v>
       </c>
     </row>
   </sheetData>
